--- a/Training Dataset Wkbk.xlsx
+++ b/Training Dataset Wkbk.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27809"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/DhruvGupta/Desktop/3B/MSCI 446/MSCI446-TwitterStockMining/MSCI446-TwitterStockMining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattC/Documents/School/3B/MSCI 446 Data Mining/Project/MSCI446-TwitterStockMining/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,12 +14,12 @@
   <sheets>
     <sheet name="Training Dataset" sheetId="1" r:id="rId1"/>
     <sheet name="Clean Training Dataset" sheetId="8" r:id="rId2"/>
-    <sheet name="Clean Training Dataset (2)" sheetId="13" r:id="rId3"/>
+    <sheet name="CSV" sheetId="13" r:id="rId3"/>
     <sheet name="Normalization Factors" sheetId="2" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Clean Training Dataset'!$A$4:$AC$85</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Clean Training Dataset (2)'!$A$2:$K$83</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">CSV!$A$2:$K$83</definedName>
   </definedNames>
   <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
@@ -11016,11 +11016,11 @@
         <v>49.4</v>
       </c>
       <c r="AA100" s="4">
-        <f t="shared" ref="AA100:AA131" si="47">IFERROR((Z100-Y100)/Y100, "N/A")</f>
+        <f t="shared" ref="AA100:AA116" si="47">IFERROR((Z100-Y100)/Y100, "N/A")</f>
         <v>6.1099796334011637E-3</v>
       </c>
       <c r="AB100" t="str">
-        <f t="shared" ref="AB100:AB131" si="48">IF(AA100="N/A", "N/A", IF(AA100&gt;0, "UP", "DOWN"))</f>
+        <f t="shared" ref="AB100:AB116" si="48">IF(AA100="N/A", "N/A", IF(AA100&gt;0, "UP", "DOWN"))</f>
         <v>UP</v>
       </c>
       <c r="AC100">
@@ -19906,11 +19906,11 @@
         <v>84.27</v>
       </c>
       <c r="AA68" s="4">
-        <f t="shared" ref="AA68:AA99" si="35">IFERROR((Z68-Y68)/Y68, "N/A")</f>
+        <f t="shared" ref="AA68:AA85" si="35">IFERROR((Z68-Y68)/Y68, "N/A")</f>
         <v>-5.8983130824584173E-3</v>
       </c>
       <c r="AB68" t="str">
-        <f t="shared" ref="AB68:AB99" si="36">IF(AA68="N/A", "N/A", IF(AA68&gt;0, "UP", "DOWN"))</f>
+        <f t="shared" ref="AB68:AB85" si="36">IF(AA68="N/A", "N/A", IF(AA68&gt;0, "UP", "DOWN"))</f>
         <v>DOWN</v>
       </c>
       <c r="AC68">

--- a/Training Dataset Wkbk.xlsx
+++ b/Training Dataset Wkbk.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27907"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/MattC/Documents/School/3B/MSCI 446 Data Mining/Project/MSCI446-TwitterStockMining/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Yusuf\PycharmProjects\manipulation\MSCI446-TwitterStockMining\MSCI446-TwitterStockMining\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14600" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="3645" yWindow="465" windowWidth="25605" windowHeight="14595" tabRatio="500" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Training Dataset" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="CSV dataset followers norm" sheetId="10" r:id="rId4"/>
     <sheet name="Normalization Factors" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="171027"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="404" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="422" uniqueCount="63">
   <si>
     <t>company</t>
   </si>
@@ -167,11 +167,65 @@
   <si>
     <t>change_std</t>
   </si>
+  <si>
+    <t>Subj Perc</t>
+  </si>
+  <si>
+    <t>Subj Rank</t>
+  </si>
+  <si>
+    <t>Pol Perc</t>
+  </si>
+  <si>
+    <t>Pol Rank</t>
+  </si>
+  <si>
+    <t>Time Perc</t>
+  </si>
+  <si>
+    <t>Time Rank</t>
+  </si>
+  <si>
+    <t>numTweets Perc</t>
+  </si>
+  <si>
+    <t>numTweets Rank</t>
+  </si>
+  <si>
+    <t>sumRetweets Perc</t>
+  </si>
+  <si>
+    <t>sumRetweets Rank</t>
+  </si>
+  <si>
+    <t>sumFaves Perc</t>
+  </si>
+  <si>
+    <t>sumFaves Rank</t>
+  </si>
+  <si>
+    <t>sumFollowers Perc</t>
+  </si>
+  <si>
+    <t>sumFollowers Rank</t>
+  </si>
+  <si>
+    <t>numVerified Perc</t>
+  </si>
+  <si>
+    <t>numVerified Rank</t>
+  </si>
+  <si>
+    <t>change_std Perc</t>
+  </si>
+  <si>
+    <t>change_std Rank</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -226,7 +280,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -239,6 +293,10 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -249,6 +307,9 @@
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -516,7 +577,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AC86"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -524,16 +585,16 @@
       <selection pane="topRight" activeCell="AC4" sqref="AC4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="10" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="8"/>
-    <col min="25" max="25" width="10.83203125" style="8"/>
-    <col min="27" max="27" width="10.83203125" style="4"/>
+    <col min="17" max="17" width="10.875" style="8"/>
+    <col min="25" max="25" width="10.875" style="8"/>
+    <col min="27" max="27" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -574,7 +635,7 @@
         <v>5.1909357478477098E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -615,7 +676,7 @@
         <v>8.1471763616217489E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -704,7 +765,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -810,7 +871,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>10</v>
       </c>
@@ -916,7 +977,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -1022,7 +1083,7 @@
         <v>0.7378652926222603</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -1128,7 +1189,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -1234,7 +1295,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -1340,7 +1401,7 @@
         <v>5.3475496041623667E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1507,7 @@
         <v>-9.2900582443061708E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>11</v>
       </c>
@@ -1552,7 +1613,7 @@
         <v>0.54897387255906593</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -1658,7 +1719,7 @@
         <v>-0.78768476001982135</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1764,7 +1825,7 @@
         <v>0.32987591495246887</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1870,7 +1931,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -1976,7 +2037,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -2082,7 +2143,7 @@
         <v>-3.0791151353299354E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>12</v>
       </c>
@@ -2188,7 +2249,7 @@
         <v>-9.6508178098076283E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2294,7 +2355,7 @@
         <v>0.89947135905925713</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>12</v>
       </c>
@@ -2400,7 +2461,7 @@
         <v>0.25669020446199992</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>12</v>
       </c>
@@ -2506,7 +2567,7 @@
         <v>-0.81483747334240675</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>13</v>
       </c>
@@ -2612,7 +2673,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>13</v>
       </c>
@@ -2718,7 +2779,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>13</v>
       </c>
@@ -2824,7 +2885,7 @@
         <v>-1.2900672590062767</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -2930,7 +2991,7 @@
         <v>0.60263677348675015</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>13</v>
       </c>
@@ -3036,7 +3097,7 @@
         <v>0.14691079314978872</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -3142,7 +3203,7 @@
         <v>0.14654997887864499</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>13</v>
       </c>
@@ -3248,7 +3309,7 @@
         <v>0.19968012226416862</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>14</v>
       </c>
@@ -3354,7 +3415,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>14</v>
       </c>
@@ -3460,7 +3521,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>14</v>
       </c>
@@ -3566,7 +3627,7 @@
         <v>-0.18981924122123972</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>14</v>
       </c>
@@ -3672,7 +3733,7 @@
         <v>0.73824430646909533</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -3778,7 +3839,7 @@
         <v>3.2849630060844164</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>14</v>
       </c>
@@ -3884,7 +3945,7 @@
         <v>-2.3803944047494454</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>14</v>
       </c>
@@ -3990,7 +4051,7 @@
         <v>0.19005922841589545</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>15</v>
       </c>
@@ -4096,7 +4157,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>15</v>
       </c>
@@ -4202,7 +4263,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>15</v>
       </c>
@@ -4308,7 +4369,7 @@
         <v>-0.31597331053204436</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>15</v>
       </c>
@@ -4414,7 +4475,7 @@
         <v>-0.92280053241042259</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>15</v>
       </c>
@@ -4520,7 +4581,7 @@
         <v>0.61599875839029949</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>15</v>
       </c>
@@ -4626,7 +4687,7 @@
         <v>0.22239714421216208</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>12</v>
       </c>
@@ -4732,7 +4793,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>12</v>
       </c>
@@ -4838,7 +4899,7 @@
         <v>-1.6900624029700886</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>12</v>
       </c>
@@ -4944,7 +5005,7 @@
         <v>1.0848307137268838</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>12</v>
       </c>
@@ -5050,7 +5111,7 @@
         <v>0.10349908095363346</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>12</v>
       </c>
@@ -5156,7 +5217,7 @@
         <v>0.39994453525434925</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>12</v>
       </c>
@@ -5262,7 +5323,7 @@
         <v>-1.6542396379707013E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>13</v>
       </c>
@@ -5368,7 +5429,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>13</v>
       </c>
@@ -5474,7 +5535,7 @@
         <v>-2.4106477905867214</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>13</v>
       </c>
@@ -5580,7 +5641,7 @@
         <v>-9.9157598391492758E-3</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>13</v>
       </c>
@@ -5686,7 +5747,7 @@
         <v>0.1255767997985642</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>13</v>
       </c>
@@ -5792,7 +5853,7 @@
         <v>0.3660164435823367</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>13</v>
       </c>
@@ -5898,7 +5959,7 @@
         <v>1.2651307261415587</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>14</v>
       </c>
@@ -6004,7 +6065,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>14</v>
       </c>
@@ -6110,7 +6171,7 @@
         <v>0.63269347092388106</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>14</v>
       </c>
@@ -6216,7 +6277,7 @@
         <v>-0.23720133833429324</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>14</v>
       </c>
@@ -6322,7 +6383,7 @@
         <v>0.99099576533017397</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>14</v>
       </c>
@@ -6428,7 +6489,7 @@
         <v>-0.36893421099078283</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>14</v>
       </c>
@@ -6534,7 +6595,7 @@
         <v>-3.7408999029779562</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>42</v>
       </c>
@@ -6640,7 +6701,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>42</v>
       </c>
@@ -6746,7 +6807,7 @@
         <v>-0.70239730913560772</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>42</v>
       </c>
@@ -6852,7 +6913,7 @@
         <v>-0.12107727228740689</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>42</v>
       </c>
@@ -6958,7 +7019,7 @@
         <v>-0.70641796316586181</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>42</v>
       </c>
@@ -7064,7 +7125,7 @@
         <v>-1.2695701175997425</v>
       </c>
     </row>
-    <row r="64" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
         <v>42</v>
       </c>
@@ -7170,7 +7231,7 @@
         <v>0.26878516501864103</v>
       </c>
     </row>
-    <row r="65" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
         <v>42</v>
       </c>
@@ -7276,7 +7337,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="66" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>10</v>
       </c>
@@ -7382,7 +7443,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="67" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>10</v>
       </c>
@@ -7488,7 +7549,7 @@
         <v>-0.21401075578976578</v>
       </c>
     </row>
-    <row r="68" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>10</v>
       </c>
@@ -7594,7 +7655,7 @@
         <v>0.16122482372282837</v>
       </c>
     </row>
-    <row r="69" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
         <v>10</v>
       </c>
@@ -7700,7 +7761,7 @@
         <v>-0.21437973177545397</v>
       </c>
     </row>
-    <row r="70" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
         <v>10</v>
       </c>
@@ -7806,7 +7867,7 @@
         <v>-0.36235665807140666</v>
       </c>
     </row>
-    <row r="71" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>10</v>
       </c>
@@ -7912,7 +7973,7 @@
         <v>0.68623604184548304</v>
       </c>
     </row>
-    <row r="72" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>10</v>
       </c>
@@ -8018,7 +8079,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="73" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>43</v>
       </c>
@@ -8124,7 +8185,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="74" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>43</v>
       </c>
@@ -8230,7 +8291,7 @@
         <v>1.3057907511477513</v>
       </c>
     </row>
-    <row r="75" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
         <v>43</v>
       </c>
@@ -8336,7 +8397,7 @@
         <v>0.73814582686056496</v>
       </c>
     </row>
-    <row r="76" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
         <v>43</v>
       </c>
@@ -8442,7 +8503,7 @@
         <v>0.22427680800646727</v>
       </c>
     </row>
-    <row r="77" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
         <v>43</v>
       </c>
@@ -8548,7 +8609,7 @@
         <v>1.448745035437311</v>
       </c>
     </row>
-    <row r="78" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
         <v>43</v>
       </c>
@@ -8654,7 +8715,7 @@
         <v>-0.41060642129091879</v>
       </c>
     </row>
-    <row r="79" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
         <v>43</v>
       </c>
@@ -8760,7 +8821,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="80" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
         <v>15</v>
       </c>
@@ -8860,7 +8921,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="81" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
         <v>15</v>
       </c>
@@ -8966,7 +9027,7 @@
         <v>N/A</v>
       </c>
     </row>
-    <row r="82" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
         <v>15</v>
       </c>
@@ -9072,7 +9133,7 @@
         <v>-6.3714537619441194E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
         <v>15</v>
       </c>
@@ -9178,7 +9239,7 @@
         <v>-0.60862868414888771</v>
       </c>
     </row>
-    <row r="84" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
         <v>15</v>
       </c>
@@ -9284,7 +9345,7 @@
         <v>0.44213967523915559</v>
       </c>
     </row>
-    <row r="85" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
         <v>15</v>
       </c>
@@ -9390,7 +9451,7 @@
         <v>0.58878233394100898</v>
       </c>
     </row>
-    <row r="86" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
         <v>15</v>
       </c>
@@ -9550,7 +9611,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AC63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -9558,16 +9619,16 @@
       <selection pane="topRight" activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="15.5" style="10" customWidth="1"/>
-    <col min="17" max="17" width="10.83203125" style="8"/>
-    <col min="25" max="25" width="10.83203125" style="8"/>
-    <col min="27" max="27" width="10.83203125" style="4"/>
+    <col min="17" max="17" width="10.875" style="8"/>
+    <col min="25" max="25" width="10.875" style="8"/>
+    <col min="27" max="27" width="10.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>23</v>
       </c>
@@ -9608,7 +9669,7 @@
         <v>5.1909357478477098E-4</v>
       </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -9649,7 +9710,7 @@
         <v>8.1471763616217489E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
         <v>0</v>
       </c>
@@ -9738,7 +9799,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
@@ -9844,7 +9905,7 @@
         <v>0.7378652926222603</v>
       </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -9950,7 +10011,7 @@
         <v>5.3475496041623667E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -10056,7 +10117,7 @@
         <v>-9.2900582443061708E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -10162,7 +10223,7 @@
         <v>0.54897387255906593</v>
       </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -10268,7 +10329,7 @@
         <v>-0.78768476001982135</v>
       </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>11</v>
       </c>
@@ -10374,7 +10435,7 @@
         <v>0.32987591495246887</v>
       </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -10480,7 +10541,7 @@
         <v>-3.0791151353299354E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -10586,7 +10647,7 @@
         <v>-9.6508178098076283E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -10692,7 +10753,7 @@
         <v>0.89947135905925713</v>
       </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -10798,7 +10859,7 @@
         <v>0.25669020446199992</v>
       </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -10904,7 +10965,7 @@
         <v>-0.81483747334240675</v>
       </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -11010,7 +11071,7 @@
         <v>-1.2900672590062767</v>
       </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -11116,7 +11177,7 @@
         <v>0.60263677348675015</v>
       </c>
     </row>
-    <row r="17" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -11222,7 +11283,7 @@
         <v>0.14691079314978872</v>
       </c>
     </row>
-    <row r="18" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>13</v>
       </c>
@@ -11328,7 +11389,7 @@
         <v>0.14654997887864499</v>
       </c>
     </row>
-    <row r="19" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -11434,7 +11495,7 @@
         <v>0.19968012226416862</v>
       </c>
     </row>
-    <row r="20" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -11540,7 +11601,7 @@
         <v>-0.18981924122123972</v>
       </c>
     </row>
-    <row r="21" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -11646,7 +11707,7 @@
         <v>0.73824430646909533</v>
       </c>
     </row>
-    <row r="22" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -11752,7 +11813,7 @@
         <v>3.2849630060844164</v>
       </c>
     </row>
-    <row r="23" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>14</v>
       </c>
@@ -11858,7 +11919,7 @@
         <v>-2.3803944047494454</v>
       </c>
     </row>
-    <row r="24" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>14</v>
       </c>
@@ -11964,7 +12025,7 @@
         <v>0.19005922841589545</v>
       </c>
     </row>
-    <row r="25" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -12070,7 +12131,7 @@
         <v>-0.31597331053204436</v>
       </c>
     </row>
-    <row r="26" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -12176,7 +12237,7 @@
         <v>-0.92280053241042259</v>
       </c>
     </row>
-    <row r="27" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>15</v>
       </c>
@@ -12282,7 +12343,7 @@
         <v>0.61599875839029949</v>
       </c>
     </row>
-    <row r="28" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>15</v>
       </c>
@@ -12388,7 +12449,7 @@
         <v>0.22239714421216208</v>
       </c>
     </row>
-    <row r="29" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -12494,7 +12555,7 @@
         <v>-1.6900624029700886</v>
       </c>
     </row>
-    <row r="30" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -12600,7 +12661,7 @@
         <v>1.0848307137268838</v>
       </c>
     </row>
-    <row r="31" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -12706,7 +12767,7 @@
         <v>0.10349908095363346</v>
       </c>
     </row>
-    <row r="32" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>12</v>
       </c>
@@ -12812,7 +12873,7 @@
         <v>0.39994453525434925</v>
       </c>
     </row>
-    <row r="33" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>12</v>
       </c>
@@ -12918,7 +12979,7 @@
         <v>-1.6542396379707013E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -13024,7 +13085,7 @@
         <v>-2.4106477905867214</v>
       </c>
     </row>
-    <row r="35" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -13130,7 +13191,7 @@
         <v>-9.9157598391492758E-3</v>
       </c>
     </row>
-    <row r="36" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -13236,7 +13297,7 @@
         <v>0.1255767997985642</v>
       </c>
     </row>
-    <row r="37" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>13</v>
       </c>
@@ -13342,7 +13403,7 @@
         <v>0.3660164435823367</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>13</v>
       </c>
@@ -13448,7 +13509,7 @@
         <v>1.2651307261415587</v>
       </c>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -13554,7 +13615,7 @@
         <v>0.63269347092388106</v>
       </c>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -13660,7 +13721,7 @@
         <v>-0.23720133833429324</v>
       </c>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -13766,7 +13827,7 @@
         <v>0.99099576533017397</v>
       </c>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>14</v>
       </c>
@@ -13872,7 +13933,7 @@
         <v>-0.36893421099078283</v>
       </c>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>14</v>
       </c>
@@ -13978,7 +14039,7 @@
         <v>-3.7408999029779562</v>
       </c>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -14084,7 +14145,7 @@
         <v>-0.70239730913560772</v>
       </c>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -14190,7 +14251,7 @@
         <v>-0.12107727228740689</v>
       </c>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -14296,7 +14357,7 @@
         <v>-0.70641796316586181</v>
       </c>
     </row>
-    <row r="47" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>42</v>
       </c>
@@ -14402,7 +14463,7 @@
         <v>-1.2695701175997425</v>
       </c>
     </row>
-    <row r="48" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>42</v>
       </c>
@@ -14508,7 +14569,7 @@
         <v>0.26878516501864103</v>
       </c>
     </row>
-    <row r="49" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -14614,7 +14675,7 @@
         <v>-0.21401075578976578</v>
       </c>
     </row>
-    <row r="50" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -14720,7 +14781,7 @@
         <v>0.16122482372282837</v>
       </c>
     </row>
-    <row r="51" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -14826,7 +14887,7 @@
         <v>-0.21437973177545397</v>
       </c>
     </row>
-    <row r="52" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>10</v>
       </c>
@@ -14932,7 +14993,7 @@
         <v>-0.36235665807140666</v>
       </c>
     </row>
-    <row r="53" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>10</v>
       </c>
@@ -15038,7 +15099,7 @@
         <v>0.68623604184548304</v>
       </c>
     </row>
-    <row r="54" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -15144,7 +15205,7 @@
         <v>1.3057907511477513</v>
       </c>
     </row>
-    <row r="55" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -15250,7 +15311,7 @@
         <v>0.73814582686056496</v>
       </c>
     </row>
-    <row r="56" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -15356,7 +15417,7 @@
         <v>0.22427680800646727</v>
       </c>
     </row>
-    <row r="57" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>43</v>
       </c>
@@ -15462,7 +15523,7 @@
         <v>1.448745035437311</v>
       </c>
     </row>
-    <row r="58" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>43</v>
       </c>
@@ -15568,7 +15629,7 @@
         <v>-0.41060642129091879</v>
       </c>
     </row>
-    <row r="59" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -15674,7 +15735,7 @@
         <v>-6.3714537619441194E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -15780,7 +15841,7 @@
         <v>-0.60862868414888771</v>
       </c>
     </row>
-    <row r="61" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -15886,7 +15947,7 @@
         <v>0.44213967523915559</v>
       </c>
     </row>
-    <row r="62" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
         <v>15</v>
       </c>
@@ -15992,7 +16053,7 @@
         <v>0.58878233394100898</v>
       </c>
     </row>
-    <row r="63" spans="1:29" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
         <v>15</v>
       </c>
@@ -16200,20 +16261,37 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K61"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:AC61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="K8" sqref="K8"/>
+      <pane xSplit="2" topLeftCell="Y1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AC8" sqref="AC8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="1" max="1" width="2.625" customWidth="1"/>
+    <col min="2" max="2" width="2.375" customWidth="1"/>
+    <col min="3" max="3" width="10.875" style="8"/>
+    <col min="4" max="5" width="11" style="13"/>
+    <col min="9" max="9" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="28.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="15.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:29" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -16223,32 +16301,86 @@
       <c r="C1" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F1" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="I1" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="J1" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="M1" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="N1" s="6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O1" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="P1" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q1" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="R1" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="S1" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="T1" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="U1" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="J1" s="6" t="s">
+      <c r="V1" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="W1" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="X1" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="K1" s="6" t="s">
+      <c r="Y1" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="Z1" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="AA1" s="6" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB1" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="AC1" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -16258,32 +16390,104 @@
       <c r="C2" s="8">
         <v>-1.1252945675166821</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="15">
+        <f>_xlfn.RANK.EQ(C2,$C$2:$C$61,1)/COUNT($C$2:$C$61)</f>
+        <v>0.1</v>
+      </c>
+      <c r="E2" s="14" t="str">
+        <f>IF(D2&lt;=0.25,"Very low subjectivity",IF(AND(D2&gt;0.25,D2&lt;=0.5),"Low subjectivity",IF(AND(D2&gt;0.5,D2&lt;=0.75),"High subjectivity",IF(D2&gt;0.75,"Very high subjectivity"," "))))</f>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F2">
         <v>-0.20973990080469601</v>
       </c>
-      <c r="E2">
+      <c r="G2">
+        <f>_xlfn.RANK.EQ(F2,$F$2:$F$61,1)/COUNT($F$2:$F$61)</f>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(G2&lt;=0.25,"Very low polarity",IF(AND(G2&gt;0.25,G2&lt;=0.5),"Low polarity",IF(AND(G2&gt;0.5,G2&lt;=0.75),"High polarity",IF(G2&gt;0.75,"Very high polarity"," "))))</f>
+        <v>Low polarity</v>
+      </c>
+      <c r="I2">
         <v>-1.4264009682585033</v>
       </c>
-      <c r="F2">
+      <c r="J2">
+        <f>_xlfn.RANK.EQ(I2,$I$2:$I$61,1)/COUNT($I$2:$I$61)</f>
+        <v>0.1</v>
+      </c>
+      <c r="K2" t="str">
+        <f>IF(G2&lt;=0.25,"Very early time sent",IF(AND(G2&gt;0.25,G2&lt;=0.5),"Early time sent",IF(AND(G2&gt;0.5,G2&lt;=0.75),"Late time sent",IF(G2&gt;0.75,"Very late time sent"," "))))</f>
+        <v>Early time sent</v>
+      </c>
+      <c r="L2">
         <v>-0.88432250172701798</v>
       </c>
-      <c r="G2">
+      <c r="M2">
+        <f>_xlfn.RANK.EQ(L2,$L$2:$L$61,1)/COUNT($L$2:$L$61)</f>
+        <v>0.1</v>
+      </c>
+      <c r="N2" t="str">
+        <f>IF(M2&lt;=0.25,"Very low numTweets",IF(AND(M2&gt;0.25,M2&lt;=0.5),"Low numTweets",IF(AND(M2&gt;0.5,M2&lt;=0.75),"High numTweets",IF(M2&gt;0.75,"Very high numTweets"," "))))</f>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O2">
         <v>-0.34032099285617529</v>
       </c>
-      <c r="H2">
+      <c r="P2">
+        <f>_xlfn.RANK.EQ(O2,$O$2:$O$61,1)/COUNT($O$2:$O$61)</f>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(P2&lt;=0.25,"Very low sumRetweets",IF(AND(P2&gt;0.25,P2&lt;=0.5),"Low sumRetweets",IF(AND(P2&gt;0.5,P2&lt;=0.75),"High sumRetweets",IF(P2&gt;0.75,"Very high sumRetweets"," "))))</f>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R2">
         <v>-0.49284352511847523</v>
       </c>
-      <c r="I2">
+      <c r="S2">
+        <f>_xlfn.RANK.EQ(R2,$R$2:$R$61,1)/COUNT($R$2:$R$61)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="T2" t="str">
+        <f>IF(S2&lt;=0.25,"Very low sumFaves",IF(AND(S2&gt;0.25,S2&lt;=0.5),"Low sumFaves",IF(AND(S2&gt;0.5,S2&lt;=0.75),"High sumFaves",IF(S2&gt;0.75,"Very high sumFaves"," "))))</f>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U2">
         <v>-0.77620962243342739</v>
       </c>
-      <c r="J2">
+      <c r="V2">
+        <f>_xlfn.RANK.EQ(U2,$U$2:$U$61,1)/COUNT($U$2:$U$61)</f>
+        <v>0.2</v>
+      </c>
+      <c r="W2" t="str">
+        <f>IF(V2&lt;=0.25,"Very low sumFollow",IF(AND(V2&gt;0.25,V2&lt;=0.5),"Low sumFollow",IF(AND(V2&gt;0.5,V2&lt;=0.75),"High sumFollow",IF(V2&gt;0.75,"Very high sumFollow"," "))))</f>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X2">
         <v>-0.66331327946381735</v>
       </c>
-      <c r="K2">
+      <c r="Y2">
+        <f>_xlfn.RANK.EQ(X2,$X$2:$X$61,1)/COUNT($X$2:$X$61)</f>
+        <v>0.35</v>
+      </c>
+      <c r="Z2" t="str">
+        <f>IF(Y2&lt;=0.25,"Very low verif",IF(AND(Y2&gt;0.25,Y2&lt;=0.5),"Low verif",IF(AND(Y2&gt;0.5,Y2&lt;=0.75),"High verif",IF(Y2&gt;0.75,"Very high verif"," "))))</f>
+        <v>Low verif</v>
+      </c>
+      <c r="AA2">
         <v>0.7378652926222603</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB2">
+        <f>_xlfn.RANK.EQ(AA2,$AA$2:$AA$61,1)/COUNT($AA$2:$AA$61)</f>
+        <v>0.85</v>
+      </c>
+      <c r="AC2" t="str">
+        <f>IF(AB2&lt;=0.25,"Big decrease",IF(AND(AB2&gt;0.25,AB2&lt;=0.5),"Decrease",IF(AND(AB2&gt;0.5,AB2&lt;=0.75),"Increase",IF(AB2&gt;0.75,"Big increase"," "))))</f>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -16293,32 +16497,104 @@
       <c r="C3" s="8">
         <v>-0.39896726225282242</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="15">
+        <f t="shared" ref="D3:D61" si="0">_xlfn.RANK.EQ(C3,$C$2:$C$61,1)/COUNT($C$2:$C$61)</f>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="E3" s="14" t="str">
+        <f t="shared" ref="E3:E61" si="1">IF(D3&lt;=0.25,"Very low subjectivity",IF(AND(D3&gt;0.25,D3&lt;=0.5),"Low subjectivity",IF(AND(D3&gt;0.5,D3&lt;=0.75),"High subjectivity",IF(D3&gt;0.75,"Very high subjectivity"," "))))</f>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F3">
         <v>-0.42181381052263872</v>
       </c>
-      <c r="E3">
+      <c r="G3">
+        <f t="shared" ref="G3:G61" si="2">_xlfn.RANK.EQ(F3,$F$2:$F$61,1)/COUNT($F$2:$F$61)</f>
+        <v>0.25</v>
+      </c>
+      <c r="H3" t="str">
+        <f t="shared" ref="H3:H61" si="3">IF(G3&lt;=0.25,"Very low polarity",IF(AND(G3&gt;0.25,G3&lt;=0.5),"Low polarity",IF(AND(G3&gt;0.5,G3&lt;=0.75),"High polarity",IF(G3&gt;0.75,"Very high polarity"," "))))</f>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I3">
         <v>-0.66955946124506593</v>
       </c>
-      <c r="F3">
+      <c r="J3">
+        <f t="shared" ref="J3:J61" si="4">_xlfn.RANK.EQ(I3,$I$2:$I$61,1)/COUNT($I$2:$I$61)</f>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="K3" t="str">
+        <f t="shared" ref="K3:K61" si="5">IF(G3&lt;=0.25,"Very early time sent",IF(AND(G3&gt;0.25,G3&lt;=0.5),"Early time sent",IF(AND(G3&gt;0.5,G3&lt;=0.75),"Late time sent",IF(G3&gt;0.75,"Very late time sent"," "))))</f>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L3">
         <v>-4.6703364020500425E-2</v>
       </c>
-      <c r="G3">
+      <c r="M3">
+        <f t="shared" ref="M3:M61" si="6">_xlfn.RANK.EQ(L3,$L$2:$L$61,1)/COUNT($L$2:$L$61)</f>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="N3" t="str">
+        <f t="shared" ref="N3:N61" si="7">IF(M3&lt;=0.25,"Very low numTweets",IF(AND(M3&gt;0.25,M3&lt;=0.5),"Low numTweets",IF(AND(M3&gt;0.5,M3&lt;=0.75),"High numTweets",IF(M3&gt;0.75,"Very high numTweets"," "))))</f>
+        <v>High numTweets</v>
+      </c>
+      <c r="O3">
         <v>-0.29270358848078698</v>
       </c>
-      <c r="H3">
+      <c r="P3">
+        <f t="shared" ref="P3:P61" si="8">_xlfn.RANK.EQ(O3,$O$2:$O$61,1)/COUNT($O$2:$O$61)</f>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Q3" t="str">
+        <f t="shared" ref="Q3:Q61" si="9">IF(P3&lt;=0.25,"Very low sumRetweets",IF(AND(P3&gt;0.25,P3&lt;=0.5),"Low sumRetweets",IF(AND(P3&gt;0.5,P3&lt;=0.75),"High sumRetweets",IF(P3&gt;0.75,"Very high sumRetweets"," "))))</f>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R3">
         <v>-0.40954238939479548</v>
       </c>
-      <c r="I3">
+      <c r="S3">
+        <f t="shared" ref="S3:S61" si="10">_xlfn.RANK.EQ(R3,$R$2:$R$61,1)/COUNT($R$2:$R$61)</f>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="T3" t="str">
+        <f t="shared" ref="T3:T61" si="11">IF(S3&lt;=0.25,"Very low sumFaves",IF(AND(S3&gt;0.25,S3&lt;=0.5),"Low sumFaves",IF(AND(S3&gt;0.5,S3&lt;=0.75),"High sumFaves",IF(S3&gt;0.75,"Very high sumFaves"," "))))</f>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U3">
         <v>0.74692095818296744</v>
       </c>
-      <c r="J3">
+      <c r="V3">
+        <f t="shared" ref="V3:V61" si="12">_xlfn.RANK.EQ(U3,$U$2:$U$61,1)/COUNT($U$2:$U$61)</f>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="W3" t="str">
+        <f t="shared" ref="W3:W61" si="13">IF(V3&lt;=0.25,"Very low sumFollow",IF(AND(V3&gt;0.25,V3&lt;=0.5),"Low sumFollow",IF(AND(V3&gt;0.5,V3&lt;=0.75),"High sumFollow",IF(V3&gt;0.75,"Very high sumFollow"," "))))</f>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X3">
         <v>0.39343227618657434</v>
       </c>
-      <c r="K3">
+      <c r="Y3">
+        <f t="shared" ref="Y3:Y61" si="14">_xlfn.RANK.EQ(X3,$X$2:$X$61,1)/COUNT($X$2:$X$61)</f>
+        <v>0.7</v>
+      </c>
+      <c r="Z3" t="str">
+        <f t="shared" ref="Z3:Z61" si="15">IF(Y3&lt;=0.25,"Very low verif",IF(AND(Y3&gt;0.25,Y3&lt;=0.5),"Low verif",IF(AND(Y3&gt;0.5,Y3&lt;=0.75),"High verif",IF(Y3&gt;0.75,"Very high verif"," "))))</f>
+        <v>High verif</v>
+      </c>
+      <c r="AA3">
         <v>5.3475496041623667E-2</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB3">
+        <f t="shared" ref="AB3:AB61" si="16">_xlfn.RANK.EQ(AA3,$AA$2:$AA$61,1)/COUNT($AA$2:$AA$61)</f>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="AC3" t="str">
+        <f t="shared" ref="AC3:AC61" si="17">IF(AB3&lt;=0.25,"Big decrease",IF(AND(AB3&gt;0.25,AB3&lt;=0.5),"Decrease",IF(AND(AB3&gt;0.5,AB3&lt;=0.75),"Increase",IF(AB3&gt;0.75,"Big increase"," "))))</f>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -16328,32 +16604,104 @@
       <c r="C4" s="8">
         <v>4.4432946825990208E-2</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="15">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="E4" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F4">
         <v>-0.35227937609362214</v>
       </c>
-      <c r="E4">
+      <c r="G4">
+        <f t="shared" si="2"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I4">
         <v>-7.0393268082626553E-2</v>
       </c>
-      <c r="F4">
+      <c r="J4">
+        <f t="shared" si="4"/>
+        <v>0.45</v>
+      </c>
+      <c r="K4" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L4">
         <v>0.35041675418224594</v>
       </c>
-      <c r="G4">
+      <c r="M4">
+        <f t="shared" si="6"/>
+        <v>0.75</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O4">
         <v>-0.21655686379283601</v>
       </c>
-      <c r="H4">
+      <c r="P4">
+        <f t="shared" si="8"/>
+        <v>0.65</v>
+      </c>
+      <c r="Q4" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R4">
         <v>-0.23175193993987592</v>
       </c>
-      <c r="I4">
+      <c r="S4">
+        <f t="shared" si="10"/>
+        <v>0.7</v>
+      </c>
+      <c r="T4" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U4">
         <v>0.25598980027847651</v>
       </c>
-      <c r="J4">
+      <c r="V4">
+        <f t="shared" si="12"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="W4" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X4">
         <v>0.21708150781530983</v>
       </c>
-      <c r="K4">
+      <c r="Y4">
+        <f t="shared" si="14"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Z4" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA4">
         <v>-9.2900582443061708E-2</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB4">
+        <f t="shared" si="16"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="AC4" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -16363,32 +16711,104 @@
       <c r="C5" s="8">
         <v>-0.74159218492161061</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="15">
+        <f t="shared" si="0"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="E5" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F5">
         <v>-0.29816780576083851</v>
       </c>
-      <c r="E5">
+      <c r="G5">
+        <f t="shared" si="2"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I5">
         <v>-0.54341920996602477</v>
       </c>
-      <c r="F5">
+      <c r="J5">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="K5" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L5">
         <v>2.0890451162076973</v>
       </c>
-      <c r="G5">
+      <c r="M5">
+        <f t="shared" si="6"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O5">
         <v>0.52411567242852664</v>
       </c>
-      <c r="H5">
+      <c r="P5">
+        <f t="shared" si="8"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R5">
         <v>2.7229017828240498</v>
       </c>
-      <c r="I5">
+      <c r="S5">
+        <f t="shared" si="10"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="T5" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U5">
         <v>0.12111172659162008</v>
       </c>
-      <c r="J5">
+      <c r="V5">
+        <f t="shared" si="12"/>
+        <v>0.65</v>
+      </c>
+      <c r="W5" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X5">
         <v>0.92248458130036715</v>
       </c>
-      <c r="K5">
+      <c r="Y5">
+        <f t="shared" si="14"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="Z5" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA5">
         <v>0.54897387255906593</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB5">
+        <f t="shared" si="16"/>
+        <v>0.75</v>
+      </c>
+      <c r="AC5" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -16398,32 +16818,104 @@
       <c r="C6" s="8">
         <v>-0.1357946917778679</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="15">
+        <f t="shared" si="0"/>
+        <v>0.45</v>
+      </c>
+      <c r="E6" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F6">
         <v>-0.45385934207036199</v>
       </c>
-      <c r="E6">
+      <c r="G6">
+        <f t="shared" si="2"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I6">
         <v>-0.10192833065458325</v>
       </c>
-      <c r="F6">
+      <c r="J6">
+        <f t="shared" si="4"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="K6" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L6">
         <v>1.0997529489535058</v>
       </c>
-      <c r="G6">
+      <c r="M6">
+        <f t="shared" si="6"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O6">
         <v>-0.28023599806587313</v>
       </c>
-      <c r="H6">
+      <c r="P6">
+        <f t="shared" si="8"/>
+        <v>0.6</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R6">
         <v>-0.24152496249740218</v>
       </c>
-      <c r="I6">
+      <c r="S6">
+        <f t="shared" si="10"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="T6" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U6">
         <v>0.61699234747047471</v>
       </c>
-      <c r="J6">
+      <c r="V6">
+        <f t="shared" si="12"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="W6" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X6">
         <v>0.67559350558059728</v>
       </c>
-      <c r="K6">
+      <c r="Y6">
+        <f t="shared" si="14"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="Z6" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA6">
         <v>-0.78768476001982135</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB6">
+        <f t="shared" si="16"/>
+        <v>0.15</v>
+      </c>
+      <c r="AC6" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -16433,32 +16925,104 @@
       <c r="C7" s="8">
         <v>-9.487565522084164E-2</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="15">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="E7" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F7">
         <v>-0.20082819378508376</v>
       </c>
-      <c r="E7">
+      <c r="G7">
+        <f t="shared" si="2"/>
+        <v>0.45</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I7">
         <v>0.90719367891693625</v>
       </c>
-      <c r="F7">
+      <c r="J7">
+        <f t="shared" si="4"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="K7" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L7">
         <v>0.20447861887098939</v>
       </c>
-      <c r="G7">
+      <c r="M7">
+        <f t="shared" si="6"/>
+        <v>0.7</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O7">
         <v>-0.29215729009078839</v>
       </c>
-      <c r="H7">
+      <c r="P7">
+        <f t="shared" si="8"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R7">
         <v>-0.32702542847448235</v>
       </c>
-      <c r="I7">
+      <c r="S7">
+        <f t="shared" si="10"/>
+        <v>0.6</v>
+      </c>
+      <c r="T7" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U7">
         <v>1.5021801188447266</v>
       </c>
-      <c r="J7">
+      <c r="V7">
+        <f t="shared" si="12"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="W7" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X7">
         <v>1.3457264253914019</v>
       </c>
-      <c r="K7">
+      <c r="Y7">
+        <f t="shared" si="14"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="Z7" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA7">
         <v>0.32987591495246887</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB7">
+        <f t="shared" si="16"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="AC7" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -16468,32 +17032,104 @@
       <c r="C8" s="8">
         <v>-0.37043797467170514</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="15">
+        <f t="shared" si="0"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="E8" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F8">
         <v>0.5304969643942139</v>
       </c>
-      <c r="E8">
+      <c r="G8">
+        <f t="shared" si="2"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I8">
         <v>-1.4264009682585033</v>
       </c>
-      <c r="F8">
+      <c r="J8">
+        <f t="shared" si="4"/>
+        <v>0.1</v>
+      </c>
+      <c r="K8" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L8">
         <v>1.4440543890608508</v>
       </c>
-      <c r="G8">
+      <c r="M8">
+        <f t="shared" si="6"/>
+        <v>0.85</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O8">
         <v>0.28641371676600125</v>
       </c>
-      <c r="H8">
+      <c r="P8">
+        <f t="shared" si="8"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R8">
         <v>0.44384553963600232</v>
       </c>
-      <c r="I8">
+      <c r="S8">
+        <f t="shared" si="10"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="T8" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U8">
         <v>0.28368178905696068</v>
       </c>
-      <c r="J8">
+      <c r="V8">
+        <f t="shared" si="12"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="W8" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X8">
         <v>1.5739816723982238</v>
       </c>
-      <c r="K8">
+      <c r="Y8">
+        <f t="shared" si="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="Z8" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA8">
         <v>-3.0791151353299354E-2</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB8">
+        <f t="shared" si="16"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="AC8" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -16503,32 +17139,104 @@
       <c r="C9" s="8">
         <v>-1.0087325428163354</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="E9" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F9">
         <v>-0.47727994420593761</v>
       </c>
-      <c r="E9">
+      <c r="G9">
+        <f t="shared" si="2"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I9">
         <v>0.30802748575449684</v>
       </c>
-      <c r="F9">
+      <c r="J9">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="K9" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L9">
         <v>1.8420446928428509</v>
       </c>
-      <c r="G9">
+      <c r="M9">
+        <f t="shared" si="6"/>
+        <v>0.95</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O9">
         <v>0.11264179070276055</v>
       </c>
-      <c r="H9">
+      <c r="P9">
+        <f t="shared" si="8"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R9">
         <v>0.13206624556081972</v>
       </c>
-      <c r="I9">
+      <c r="S9">
+        <f t="shared" si="10"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="T9" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U9">
         <v>1.0506136073681189</v>
       </c>
-      <c r="J9">
+      <c r="V9">
+        <f t="shared" si="12"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="W9" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X9">
         <v>1.8232857285292383</v>
       </c>
-      <c r="K9">
+      <c r="Y9">
+        <f t="shared" si="14"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="Z9" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA9">
         <v>-9.6508178098076283E-2</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB9">
+        <f t="shared" si="16"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="AC9" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -16538,32 +17246,104 @@
       <c r="C10" s="8">
         <v>0.21036956892704753</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="15">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="E10" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F10">
         <v>0.36812261434214899</v>
       </c>
-      <c r="E10">
+      <c r="G10">
+        <f t="shared" si="2"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I10">
         <v>0.11881710867073275</v>
       </c>
-      <c r="F10">
+      <c r="J10">
+        <f t="shared" si="4"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="K10" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L10">
         <v>1.4564528408920658</v>
       </c>
-      <c r="G10">
+      <c r="M10">
+        <f t="shared" si="6"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O10">
         <v>0.29714733466428572</v>
       </c>
-      <c r="H10">
+      <c r="P10">
+        <f t="shared" si="8"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R10">
         <v>0.43042289101494546</v>
       </c>
-      <c r="I10">
+      <c r="S10">
+        <f t="shared" si="10"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="T10" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U10">
         <v>0.56508144314971898</v>
       </c>
-      <c r="J10">
+      <c r="V10">
+        <f t="shared" si="12"/>
+        <v>0.8</v>
+      </c>
+      <c r="W10" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X10">
         <v>1.0130475461034412</v>
       </c>
-      <c r="K10">
+      <c r="Y10">
+        <f t="shared" si="14"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Z10" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA10">
         <v>0.89947135905925713</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB10">
+        <f t="shared" si="16"/>
+        <v>0.9</v>
+      </c>
+      <c r="AC10" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -16573,32 +17353,104 @@
       <c r="C11" s="8">
         <v>0.36301855371323466</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="15">
+        <f t="shared" si="0"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="E11" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F11">
         <v>0.26069090394879274</v>
       </c>
-      <c r="E11">
+      <c r="G11">
+        <f t="shared" si="2"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I11">
         <v>0.56030798798217429</v>
       </c>
-      <c r="F11">
+      <c r="J11">
+        <f t="shared" si="4"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="K11" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L11">
         <v>1.7564953752074675</v>
       </c>
-      <c r="G11">
+      <c r="M11">
+        <f t="shared" si="6"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O11">
         <v>0.42606360695961465</v>
       </c>
-      <c r="H11">
+      <c r="P11">
+        <f t="shared" si="8"/>
+        <v>0.9</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R11">
         <v>0.8722002084779884</v>
       </c>
-      <c r="I11">
+      <c r="S11">
+        <f t="shared" si="10"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="T11" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U11">
         <v>2.1886472179422185</v>
       </c>
-      <c r="J11">
+      <c r="V11">
+        <f t="shared" si="12"/>
+        <v>0.95</v>
+      </c>
+      <c r="W11" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X11">
         <v>2.19724181272576</v>
       </c>
-      <c r="K11">
+      <c r="Y11">
+        <f t="shared" si="14"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="Z11" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA11">
         <v>0.25669020446199992</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB11">
+        <f t="shared" si="16"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="AC11" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -16608,32 +17460,104 @@
       <c r="C12" s="8">
         <v>1.2020075131111969</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="15">
+        <f t="shared" si="0"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="E12" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F12">
         <v>0.19525061084202081</v>
       </c>
-      <c r="E12">
+      <c r="G12">
+        <f t="shared" si="2"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I12">
         <v>0.59184305088453582</v>
       </c>
-      <c r="F12">
+      <c r="J12">
+        <f t="shared" si="4"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="K12" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L12">
         <v>2.4111336318956167</v>
       </c>
-      <c r="G12">
+      <c r="M12">
+        <f t="shared" si="6"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O12">
         <v>0.80178537640593728</v>
       </c>
-      <c r="H12">
+      <c r="P12">
+        <f t="shared" si="8"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R12">
         <v>1.3642396099453598</v>
       </c>
-      <c r="I12">
+      <c r="S12">
+        <f t="shared" si="10"/>
+        <v>0.95</v>
+      </c>
+      <c r="T12" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U12">
         <v>0.42393055754746739</v>
       </c>
-      <c r="J12">
+      <c r="V12">
+        <f t="shared" si="12"/>
+        <v>0.75</v>
+      </c>
+      <c r="W12" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X12">
         <v>1.2000255882017021</v>
       </c>
-      <c r="K12">
+      <c r="Y12">
+        <f t="shared" si="14"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="Z12" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA12">
         <v>-0.81483747334240675</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB12">
+        <f t="shared" si="16"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="AC12" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -16643,32 +17567,104 @@
       <c r="C13" s="8">
         <v>-0.43479294305296057</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="15">
+        <f t="shared" si="0"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="E13" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F13">
         <v>-7.1583265844968963E-2</v>
       </c>
-      <c r="E13">
+      <c r="G13">
+        <f t="shared" si="2"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I13">
         <v>-7.3231422779035894E-3</v>
       </c>
-      <c r="F13">
+      <c r="J13">
+        <f t="shared" si="4"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="K13" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L13">
         <v>-0.84034481383142545</v>
       </c>
-      <c r="G13">
+      <c r="M13">
+        <f t="shared" si="6"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O13">
         <v>-0.3167892021457816</v>
       </c>
-      <c r="H13">
+      <c r="P13">
+        <f t="shared" si="8"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R13">
         <v>-0.43651876379469151</v>
       </c>
-      <c r="I13">
+      <c r="S13">
+        <f t="shared" si="10"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="T13" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U13">
         <v>-0.37816554140740188</v>
       </c>
-      <c r="J13">
+      <c r="V13">
+        <f t="shared" si="12"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="W13" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X13">
         <v>-0.76086644193802055</v>
       </c>
-      <c r="K13">
+      <c r="Y13">
+        <f t="shared" si="14"/>
+        <v>0.25</v>
+      </c>
+      <c r="Z13" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA13">
         <v>-1.2900672590062767</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB13">
+        <f t="shared" si="16"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="AC13" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -16678,32 +17674,104 @@
       <c r="C14" s="8">
         <v>0.88803107363989908</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="15">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="E14" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F14">
         <v>6.1143890081740211E-2</v>
       </c>
-      <c r="E14">
+      <c r="G14">
+        <f t="shared" si="2"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I14">
         <v>0.62337811345649252</v>
       </c>
-      <c r="F14">
+      <c r="J14">
+        <f t="shared" si="4"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="K14" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L14">
         <v>-0.56529035380858395</v>
       </c>
-      <c r="G14">
+      <c r="M14">
+        <f t="shared" si="6"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O14">
         <v>-0.29685219206278979</v>
       </c>
-      <c r="H14">
+      <c r="P14">
+        <f t="shared" si="8"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R14">
         <v>-0.39218307954456705</v>
       </c>
-      <c r="I14">
+      <c r="S14">
+        <f t="shared" si="10"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="T14" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U14">
         <v>0.78209094409881152</v>
       </c>
-      <c r="J14">
+      <c r="V14">
+        <f t="shared" si="12"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="W14" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X14">
         <v>0.90048905726461259</v>
       </c>
-      <c r="K14">
+      <c r="Y14">
+        <f t="shared" si="14"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="Z14" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA14">
         <v>0.60263677348675015</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB14">
+        <f t="shared" si="16"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="AC14" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -16713,32 +17781,104 @@
       <c r="C15" s="8">
         <v>2.0303057716822006</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="15">
+        <f t="shared" si="0"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="E15" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F15">
         <v>0.9648773656625087</v>
       </c>
-      <c r="E15">
+      <c r="G15">
+        <f t="shared" si="2"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I15">
         <v>0.90719367891693625</v>
       </c>
-      <c r="F15">
+      <c r="J15">
+        <f t="shared" si="4"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="K15" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L15">
         <v>-0.46934112356805785</v>
       </c>
-      <c r="G15">
+      <c r="M15">
+        <f t="shared" si="6"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O15">
         <v>-0.25399224856552094</v>
       </c>
-      <c r="H15">
+      <c r="P15">
+        <f t="shared" si="8"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R15">
         <v>-0.42194576764485386</v>
       </c>
-      <c r="I15">
+      <c r="S15">
+        <f t="shared" si="10"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="T15" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U15">
         <v>0.69962731554098245</v>
       </c>
-      <c r="J15">
+      <c r="V15">
+        <f t="shared" si="12"/>
+        <v>0.85</v>
+      </c>
+      <c r="W15" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X15">
         <v>0.41816004136707402</v>
       </c>
-      <c r="K15">
+      <c r="Y15">
+        <f t="shared" si="14"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="Z15" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA15">
         <v>0.14691079314978872</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB15">
+        <f t="shared" si="16"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="AC15" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -16748,32 +17888,104 @@
       <c r="C16" s="8">
         <v>2.2600088055494054</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="15">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="E16" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F16">
         <v>1.9977061329201067</v>
       </c>
-      <c r="E16">
+      <c r="G16">
+        <f t="shared" si="2"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I16">
         <v>1.8847806255860942</v>
       </c>
-      <c r="F16">
+      <c r="J16">
+        <f t="shared" si="4"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="K16" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L16">
         <v>0.45390369185744911</v>
       </c>
-      <c r="G16">
+      <c r="M16">
+        <f t="shared" si="6"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O16">
         <v>-8.0557877791146787E-2</v>
       </c>
-      <c r="H16">
+      <c r="P16">
+        <f t="shared" si="8"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R16">
         <v>-0.25367924030846256</v>
       </c>
-      <c r="I16">
+      <c r="S16">
+        <f t="shared" si="10"/>
+        <v>0.65</v>
+      </c>
+      <c r="T16" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U16">
         <v>0.48526315610616638</v>
       </c>
-      <c r="J16">
+      <c r="V16">
+        <f t="shared" si="12"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="W16" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X16">
         <v>2.1866997663247161</v>
       </c>
-      <c r="K16">
+      <c r="Y16">
+        <f t="shared" si="14"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="Z16" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA16">
         <v>0.14654997887864499</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB16">
+        <f t="shared" si="16"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="AC16" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="17" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -16783,32 +17995,104 @@
       <c r="C17" s="8">
         <v>-0.71512500489073649</v>
       </c>
-      <c r="D17">
+      <c r="D17" s="15">
+        <f t="shared" si="0"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="E17" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F17">
         <v>-0.32773561697515818</v>
       </c>
-      <c r="E17">
+      <c r="G17">
+        <f t="shared" si="2"/>
+        <v>0.3</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I17">
         <v>0.49723786250785618</v>
       </c>
-      <c r="F17">
+      <c r="J17">
+        <f t="shared" si="4"/>
+        <v>0.7</v>
+      </c>
+      <c r="K17" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L17">
         <v>-0.51198522589718054</v>
       </c>
-      <c r="G17">
+      <c r="M17">
+        <f t="shared" si="6"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O17">
         <v>-0.30272848917875922</v>
       </c>
-      <c r="H17">
+      <c r="P17">
+        <f t="shared" si="8"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R17">
         <v>-0.3738279699881813</v>
       </c>
-      <c r="I17">
+      <c r="S17">
+        <f t="shared" si="10"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="T17" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U17">
         <v>-0.20869933343032956</v>
       </c>
-      <c r="J17">
+      <c r="V17">
+        <f t="shared" si="12"/>
+        <v>0.6</v>
+      </c>
+      <c r="W17" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X17">
         <v>9.6607364102048163E-2</v>
       </c>
-      <c r="K17">
+      <c r="Y17">
+        <f t="shared" si="14"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="Z17" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA17">
         <v>0.19968012226416862</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB17">
+        <f t="shared" si="16"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="AC17" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="18" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -16818,32 +18102,104 @@
       <c r="C18" s="8">
         <v>-1.1202977531929654</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="E18" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F18">
         <v>-0.61048512103598185</v>
       </c>
-      <c r="E18">
+      <c r="G18">
+        <f t="shared" si="2"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I18">
         <v>0.46570279960549466</v>
       </c>
-      <c r="F18">
+      <c r="J18">
+        <f t="shared" si="4"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="K18" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L18">
         <v>-0.55111123247948746</v>
       </c>
-      <c r="G18">
+      <c r="M18">
+        <f t="shared" si="6"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O18">
         <v>-0.34121648128261517</v>
       </c>
-      <c r="H18">
+      <c r="P18">
+        <f t="shared" si="8"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R18">
         <v>-0.49285170992122035</v>
       </c>
-      <c r="I18">
+      <c r="S18">
+        <f t="shared" si="10"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="T18" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U18">
         <v>2.8037388952271169</v>
       </c>
-      <c r="J18">
+      <c r="V18">
+        <f t="shared" si="12"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="W18" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X18">
         <v>-0.81795695865975127</v>
       </c>
-      <c r="K18">
+      <c r="Y18">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z18" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA18">
         <v>-0.18981924122123972</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB18">
+        <f t="shared" si="16"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="AC18" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="19" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -16853,32 +18209,104 @@
       <c r="C19" s="8">
         <v>-0.13239202722416571</v>
       </c>
-      <c r="D19">
+      <c r="D19" s="15">
+        <f t="shared" si="0"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="E19" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F19">
         <v>-0.39800538845613309</v>
       </c>
-      <c r="E19">
+      <c r="G19">
+        <f t="shared" si="2"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I19">
         <v>1.7586403743070531</v>
       </c>
-      <c r="F19">
+      <c r="J19">
+        <f t="shared" si="4"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="K19" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L19">
         <v>-0.62005993176993623</v>
       </c>
-      <c r="G19">
+      <c r="M19">
+        <f t="shared" si="6"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O19">
         <v>-0.34177650154710487</v>
       </c>
-      <c r="H19">
+      <c r="P19">
+        <f t="shared" si="8"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R19">
         <v>-0.49711343470415414</v>
       </c>
-      <c r="I19">
+      <c r="S19">
+        <f t="shared" si="10"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="T19" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U19">
         <v>-0.43316680037989935</v>
       </c>
-      <c r="J19">
+      <c r="V19">
+        <f t="shared" si="12"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="W19" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X19">
         <v>0.91504070024857265</v>
       </c>
-      <c r="K19">
+      <c r="Y19">
+        <f t="shared" si="14"/>
+        <v>0.8</v>
+      </c>
+      <c r="Z19" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA19">
         <v>0.73824430646909533</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB19">
+        <f t="shared" si="16"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="AC19" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="20" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -16888,32 +18316,104 @@
       <c r="C20" s="8">
         <v>-1.0797158788601495</v>
       </c>
-      <c r="D20">
+      <c r="D20" s="15">
+        <f t="shared" si="0"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="E20" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F20">
         <v>0.31582470538945379</v>
       </c>
-      <c r="E20">
+      <c r="G20">
+        <f t="shared" si="2"/>
+        <v>0.7</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I20">
         <v>1.7271053117350965</v>
       </c>
-      <c r="F20">
+      <c r="J20">
+        <f t="shared" si="4"/>
+        <v>0.95</v>
+      </c>
+      <c r="K20" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L20">
         <v>-0.66142915134420555</v>
       </c>
-      <c r="G20">
+      <c r="M20">
+        <f t="shared" si="6"/>
+        <v>0.3</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O20">
         <v>-0.34156408006747085</v>
       </c>
-      <c r="H20">
+      <c r="P20">
+        <f t="shared" si="8"/>
+        <v>0.2</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R20">
         <v>-0.49844661824227093</v>
       </c>
-      <c r="I20">
+      <c r="S20">
+        <f t="shared" si="10"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="T20" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U20">
         <v>-0.97301861535551548</v>
       </c>
-      <c r="J20">
+      <c r="V20">
+        <f t="shared" si="12"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="W20" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X20">
         <v>-1.5111560222230807</v>
       </c>
-      <c r="K20">
+      <c r="Y20">
+        <f t="shared" si="14"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="Z20" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA20">
         <v>3.2849630060844164</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB20">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="AC20" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="21" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -16923,32 +18423,104 @@
       <c r="C21" s="8">
         <v>-7.2281280308239812E-2</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="15">
+        <f t="shared" si="0"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="E21" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F21">
         <v>1.1984525158743169</v>
       </c>
-      <c r="E21">
+      <c r="G21">
+        <f t="shared" si="2"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I21">
         <v>3.1461831377156959</v>
       </c>
-      <c r="F21">
+      <c r="J21">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K21" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L21">
         <v>-0.4959522730471283</v>
       </c>
-      <c r="G21">
+      <c r="M21">
+        <f t="shared" si="6"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O21">
         <v>-0.33812671430612012</v>
       </c>
-      <c r="H21">
+      <c r="P21">
+        <f t="shared" si="8"/>
+        <v>0.35</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R21">
         <v>-0.49695724583776396</v>
       </c>
-      <c r="I21">
+      <c r="S21">
+        <f t="shared" si="10"/>
+        <v>0.15</v>
+      </c>
+      <c r="T21" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U21">
         <v>-0.97162809202603362</v>
       </c>
-      <c r="J21">
+      <c r="V21">
+        <f t="shared" si="12"/>
+        <v>0.05</v>
+      </c>
+      <c r="W21" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X21">
         <v>-1.5111560222230807</v>
       </c>
-      <c r="K21">
+      <c r="Y21">
+        <f t="shared" si="14"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="Z21" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA21">
         <v>-2.3803944047494454</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB21">
+        <f t="shared" si="16"/>
+        <v>0.05</v>
+      </c>
+      <c r="AC21" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="22" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -16958,32 +18530,104 @@
       <c r="C22" s="8">
         <v>-2.518367428913689</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="15">
+        <f t="shared" si="0"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="E22" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F22">
         <v>-0.65030598572090903</v>
       </c>
-      <c r="E22">
+      <c r="G22">
+        <f t="shared" si="2"/>
+        <v>0.15</v>
+      </c>
+      <c r="H22" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I22">
         <v>-0.22806858193362439</v>
       </c>
-      <c r="F22">
+      <c r="J22">
+        <f t="shared" si="4"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="K22" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L22">
         <v>-0.96480342822218035</v>
       </c>
-      <c r="G22">
+      <c r="M22">
+        <f t="shared" si="6"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O22">
         <v>-0.34258756537843482</v>
       </c>
-      <c r="H22">
+      <c r="P22">
+        <f t="shared" si="8"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R22">
         <v>-0.49689588592596778</v>
       </c>
-      <c r="I22">
+      <c r="S22">
+        <f t="shared" si="10"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="T22" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U22">
         <v>-0.82834112446255803</v>
       </c>
-      <c r="J22">
+      <c r="V22">
+        <f t="shared" si="12"/>
+        <v>0.1</v>
+      </c>
+      <c r="W22" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X22">
         <v>-0.81795695865975127</v>
       </c>
-      <c r="K22">
+      <c r="Y22">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z22" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA22">
         <v>0.19005922841589545</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB22">
+        <f t="shared" si="16"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="AC22" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="23" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -16993,32 +18637,104 @@
       <c r="C23" s="8">
         <v>-0.64457220746700739</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="15">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="E23" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F23">
         <v>-1.597001336713527</v>
       </c>
-      <c r="E23">
+      <c r="G23">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+      <c r="H23" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I23">
         <v>0.18188723447545571</v>
       </c>
-      <c r="F23">
+      <c r="J23">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="K23" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L23">
         <v>-0.64172400396294371</v>
       </c>
-      <c r="G23">
+      <c r="M23">
+        <f t="shared" si="6"/>
+        <v>0.35</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O23">
         <v>-0.3363085427937112</v>
       </c>
-      <c r="H23">
+      <c r="P23">
+        <f t="shared" si="8"/>
+        <v>0.4</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R23">
         <v>-0.49382737002528743</v>
       </c>
-      <c r="I23">
+      <c r="S23">
+        <f t="shared" si="10"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="T23" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U23">
         <v>-0.16244129359063178</v>
       </c>
-      <c r="J23">
+      <c r="V23">
+        <f t="shared" si="12"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="W23" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X23">
         <v>-0.29882877069045988</v>
       </c>
-      <c r="K23">
+      <c r="Y23">
+        <f t="shared" si="14"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="Z23" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA23">
         <v>-0.31597331053204436</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB23">
+        <f t="shared" si="16"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="AC23" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="24" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -17028,32 +18744,104 @@
       <c r="C24" s="8">
         <v>-8.9494951496685293E-2</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="15">
+        <f t="shared" si="0"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="E24" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F24">
         <v>0.53126617630141737</v>
       </c>
-      <c r="E24">
+      <c r="G24">
+        <f t="shared" si="2"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="H24" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I24">
         <v>-0.95337502637510496</v>
       </c>
-      <c r="F24">
+      <c r="J24">
+        <f t="shared" si="4"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="K24" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L24">
         <v>-0.70698097082104805</v>
       </c>
-      <c r="G24">
+      <c r="M24">
+        <f t="shared" si="6"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O24">
         <v>-0.34360347727871748</v>
       </c>
-      <c r="H24">
+      <c r="P24">
+        <f t="shared" si="8"/>
+        <v>0.1</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R24">
         <v>-0.49555124175951215</v>
       </c>
-      <c r="I24">
+      <c r="S24">
+        <f t="shared" si="10"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="T24" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U24">
         <v>-0.73068054038415187</v>
       </c>
-      <c r="J24">
+      <c r="V24">
+        <f t="shared" si="12"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="W24" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X24">
         <v>-0.72670897711373783</v>
       </c>
-      <c r="K24">
+      <c r="Y24">
+        <f t="shared" si="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="Z24" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA24">
         <v>-0.92280053241042259</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB24">
+        <f t="shared" si="16"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="AC24" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="25" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -17063,32 +18851,104 @@
       <c r="C25" s="8">
         <v>-0.7743843255915458</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="15">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+      <c r="E25" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F25">
         <v>-0.2086349447151549</v>
       </c>
-      <c r="E25">
+      <c r="G25">
+        <f t="shared" si="2"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="H25" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I25">
         <v>-7.3231422779035894E-3</v>
       </c>
-      <c r="F25">
+      <c r="J25">
+        <f t="shared" si="4"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="K25" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L25">
         <v>-0.50837281081812202</v>
       </c>
-      <c r="G25">
+      <c r="M25">
+        <f t="shared" si="6"/>
+        <v>0.5</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O25">
         <v>-0.33986462469135859</v>
       </c>
-      <c r="H25">
+      <c r="P25">
+        <f t="shared" si="8"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R25">
         <v>-0.49180623945007462</v>
       </c>
-      <c r="I25">
+      <c r="S25">
+        <f t="shared" si="10"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="T25" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U25">
         <v>-0.613134213013382</v>
       </c>
-      <c r="J25">
+      <c r="V25">
+        <f t="shared" si="12"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="W25" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X25">
         <v>-0.15620203521603385</v>
       </c>
-      <c r="K25">
+      <c r="Y25">
+        <f t="shared" si="14"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="Z25" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA25">
         <v>0.61599875839029949</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB25">
+        <f t="shared" si="16"/>
+        <v>0.8</v>
+      </c>
+      <c r="AC25" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="26" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -17098,32 +18958,104 @@
       <c r="C26" s="8">
         <v>-1.3127762377320153</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="15">
+        <f t="shared" si="0"/>
+        <v>0.05</v>
+      </c>
+      <c r="E26" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F26">
         <v>-4.7256205654401431E-2</v>
       </c>
-      <c r="E26">
+      <c r="G26">
+        <f t="shared" si="2"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="H26" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I26">
         <v>5.5746983196414579E-2</v>
       </c>
-      <c r="F26">
+      <c r="J26">
+        <f t="shared" si="4"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="K26" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L26">
         <v>-0.22748412738541243</v>
       </c>
-      <c r="G26">
+      <c r="M26">
+        <f t="shared" si="6"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O26">
         <v>-0.33803890443217538</v>
       </c>
-      <c r="H26">
+      <c r="P26">
+        <f t="shared" si="8"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R26">
         <v>-0.4938113019798287</v>
       </c>
-      <c r="I26">
+      <c r="S26">
+        <f t="shared" si="10"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="T26" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U26">
         <v>-0.63543529745535798</v>
       </c>
-      <c r="J26">
+      <c r="V26">
+        <f t="shared" si="12"/>
+        <v>0.3</v>
+      </c>
+      <c r="W26" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X26">
         <v>5.77380679956052E-2</v>
       </c>
-      <c r="K26">
+      <c r="Y26">
+        <f t="shared" si="14"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="Z26" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA26">
         <v>0.22239714421216208</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB26">
+        <f t="shared" si="16"/>
+        <v>0.6</v>
+      </c>
+      <c r="AC26" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="27" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -17133,32 +19065,104 @@
       <c r="C27" s="8">
         <v>-0.37188803660228381</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="15">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="E27" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F27">
         <v>-0.11165165907970853</v>
       </c>
-      <c r="E27">
+      <c r="G27">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="H27" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I27">
         <v>0.35690683295579284</v>
       </c>
-      <c r="F27">
+      <c r="J27">
+        <f t="shared" si="4"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="K27" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L27">
         <v>1.3547855358761032</v>
       </c>
-      <c r="G27">
+      <c r="M27">
+        <f t="shared" si="6"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O27">
         <v>0.12430865344419095</v>
       </c>
-      <c r="H27">
+      <c r="P27">
+        <f t="shared" si="8"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R27">
         <v>0.49502894806273756</v>
       </c>
-      <c r="I27">
+      <c r="S27">
+        <f t="shared" si="10"/>
+        <v>0.85</v>
+      </c>
+      <c r="T27" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U27">
         <v>2.3529325506220715</v>
       </c>
-      <c r="J27">
+      <c r="V27">
+        <f t="shared" si="12"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="W27" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X27">
         <v>0.48327642682503547</v>
       </c>
-      <c r="K27">
+      <c r="Y27">
+        <f t="shared" si="14"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Z27" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA27">
         <v>-1.6900624029700886</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB27">
+        <f t="shared" si="16"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="AC27" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="28" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -17168,32 +19172,104 @@
       <c r="C28" s="8">
         <v>1.8436726162030599</v>
       </c>
-      <c r="D28">
+      <c r="D28" s="15">
+        <f t="shared" si="0"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="E28" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F28">
         <v>0.79202230896016723</v>
       </c>
-      <c r="E28">
+      <c r="G28">
+        <f t="shared" si="2"/>
+        <v>0.85</v>
+      </c>
+      <c r="H28" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I28">
         <v>-0.61174517947767315</v>
       </c>
-      <c r="F28">
+      <c r="J28">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="K28" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L28">
         <v>2.6987777143798031</v>
       </c>
-      <c r="G28">
+      <c r="M28">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O28">
         <v>0.52573936501602281</v>
       </c>
-      <c r="H28">
+      <c r="P28">
+        <f t="shared" si="8"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R28">
         <v>0.89534165114227071</v>
       </c>
-      <c r="I28">
+      <c r="S28">
+        <f t="shared" si="10"/>
+        <v>0.9</v>
+      </c>
+      <c r="T28" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U28">
         <v>4.2983845864854917</v>
       </c>
-      <c r="J28">
+      <c r="V28">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="W28" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X28">
         <v>2.6646869179714119</v>
       </c>
-      <c r="K28">
+      <c r="Y28">
+        <f t="shared" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="Z28" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA28">
         <v>1.0848307137268838</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB28">
+        <f t="shared" si="16"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="AC28" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="29" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -17203,32 +19279,104 @@
       <c r="C29" s="8">
         <v>-0.40769461276091362</v>
       </c>
-      <c r="D29">
+      <c r="D29" s="15">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="E29" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F29">
         <v>-0.58394422680688807</v>
       </c>
-      <c r="E29">
+      <c r="G29">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+      <c r="H29" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I29">
         <v>0.95712419479353639</v>
       </c>
-      <c r="F29">
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="K29" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L29">
         <v>1.5990350369510378</v>
       </c>
-      <c r="G29">
+      <c r="M29">
+        <f t="shared" si="6"/>
+        <v>0.9</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O29">
         <v>-0.15141962063168501</v>
       </c>
-      <c r="H29">
+      <c r="P29">
+        <f t="shared" si="8"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R29">
         <v>-0.10248981210103168</v>
       </c>
-      <c r="I29">
+      <c r="S29">
+        <f t="shared" si="10"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="T29" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U29">
         <v>0.62461782618627693</v>
       </c>
-      <c r="J29">
+      <c r="V29">
+        <f t="shared" si="12"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="W29" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X29">
         <v>1.5739816723982238</v>
       </c>
-      <c r="K29">
+      <c r="Y29">
+        <f t="shared" si="14"/>
+        <v>0.9</v>
+      </c>
+      <c r="Z29" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA29">
         <v>0.10349908095363346</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB29">
+        <f t="shared" si="16"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="AC29" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="30" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -17238,32 +19386,104 @@
       <c r="C30" s="8">
         <v>-0.45226053929107118</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="15">
+        <f t="shared" si="0"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="E30" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F30">
         <v>-0.2731662943290501</v>
       </c>
-      <c r="E30">
+      <c r="G30">
+        <f t="shared" si="2"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="H30" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I30">
         <v>-0.11349118707414277</v>
       </c>
-      <c r="F30">
+      <c r="J30">
+        <f t="shared" si="4"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="K30" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L30">
         <v>1.4725708282726453</v>
       </c>
-      <c r="G30">
+      <c r="M30">
+        <f t="shared" si="6"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O30">
         <v>0.20406332367206995</v>
       </c>
-      <c r="H30">
+      <c r="P30">
+        <f t="shared" si="8"/>
+        <v>0.85</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R30">
         <v>0.90779282158902019</v>
       </c>
-      <c r="I30">
+      <c r="S30">
+        <f t="shared" si="10"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="T30" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U30">
         <v>0.51991897866799253</v>
       </c>
-      <c r="J30">
+      <c r="V30">
+        <f t="shared" si="12"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="W30" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X30">
         <v>1.9791007636111224</v>
       </c>
-      <c r="K30">
+      <c r="Y30">
+        <f t="shared" si="14"/>
+        <v>0.95</v>
+      </c>
+      <c r="Z30" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA30">
         <v>0.39994453525434925</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB30">
+        <f t="shared" si="16"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="AC30" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="31" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -17273,32 +19493,104 @@
       <c r="C31" s="8">
         <v>-0.28355107711258432</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="15">
+        <f t="shared" si="0"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="E31" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F31">
         <v>-0.84949750077587682</v>
       </c>
-      <c r="E31">
+      <c r="G31">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
+      <c r="H31" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I31">
         <v>-4.3588464714740739E-2</v>
       </c>
-      <c r="F31">
+      <c r="J31">
+        <f t="shared" si="4"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="K31" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L31">
         <v>1.1192149510830194</v>
       </c>
-      <c r="G31">
+      <c r="M31">
+        <f t="shared" si="6"/>
+        <v>0.8</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O31">
         <v>0.60033905117078512</v>
       </c>
-      <c r="H31">
+      <c r="P31">
+        <f t="shared" si="8"/>
+        <v>0.95</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R31">
         <v>0.96820452036539639</v>
       </c>
-      <c r="I31">
+      <c r="S31">
+        <f t="shared" si="10"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="T31" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U31">
         <v>0.91986016758259204</v>
       </c>
-      <c r="J31">
+      <c r="V31">
+        <f t="shared" si="12"/>
+        <v>0.9</v>
+      </c>
+      <c r="W31" t="str">
+        <f t="shared" si="13"/>
+        <v>Very high sumFollow</v>
+      </c>
+      <c r="X31">
         <v>1.0753735601361949</v>
       </c>
-      <c r="K31">
+      <c r="Y31">
+        <f t="shared" si="14"/>
+        <v>0.85</v>
+      </c>
+      <c r="Z31" t="str">
+        <f t="shared" si="15"/>
+        <v>Very high verif</v>
+      </c>
+      <c r="AA31">
         <v>-1.6542396379707013E-2</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB31">
+        <f t="shared" si="16"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="AC31" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="32" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -17308,32 +19600,104 @@
       <c r="C32" s="8">
         <v>-0.14126350824419207</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="15">
+        <f t="shared" si="0"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="E32" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F32">
         <v>-0.2910978816609554</v>
       </c>
-      <c r="E32">
+      <c r="G32">
+        <f t="shared" si="2"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="H32" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I32">
         <v>0.13353347144660938</v>
       </c>
-      <c r="F32">
+      <c r="J32">
+        <f t="shared" si="4"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="K32" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L32">
         <v>-0.64631414823391709</v>
       </c>
-      <c r="G32">
+      <c r="M32">
+        <f t="shared" si="6"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O32">
         <v>-0.11659647943809448</v>
       </c>
-      <c r="H32">
+      <c r="P32">
+        <f t="shared" si="8"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R32">
         <v>0.40714696679027834</v>
       </c>
-      <c r="I32">
+      <c r="S32">
+        <f t="shared" si="10"/>
+        <v>0.8</v>
+      </c>
+      <c r="T32" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U32">
         <v>-0.72143005457730802</v>
       </c>
-      <c r="J32">
+      <c r="V32">
+        <f t="shared" si="12"/>
+        <v>0.25</v>
+      </c>
+      <c r="W32" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X32">
         <v>-0.97523489344803782</v>
       </c>
-      <c r="K32">
+      <c r="Y32">
+        <f t="shared" si="14"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z32" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA32">
         <v>-2.4106477905867214</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB32">
+        <f t="shared" si="16"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="AC32" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="33" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -17343,32 +19707,104 @@
       <c r="C33" s="8">
         <v>-1.7876597542691004E-2</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="15">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+      <c r="E33" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F33">
         <v>-0.29650141057222779</v>
       </c>
-      <c r="E33">
+      <c r="G33">
+        <f t="shared" si="2"/>
+        <v>0.35</v>
+      </c>
+      <c r="H33" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I33">
         <v>-0.94128658578309576</v>
       </c>
-      <c r="F33">
+      <c r="J33">
+        <f t="shared" si="4"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="K33" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L33">
         <v>-0.59300902032251379</v>
       </c>
-      <c r="G33">
+      <c r="M33">
+        <f t="shared" si="6"/>
+        <v>0.4</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O33">
         <v>-0.13152161720952393</v>
       </c>
-      <c r="H33">
+      <c r="P33">
+        <f t="shared" si="8"/>
+        <v>0.75</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R33">
         <v>0.31507298999154998</v>
       </c>
-      <c r="I33">
+      <c r="S33">
+        <f t="shared" si="10"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="T33" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U33">
         <v>0.35697281281297094</v>
       </c>
-      <c r="J33">
+      <c r="V33">
+        <f t="shared" si="12"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="W33" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X33">
         <v>-0.86805066769302919</v>
       </c>
-      <c r="K33">
+      <c r="Y33">
+        <f t="shared" si="14"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="Z33" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA33">
         <v>-9.9157598391492758E-3</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB33">
+        <f t="shared" si="16"/>
+        <v>0.45</v>
+      </c>
+      <c r="AC33" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="34" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -17378,32 +19814,104 @@
       <c r="C34" s="8">
         <v>-1.020645956195215</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="15">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+      <c r="E34" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F34">
         <v>-0.32120922144719705</v>
       </c>
-      <c r="E34">
+      <c r="G34">
+        <f t="shared" si="2"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="H34" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I34">
         <v>0.68119239555429012</v>
       </c>
-      <c r="F34">
+      <c r="J34">
+        <f t="shared" si="4"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="K34" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L34">
         <v>-0.24332738122370742</v>
       </c>
-      <c r="G34">
+      <c r="M34">
+        <f t="shared" si="6"/>
+        <v>0.6</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O34">
         <v>-6.5577500438088535E-2</v>
       </c>
-      <c r="H34">
+      <c r="P34">
+        <f t="shared" si="8"/>
+        <v>0.8</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R34">
         <v>0.58528666451772016</v>
       </c>
-      <c r="I34">
+      <c r="S34">
+        <f t="shared" si="10"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="T34" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U34">
         <v>0.2783813757996953</v>
       </c>
-      <c r="J34">
+      <c r="V34">
+        <f t="shared" si="12"/>
+        <v>0.7</v>
+      </c>
+      <c r="W34" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X34">
         <v>-0.17135320028547332</v>
       </c>
-      <c r="K34">
+      <c r="Y34">
+        <f t="shared" si="14"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="Z34" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA34">
         <v>0.1255767997985642</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB34">
+        <f t="shared" si="16"/>
+        <v>0.5</v>
+      </c>
+      <c r="AC34" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="35" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -17413,32 +19921,104 @@
       <c r="C35" s="8">
         <v>-0.40742185068455827</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="15">
+        <f t="shared" si="0"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="E35" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F35">
         <v>-0.14994364908070243</v>
       </c>
-      <c r="E35">
+      <c r="G35">
+        <f t="shared" si="2"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="H35" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I35">
         <v>0.27701800702458501</v>
       </c>
-      <c r="F35">
+      <c r="J35">
+        <f t="shared" si="4"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="K35" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L35">
         <v>-0.66337178916556616</v>
       </c>
-      <c r="G35">
+      <c r="M35">
+        <f t="shared" si="6"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O35">
         <v>-0.13677236338758911</v>
       </c>
-      <c r="H35">
+      <c r="P35">
+        <f t="shared" si="8"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R35">
         <v>1.9151294440163155E-2</v>
       </c>
-      <c r="I35">
+      <c r="S35">
+        <f t="shared" si="10"/>
+        <v>0.75</v>
+      </c>
+      <c r="T35" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U35">
         <v>-0.65652580678203709</v>
       </c>
-      <c r="J35">
+      <c r="V35">
+        <f t="shared" si="12"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="W35" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X35">
         <v>-0.92164278057053362</v>
       </c>
-      <c r="K35">
+      <c r="Y35">
+        <f t="shared" si="14"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="Z35" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA35">
         <v>0.3660164435823367</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB35">
+        <f t="shared" si="16"/>
+        <v>0.7</v>
+      </c>
+      <c r="AC35" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="36" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -17448,32 +20028,104 @@
       <c r="C36" s="8">
         <v>1.0813423661862036</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="15">
+        <f t="shared" si="0"/>
+        <v>0.85</v>
+      </c>
+      <c r="E36" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F36">
         <v>1.2637371261928296</v>
       </c>
-      <c r="E36">
+      <c r="G36">
+        <f t="shared" si="2"/>
+        <v>0.95</v>
+      </c>
+      <c r="H36" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I36">
         <v>0.78525810266951634</v>
       </c>
-      <c r="F36">
+      <c r="J36">
+        <f t="shared" si="4"/>
+        <v>0.8</v>
+      </c>
+      <c r="K36" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L36">
         <v>-0.82115496778332031</v>
       </c>
-      <c r="G36">
+      <c r="M36">
+        <f t="shared" si="6"/>
+        <v>0.15</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O36">
         <v>-0.29227327863426383</v>
       </c>
-      <c r="H36">
+      <c r="P36">
+        <f t="shared" si="8"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R36">
         <v>-0.37577552120186108</v>
       </c>
-      <c r="I36">
+      <c r="S36">
+        <f t="shared" si="10"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="T36" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U36">
         <v>-0.70266535968165611</v>
       </c>
-      <c r="J36">
+      <c r="V36">
+        <f t="shared" si="12"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="W36" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X36">
         <v>-0.97523489344803782</v>
       </c>
-      <c r="K36">
+      <c r="Y36">
+        <f t="shared" si="14"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Z36" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA36">
         <v>1.2651307261415587</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB36">
+        <f t="shared" si="16"/>
+        <v>0.95</v>
+      </c>
+      <c r="AC36" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="37" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -17483,32 +20135,104 @@
       <c r="C37" s="8">
         <v>-1.1796152952060845</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="15">
+        <f t="shared" si="0"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="E37" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F37">
         <v>0.75510431021650537</v>
       </c>
-      <c r="E37">
+      <c r="G37">
+        <f t="shared" si="2"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="H37" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I37">
         <v>-2.421857784059855</v>
       </c>
-      <c r="F37">
+      <c r="J37">
+        <f t="shared" si="4"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="K37" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L37">
         <v>-0.70279837091847475</v>
       </c>
-      <c r="G37">
+      <c r="M37">
+        <f t="shared" si="6"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O37">
         <v>-0.34361105068939884</v>
       </c>
-      <c r="H37">
+      <c r="P37">
+        <f t="shared" si="8"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R37">
         <v>-0.49966266013059496</v>
       </c>
-      <c r="I37">
+      <c r="S37">
+        <f t="shared" si="10"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="T37" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U37">
         <v>-0.98513115909396154</v>
       </c>
-      <c r="J37">
+      <c r="V37">
+        <f t="shared" si="12"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="W37" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X37">
         <v>-0.81795695865975127</v>
       </c>
-      <c r="K37">
+      <c r="Y37">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z37" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA37">
         <v>0.63269347092388106</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB37">
+        <f t="shared" si="16"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="AC37" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="38" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -17518,32 +20242,104 @@
       <c r="C38" s="8">
         <v>1.681551669400638</v>
       </c>
-      <c r="D38">
+      <c r="D38" s="15">
+        <f t="shared" si="0"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="E38" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F38">
         <v>2.543523599275892</v>
       </c>
-      <c r="E38">
+      <c r="G38">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H38" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I38">
         <v>1.0695992523024098</v>
       </c>
-      <c r="F38">
+      <c r="J38">
+        <f t="shared" si="4"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="K38" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L38">
         <v>-0.42700357375667958</v>
       </c>
-      <c r="G38">
+      <c r="M38">
+        <f t="shared" si="6"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O38">
         <v>-0.33775014895585975</v>
       </c>
-      <c r="H38">
+      <c r="P38">
+        <f t="shared" si="8"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R38">
         <v>-0.49888171579864365</v>
       </c>
-      <c r="I38">
+      <c r="S38">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T38" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U38">
         <v>-0.95122926985948508</v>
       </c>
-      <c r="J38">
+      <c r="V38">
+        <f t="shared" si="12"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="W38" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X38">
         <v>-1.5111560222230807</v>
       </c>
-      <c r="K38">
+      <c r="Y38">
+        <f t="shared" si="14"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="Z38" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA38">
         <v>-0.23720133833429324</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB38">
+        <f t="shared" si="16"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="AC38" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="39" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -17553,32 +20349,104 @@
       <c r="C39" s="8">
         <v>-0.16478824084223795</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="15">
+        <f t="shared" si="0"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E39" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F39">
         <v>-0.59703179931771144</v>
       </c>
-      <c r="E39">
+      <c r="G39">
+        <f t="shared" si="2"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="H39" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I39">
         <v>-1.4558336938102565</v>
       </c>
-      <c r="F39">
+      <c r="J39">
+        <f t="shared" si="4"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="K39" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L39">
         <v>-0.71658811077656448</v>
       </c>
-      <c r="G39">
+      <c r="M39">
+        <f t="shared" si="6"/>
+        <v>0.2</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O39">
         <v>-0.344161415432087</v>
       </c>
-      <c r="H39">
+      <c r="P39">
+        <f t="shared" si="8"/>
+        <v>0.05</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R39">
         <v>-0.49822349129028481</v>
       </c>
-      <c r="I39">
+      <c r="S39">
+        <f t="shared" si="10"/>
+        <v>0.1</v>
+      </c>
+      <c r="T39" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U39">
         <v>-0.80692292980317026</v>
       </c>
-      <c r="J39">
+      <c r="V39">
+        <f t="shared" si="12"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="W39" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X39">
         <v>-1.1645564904414161</v>
       </c>
-      <c r="K39">
+      <c r="Y39">
+        <f t="shared" si="14"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Z39" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA39">
         <v>0.99099576533017397</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB39">
+        <f t="shared" si="16"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="AC39" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="40" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -17588,32 +20456,104 @@
       <c r="C40" s="8">
         <v>-2.1989224984835021</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="15">
+        <f t="shared" si="0"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="E40" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F40">
         <v>-0.26554546189080747</v>
       </c>
-      <c r="E40">
+      <c r="G40">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="H40" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I40">
         <v>-1.9724831391880253</v>
       </c>
-      <c r="F40">
+      <c r="J40">
+        <f t="shared" si="4"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="K40" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L40">
         <v>-0.53732149262139772</v>
       </c>
-      <c r="G40">
+      <c r="M40">
+        <f t="shared" si="6"/>
+        <v>0.45</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O40">
         <v>-0.34469246913117213</v>
       </c>
-      <c r="H40">
+      <c r="P40">
+        <f t="shared" si="8"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R40">
         <v>-0.49888171579864365</v>
       </c>
-      <c r="I40">
+      <c r="S40">
+        <f t="shared" si="10"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="T40" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U40">
         <v>-0.74628680802068437</v>
       </c>
-      <c r="J40">
+      <c r="V40">
+        <f t="shared" si="12"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="W40" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X40">
         <v>-0.81795695865975127</v>
       </c>
-      <c r="K40">
+      <c r="Y40">
+        <f t="shared" si="14"/>
+        <v>0.15</v>
+      </c>
+      <c r="Z40" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA40">
         <v>-0.36893421099078283</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB40">
+        <f t="shared" si="16"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="AC40" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="41" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -17623,32 +20563,104 @@
       <c r="C41" s="8">
         <v>2.4427086517950419E-2</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="15">
+        <f t="shared" si="0"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="E41" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F41">
         <v>1.0335896275843122</v>
       </c>
-      <c r="E41">
+      <c r="G41">
+        <f t="shared" si="2"/>
+        <v>0.9</v>
+      </c>
+      <c r="H41" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I41">
         <v>-1.0763617712978288</v>
       </c>
-      <c r="F41">
+      <c r="J41">
+        <f t="shared" si="4"/>
+        <v>0.15</v>
+      </c>
+      <c r="K41" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L41">
         <v>-1.1302803065192575</v>
       </c>
-      <c r="G41">
+      <c r="M41">
+        <f t="shared" si="6"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O41">
         <v>-0.34186340124331882</v>
       </c>
-      <c r="H41">
+      <c r="P41">
+        <f t="shared" si="8"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R41">
         <v>-0.49477060170830051</v>
       </c>
-      <c r="I41">
+      <c r="S41">
+        <f t="shared" si="10"/>
+        <v>0.25</v>
+      </c>
+      <c r="T41" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U41">
         <v>-0.94510579797805661</v>
       </c>
-      <c r="J41">
+      <c r="V41">
+        <f t="shared" si="12"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="W41" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X41">
         <v>0.22184163668524309</v>
       </c>
-      <c r="K41">
+      <c r="Y41">
+        <f t="shared" si="14"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="Z41" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA41">
         <v>-3.7408999029779562</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB41">
+        <f t="shared" si="16"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="AC41" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="42" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -17658,32 +20670,104 @@
       <c r="C42" s="8">
         <v>0.20507199840000509</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="15">
+        <f t="shared" si="0"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="E42" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F42">
         <v>-0.81856975041967905</v>
       </c>
-      <c r="E42">
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="H42" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I42">
         <v>1.0890458742823572</v>
       </c>
-      <c r="F42">
+      <c r="J42">
+        <f t="shared" si="4"/>
+        <v>0.93333333333333335</v>
+      </c>
+      <c r="K42" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L42">
         <v>0.242542467615255</v>
       </c>
-      <c r="G42">
+      <c r="M42">
+        <f t="shared" si="6"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O42">
         <v>-0.15815417578594737</v>
       </c>
-      <c r="H42">
+      <c r="P42">
+        <f t="shared" si="8"/>
+        <v>0.7</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R42">
         <v>-0.22547949007446846</v>
       </c>
-      <c r="I42">
+      <c r="S42">
+        <f t="shared" si="10"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="T42" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U42">
         <v>-0.30966656417118299</v>
       </c>
-      <c r="J42">
+      <c r="V42">
+        <f t="shared" si="12"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="W42" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X42">
         <v>0.15132067221273027</v>
       </c>
-      <c r="K42">
+      <c r="Y42">
+        <f t="shared" si="14"/>
+        <v>0.65</v>
+      </c>
+      <c r="Z42" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA42">
         <v>-0.70239730913560772</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB42">
+        <f t="shared" si="16"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="AC42" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="43" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -17693,32 +20777,104 @@
       <c r="C43" s="8">
         <v>0.22294272716828076</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="15">
+        <f t="shared" si="0"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="E43" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F43">
         <v>-0.81478016930257102</v>
       </c>
-      <c r="E43">
+      <c r="G43">
+        <f t="shared" si="2"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="H43" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I43">
         <v>-0.34632506732187274</v>
       </c>
-      <c r="F43">
+      <c r="J43">
+        <f t="shared" si="4"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="K43" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L43">
         <v>0.13055784157089931</v>
       </c>
-      <c r="G43">
+      <c r="M43">
+        <f t="shared" si="6"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O43">
         <v>-0.15921066348275065</v>
       </c>
-      <c r="H43">
+      <c r="P43">
+        <f t="shared" si="8"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R43">
         <v>-0.2707690240251463</v>
       </c>
-      <c r="I43">
+      <c r="S43">
+        <f t="shared" si="10"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="T43" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U43">
         <v>-0.26414910384223528</v>
       </c>
-      <c r="J43">
+      <c r="V43">
+        <f t="shared" si="12"/>
+        <v>0.56666666666666665</v>
+      </c>
+      <c r="W43" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X43">
         <v>-0.45770544357068571</v>
       </c>
-      <c r="K43">
+      <c r="Y43">
+        <f t="shared" si="14"/>
+        <v>0.45</v>
+      </c>
+      <c r="Z43" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA43">
         <v>-0.12107727228740689</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB43">
+        <f t="shared" si="16"/>
+        <v>0.35</v>
+      </c>
+      <c r="AC43" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="44" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -17728,32 +20884,104 @@
       <c r="C44" s="8">
         <v>1.4124492271407538</v>
       </c>
-      <c r="D44">
+      <c r="D44" s="15">
+        <f t="shared" si="0"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="E44" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F44">
         <v>-1.3516460547175007</v>
       </c>
-      <c r="E44">
+      <c r="G44">
+        <f t="shared" si="2"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="H44" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I44">
         <v>-0.58599154478509141</v>
       </c>
-      <c r="F44">
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>0.28333333333333333</v>
+      </c>
+      <c r="K44" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L44">
         <v>1.1652695909865831</v>
       </c>
-      <c r="G44">
+      <c r="M44">
+        <f t="shared" si="6"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O44">
         <v>3.4534581866361496</v>
       </c>
-      <c r="H44">
+      <c r="P44">
+        <f t="shared" si="8"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R44">
         <v>2.7829273804954409</v>
       </c>
-      <c r="I44">
+      <c r="S44">
+        <f t="shared" si="10"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="T44" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U44">
         <v>1.7671257774514993E-2</v>
       </c>
-      <c r="J44">
+      <c r="V44">
+        <f t="shared" si="12"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="W44" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X44">
         <v>-0.34248428653057994</v>
       </c>
-      <c r="K44">
+      <c r="Y44">
+        <f t="shared" si="14"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="Z44" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA44">
         <v>-0.70641796316586181</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB44">
+        <f t="shared" si="16"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="AC44" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="45" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -17763,32 +20991,104 @@
       <c r="C45" s="8">
         <v>1.9358062955385968</v>
       </c>
-      <c r="D45">
+      <c r="D45" s="15">
+        <f t="shared" si="0"/>
+        <v>0.95</v>
+      </c>
+      <c r="E45" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F45">
         <v>-1.6674512384328657</v>
       </c>
-      <c r="E45">
+      <c r="G45">
+        <f t="shared" si="2"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="H45" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I45">
         <v>0.15665918428572845</v>
       </c>
-      <c r="F45">
+      <c r="J45">
+        <f t="shared" si="4"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="K45" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L45">
         <v>1.7526977170789044</v>
       </c>
-      <c r="G45">
+      <c r="M45">
+        <f t="shared" si="6"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="7"/>
+        <v>Very high numTweets</v>
+      </c>
+      <c r="O45">
         <v>6.4658810756732361</v>
       </c>
-      <c r="H45">
+      <c r="P45">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="9"/>
+        <v>Very high sumRetweets</v>
+      </c>
+      <c r="R45">
         <v>5.468370881551861</v>
       </c>
-      <c r="I45">
+      <c r="S45">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+      <c r="T45" t="str">
+        <f t="shared" si="11"/>
+        <v>Very high sumFaves</v>
+      </c>
+      <c r="U45">
         <v>-0.52943273027052373</v>
       </c>
-      <c r="J45">
+      <c r="V45">
+        <f t="shared" si="12"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="W45" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X45">
         <v>-0.29310379065624881</v>
       </c>
-      <c r="K45">
+      <c r="Y45">
+        <f t="shared" si="14"/>
+        <v>0.5</v>
+      </c>
+      <c r="Z45" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA45">
         <v>-1.2695701175997425</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB45">
+        <f t="shared" si="16"/>
+        <v>0.1</v>
+      </c>
+      <c r="AC45" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="46" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -17798,32 +21098,104 @@
       <c r="C46" s="8">
         <v>0.22779770915336961</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="15">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="E46" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F46">
         <v>-0.85562324172043402</v>
       </c>
-      <c r="E46">
+      <c r="G46">
+        <f t="shared" si="2"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="H46" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I46">
         <v>3.1044517509541764E-2</v>
       </c>
-      <c r="F46">
+      <c r="J46">
+        <f t="shared" si="4"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="K46" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L46">
         <v>0.23664853992870996</v>
       </c>
-      <c r="G46">
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O46">
         <v>-0.20646051666925172</v>
       </c>
-      <c r="H46">
+      <c r="P46">
+        <f t="shared" si="8"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R46">
         <v>-0.30166838487458075</v>
       </c>
-      <c r="I46">
+      <c r="S46">
+        <f t="shared" si="10"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="T46" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U46">
         <v>-0.42568029570143739</v>
       </c>
-      <c r="J46">
+      <c r="V46">
+        <f t="shared" si="12"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="W46" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X46">
         <v>-0.67168759235945341</v>
       </c>
-      <c r="K46">
+      <c r="Y46">
+        <f t="shared" si="14"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Z46" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA46">
         <v>0.26878516501864103</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB46">
+        <f t="shared" si="16"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="AC46" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="47" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -17833,32 +21205,104 @@
       <c r="C47" s="8">
         <v>2.1330977045408881</v>
       </c>
-      <c r="D47">
+      <c r="D47" s="15">
+        <f t="shared" si="0"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="E47" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F47">
         <v>-4.5689422853735744</v>
       </c>
-      <c r="E47">
+      <c r="G47">
+        <f t="shared" si="2"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="H47" t="str">
+        <f t="shared" si="3"/>
+        <v>Very low polarity</v>
+      </c>
+      <c r="I47">
         <v>-0.85036048793518282</v>
       </c>
-      <c r="F47">
+      <c r="J47">
+        <f t="shared" si="4"/>
+        <v>0.2</v>
+      </c>
+      <c r="K47" t="str">
+        <f t="shared" si="5"/>
+        <v>Very early time sent</v>
+      </c>
+      <c r="L47">
         <v>-0.13472022839186737</v>
       </c>
-      <c r="G47">
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>0.6333333333333333</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O47">
         <v>-0.31531625399934771</v>
       </c>
-      <c r="H47">
+      <c r="P47">
+        <f t="shared" si="8"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R47">
         <v>-0.48742941957580904</v>
       </c>
-      <c r="I47">
+      <c r="S47">
+        <f t="shared" si="10"/>
+        <v>0.4</v>
+      </c>
+      <c r="T47" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U47">
         <v>-0.31909585002465624</v>
       </c>
-      <c r="J47">
+      <c r="V47">
+        <f t="shared" si="12"/>
+        <v>0.5</v>
+      </c>
+      <c r="W47" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X47">
         <v>-0.56910853026834363</v>
       </c>
-      <c r="K47">
+      <c r="Y47">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z47" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA47">
         <v>-0.21401075578976578</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB47">
+        <f t="shared" si="16"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="AC47" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="48" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -17868,32 +21312,104 @@
       <c r="C48" s="8">
         <v>2.292336541275191E-2</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="15">
+        <f t="shared" si="0"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="E48" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F48">
         <v>9.4223521865528945E-2</v>
       </c>
-      <c r="E48">
+      <c r="G48">
+        <f t="shared" si="2"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="H48" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I48">
         <v>1.0075802955033957</v>
       </c>
-      <c r="F48">
+      <c r="J48">
+        <f t="shared" si="4"/>
+        <v>0.9</v>
+      </c>
+      <c r="K48" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L48">
         <v>-0.71941000159328483</v>
       </c>
-      <c r="G48">
+      <c r="M48">
+        <f t="shared" si="6"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O48">
         <v>-0.3422997473794801</v>
       </c>
-      <c r="H48">
+      <c r="P48">
+        <f t="shared" si="8"/>
+        <v>0.15</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R48">
         <v>-0.49616233694510536</v>
       </c>
-      <c r="I48">
+      <c r="S48">
+        <f t="shared" si="10"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="T48" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U48">
         <v>-0.30956613668189459</v>
       </c>
-      <c r="J48">
+      <c r="V48">
+        <f t="shared" si="12"/>
+        <v>0.53333333333333333</v>
+      </c>
+      <c r="W48" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X48">
         <v>-0.56910853026834363</v>
       </c>
-      <c r="K48">
+      <c r="Y48">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z48" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA48">
         <v>0.16122482372282837</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB48">
+        <f t="shared" si="16"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AC48" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="49" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -17903,32 +21419,104 @@
       <c r="C49" s="8">
         <v>-0.86443286509290118</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="15">
+        <f t="shared" si="0"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="E49" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F49">
         <v>5.3013539277676526E-2</v>
       </c>
-      <c r="E49">
+      <c r="G49">
+        <f t="shared" si="2"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="H49" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I49">
         <v>-0.71475971791759518</v>
       </c>
-      <c r="F49">
+      <c r="J49">
+        <f t="shared" si="4"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="K49" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L49">
         <v>-0.65944181972647276</v>
       </c>
-      <c r="G49">
+      <c r="M49">
+        <f t="shared" si="6"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O49">
         <v>-0.33918202805098396</v>
       </c>
-      <c r="H49">
+      <c r="P49">
+        <f t="shared" si="8"/>
+        <v>0.3</v>
+      </c>
+      <c r="Q49" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R49">
         <v>-0.49502978672377473</v>
       </c>
-      <c r="I49">
+      <c r="S49">
+        <f t="shared" si="10"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="T49" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U49">
         <v>-0.59035801353063533</v>
       </c>
-      <c r="J49">
+      <c r="V49">
+        <f t="shared" si="12"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="W49" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X49">
         <v>-0.75751802865929108</v>
       </c>
-      <c r="K49">
+      <c r="Y49">
+        <f t="shared" si="14"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="Z49" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA49">
         <v>-0.21437973177545397</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB49">
+        <f t="shared" si="16"/>
+        <v>0.3</v>
+      </c>
+      <c r="AC49" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="50" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -17938,32 +21526,104 @@
       <c r="C50" s="8">
         <v>-8.9678643178148859E-2</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="15">
+        <f t="shared" si="0"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="E50" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F50">
         <v>-0.14559022432716165</v>
       </c>
-      <c r="E50">
+      <c r="G50">
+        <f t="shared" si="2"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="H50" t="str">
+        <f t="shared" si="3"/>
+        <v>Low polarity</v>
+      </c>
+      <c r="I50">
         <v>-0.3578879237414323</v>
       </c>
-      <c r="F50">
+      <c r="J50">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="K50" t="str">
+        <f t="shared" si="5"/>
+        <v>Early time sent</v>
+      </c>
+      <c r="L50">
         <v>-9.3492103358434053E-2</v>
       </c>
-      <c r="G50">
+      <c r="M50">
+        <f t="shared" si="6"/>
+        <v>0.65</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O50">
         <v>-0.30510231155279305</v>
       </c>
-      <c r="H50">
+      <c r="P50">
+        <f t="shared" si="8"/>
+        <v>0.5</v>
+      </c>
+      <c r="Q50" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R50">
         <v>-0.49017664983156689</v>
       </c>
-      <c r="I50">
+      <c r="S50">
+        <f t="shared" si="10"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="T50" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U50">
         <v>-0.4082728809398789</v>
       </c>
-      <c r="J50">
+      <c r="V50">
+        <f t="shared" si="12"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="W50" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X50">
         <v>-0.56910853026834363</v>
       </c>
-      <c r="K50">
+      <c r="Y50">
+        <f t="shared" si="14"/>
+        <v>0.4</v>
+      </c>
+      <c r="Z50" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA50">
         <v>-0.36235665807140666</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB50">
+        <f t="shared" si="16"/>
+        <v>0.25</v>
+      </c>
+      <c r="AC50" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="51" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -17973,32 +21633,104 @@
       <c r="C51" s="8">
         <v>-0.12841861874081695</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="15">
+        <f t="shared" si="0"/>
+        <v>0.48333333333333334</v>
+      </c>
+      <c r="E51" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F51">
         <v>0.36765096375233564</v>
       </c>
-      <c r="E51">
+      <c r="G51">
+        <f t="shared" si="2"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="H51" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I51">
         <v>-1.5693599196640291</v>
       </c>
-      <c r="F51">
+      <c r="J51">
+        <f t="shared" si="4"/>
+        <v>0.05</v>
+      </c>
+      <c r="K51" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L51">
         <v>-0.67818187655985152</v>
       </c>
-      <c r="G51">
+      <c r="M51">
+        <f t="shared" si="6"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O51">
         <v>-0.3293984778349624</v>
       </c>
-      <c r="H51">
+      <c r="P51">
+        <f t="shared" si="8"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="Q51" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R51">
         <v>-0.48356176815062241</v>
       </c>
-      <c r="I51">
+      <c r="S51">
+        <f t="shared" si="10"/>
+        <v>0.43333333333333335</v>
+      </c>
+      <c r="T51" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U51">
         <v>-0.79730402535378841</v>
       </c>
-      <c r="J51">
+      <c r="V51">
+        <f t="shared" si="12"/>
+        <v>0.15</v>
+      </c>
+      <c r="W51" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X51">
         <v>-0.75751802865929108</v>
       </c>
-      <c r="K51">
+      <c r="Y51">
+        <f t="shared" si="14"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="Z51" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA51">
         <v>0.68623604184548304</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB51">
+        <f t="shared" si="16"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="AC51" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="52" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -18008,32 +21740,104 @@
       <c r="C52" s="8">
         <v>0.96300678936403428</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="15">
+        <f t="shared" si="0"/>
+        <v>0.81666666666666665</v>
+      </c>
+      <c r="E52" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F52">
         <v>1.1432542784143502</v>
       </c>
-      <c r="E52">
+      <c r="G52">
+        <f t="shared" si="2"/>
+        <v>0.91666666666666663</v>
+      </c>
+      <c r="H52" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I52">
         <v>-0.14450066547364981</v>
       </c>
-      <c r="F52">
+      <c r="J52">
+        <f t="shared" si="4"/>
+        <v>0.4</v>
+      </c>
+      <c r="K52" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L52">
         <v>-0.97975674337304308</v>
       </c>
-      <c r="G52">
+      <c r="M52">
+        <f t="shared" si="6"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O52">
         <v>-0.33845723257641369</v>
       </c>
-      <c r="H52">
+      <c r="P52">
+        <f t="shared" si="8"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="Q52" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R52">
         <v>-0.46869048736953844</v>
       </c>
-      <c r="I52">
+      <c r="S52">
+        <f t="shared" si="10"/>
+        <v>0.45</v>
+      </c>
+      <c r="T52" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U52">
         <v>-0.79883037446832883</v>
       </c>
-      <c r="J52">
+      <c r="V52">
+        <f t="shared" si="12"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="W52" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X52">
         <v>-0.71594098621191671</v>
       </c>
-      <c r="K52">
+      <c r="Y52">
+        <f t="shared" si="14"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="Z52" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA52">
         <v>1.3057907511477513</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB52">
+        <f t="shared" si="16"/>
+        <v>0.96666666666666667</v>
+      </c>
+      <c r="AC52" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="53" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -18043,32 +21847,104 @@
       <c r="C53" s="8">
         <v>1.5904139680687512</v>
       </c>
-      <c r="D53">
+      <c r="D53" s="15">
+        <f t="shared" si="0"/>
+        <v>0.9</v>
+      </c>
+      <c r="E53" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F53">
         <v>0.98419665895133468</v>
       </c>
-      <c r="E53">
+      <c r="G53">
+        <f t="shared" si="2"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="H53" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I53">
         <v>0.91244952262386159</v>
       </c>
-      <c r="F53">
+      <c r="J53">
+        <f t="shared" si="4"/>
+        <v>0.85</v>
+      </c>
+      <c r="K53" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L53">
         <v>-0.7846540977759443</v>
       </c>
-      <c r="G53">
+      <c r="M53">
+        <f t="shared" si="6"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O53">
         <v>-0.33420570449277814</v>
       </c>
-      <c r="H53">
+      <c r="P53">
+        <f t="shared" si="8"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="Q53" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R53">
         <v>-0.45161236541368921</v>
       </c>
-      <c r="I53">
+      <c r="S53">
+        <f t="shared" si="10"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="T53" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U53">
         <v>-0.29140112100509052</v>
       </c>
-      <c r="J53">
+      <c r="V53">
+        <f t="shared" si="12"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="W53" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X53">
         <v>-0.64967306654431967</v>
       </c>
-      <c r="K53">
+      <c r="Y53">
+        <f t="shared" si="14"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="Z53" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA53">
         <v>0.73814582686056496</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB53">
+        <f t="shared" si="16"/>
+        <v>0.8666666666666667</v>
+      </c>
+      <c r="AC53" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="54" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -18078,32 +21954,104 @@
       <c r="C54" s="8">
         <v>-2.9501743190596515E-2</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="15">
+        <f t="shared" si="0"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E54" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F54">
         <v>2.1495776384142338</v>
       </c>
-      <c r="E54">
+      <c r="G54">
+        <f t="shared" si="2"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="H54" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I54">
         <v>0.6133920105454963</v>
       </c>
-      <c r="F54">
+      <c r="J54">
+        <f t="shared" si="4"/>
+        <v>0.75</v>
+      </c>
+      <c r="K54" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L54">
         <v>-0.42081402895973286</v>
       </c>
-      <c r="G54">
+      <c r="M54">
+        <f t="shared" si="6"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O54">
         <v>-0.27454770121411282</v>
       </c>
-      <c r="H54">
+      <c r="P54">
+        <f t="shared" si="8"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="Q54" t="str">
+        <f t="shared" si="9"/>
+        <v>High sumRetweets</v>
+      </c>
+      <c r="R54">
         <v>-0.24719749482168202</v>
       </c>
-      <c r="I54">
+      <c r="S54">
+        <f t="shared" si="10"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="T54" t="str">
+        <f t="shared" si="11"/>
+        <v>High sumFaves</v>
+      </c>
+      <c r="U54">
         <v>-0.42495653498951658</v>
       </c>
-      <c r="J54">
+      <c r="V54">
+        <f t="shared" si="12"/>
+        <v>0.45</v>
+      </c>
+      <c r="W54" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X54">
         <v>-0.18579762887114054</v>
       </c>
-      <c r="K54">
+      <c r="Y54">
+        <f t="shared" si="14"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="Z54" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA54">
         <v>0.22427680800646727</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB54">
+        <f t="shared" si="16"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="AC54" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="55" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -18113,32 +22061,104 @@
       <c r="C55" s="8">
         <v>0.4628147867238413</v>
       </c>
-      <c r="D55">
+      <c r="D55" s="15">
+        <f t="shared" si="0"/>
+        <v>0.78333333333333333</v>
+      </c>
+      <c r="E55" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F55">
         <v>0.57814295433091922</v>
       </c>
-      <c r="E55">
+      <c r="G55">
+        <f t="shared" si="2"/>
+        <v>0.8</v>
+      </c>
+      <c r="H55" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I55">
         <v>-1.3727913615227316</v>
       </c>
-      <c r="F55">
+      <c r="J55">
+        <f t="shared" si="4"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="K55" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L55">
         <v>-1.0245776214156199</v>
       </c>
-      <c r="G55">
+      <c r="M55">
+        <f t="shared" si="6"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="N55" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O55">
         <v>-0.33815447504027984</v>
       </c>
-      <c r="H55">
+      <c r="P55">
+        <f t="shared" si="8"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="Q55" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R55">
         <v>-0.48408991301873028</v>
       </c>
-      <c r="I55">
+      <c r="S55">
+        <f t="shared" si="10"/>
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="T55" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U55">
         <v>-0.78469944974648864</v>
       </c>
-      <c r="J55">
+      <c r="V55">
+        <f t="shared" si="12"/>
+        <v>0.18333333333333332</v>
+      </c>
+      <c r="W55" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X55">
         <v>-0.78220890587951364</v>
       </c>
-      <c r="K55">
+      <c r="Y55">
+        <f t="shared" si="14"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="Z55" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA55">
         <v>1.448745035437311</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB55">
+        <f t="shared" si="16"/>
+        <v>0.98333333333333328</v>
+      </c>
+      <c r="AC55" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="56" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -18148,32 +22168,104 @@
       <c r="C56" s="8">
         <v>0.97996232511205927</v>
       </c>
-      <c r="D56">
+      <c r="D56" s="15">
+        <f t="shared" si="0"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E56" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very high subjectivity</v>
+      </c>
+      <c r="F56">
         <v>0.7594556998280737</v>
       </c>
-      <c r="E56">
+      <c r="G56">
+        <f t="shared" si="2"/>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="H56" t="str">
+        <f t="shared" si="3"/>
+        <v>Very high polarity</v>
+      </c>
+      <c r="I56">
         <v>0.24127826942100714</v>
       </c>
-      <c r="F56">
+      <c r="J56">
+        <f t="shared" si="4"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="K56" t="str">
+        <f t="shared" si="5"/>
+        <v>Very late time sent</v>
+      </c>
+      <c r="L56">
         <v>-0.87429585386109765</v>
       </c>
-      <c r="G56">
+      <c r="M56">
+        <f t="shared" si="6"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="N56" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O56">
         <v>-0.32577095337939094</v>
       </c>
-      <c r="H56">
+      <c r="P56">
+        <f t="shared" si="8"/>
+        <v>0.45</v>
+      </c>
+      <c r="Q56" t="str">
+        <f t="shared" si="9"/>
+        <v>Low sumRetweets</v>
+      </c>
+      <c r="R56">
         <v>-0.42324197122474599</v>
       </c>
-      <c r="I56">
+      <c r="S56">
+        <f t="shared" si="10"/>
+        <v>0.5</v>
+      </c>
+      <c r="T56" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U56">
         <v>-0.55950264956712281</v>
       </c>
-      <c r="J56">
+      <c r="V56">
+        <f t="shared" si="12"/>
+        <v>0.35</v>
+      </c>
+      <c r="W56" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X56">
         <v>-0.78220890587951364</v>
       </c>
-      <c r="K56">
+      <c r="Y56">
+        <f t="shared" si="14"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="Z56" t="str">
+        <f t="shared" si="15"/>
+        <v>Very low verif</v>
+      </c>
+      <c r="AA56">
         <v>-0.41060642129091879</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB56">
+        <f t="shared" si="16"/>
+        <v>0.21666666666666667</v>
+      </c>
+      <c r="AC56" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="57" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -18183,32 +22275,104 @@
       <c r="C57" s="8">
         <v>0.11541484045521223</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="15">
+        <f t="shared" si="0"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="E57" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F57">
         <v>0.23818003145111957</v>
       </c>
-      <c r="E57">
+      <c r="G57">
+        <f t="shared" si="2"/>
+        <v>0.65</v>
+      </c>
+      <c r="H57" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I57">
         <v>-0.45880012483074617</v>
       </c>
-      <c r="F57">
+      <c r="J57">
+        <f t="shared" si="4"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="K57" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L57">
         <v>-0.6956319331065951</v>
       </c>
-      <c r="G57">
+      <c r="M57">
+        <f t="shared" si="6"/>
+        <v>0.25</v>
+      </c>
+      <c r="N57" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O57">
         <v>-0.34320614969238816</v>
       </c>
-      <c r="H57">
+      <c r="P57">
+        <f t="shared" si="8"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="Q57" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R57">
         <v>-0.49599885159729357</v>
       </c>
-      <c r="I57">
+      <c r="S57">
+        <f t="shared" si="10"/>
+        <v>0.2</v>
+      </c>
+      <c r="T57" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U57">
         <v>-0.50313353967170615</v>
       </c>
-      <c r="J57">
+      <c r="V57">
+        <f t="shared" si="12"/>
+        <v>0.4</v>
+      </c>
+      <c r="W57" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X57">
         <v>-0.58408224163931177</v>
       </c>
-      <c r="K57">
+      <c r="Y57">
+        <f t="shared" si="14"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="Z57" t="str">
+        <f t="shared" si="15"/>
+        <v>Low verif</v>
+      </c>
+      <c r="AA57">
         <v>-6.3714537619441194E-2</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB57">
+        <f t="shared" si="16"/>
+        <v>0.4</v>
+      </c>
+      <c r="AC57" t="str">
+        <f t="shared" si="17"/>
+        <v>Decrease</v>
+      </c>
+    </row>
+    <row r="58" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -18218,32 +22382,104 @@
       <c r="C58" s="8">
         <v>0.21218588698664034</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="15">
+        <f t="shared" si="0"/>
+        <v>0.71666666666666667</v>
+      </c>
+      <c r="E58" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F58">
         <v>0.26402368800981529</v>
       </c>
-      <c r="E58">
+      <c r="G58">
+        <f t="shared" si="2"/>
+        <v>0.68333333333333335</v>
+      </c>
+      <c r="H58" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I58">
         <v>-1.4905222627385302</v>
       </c>
-      <c r="F58">
+      <c r="J58">
+        <f t="shared" si="4"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="K58" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L58">
         <v>-0.50269829196089555</v>
       </c>
-      <c r="G58">
+      <c r="M58">
+        <f t="shared" si="6"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="N58" t="str">
+        <f t="shared" si="7"/>
+        <v>High numTweets</v>
+      </c>
+      <c r="O58">
         <v>-0.3409552889158326</v>
       </c>
-      <c r="H58">
+      <c r="P58">
+        <f t="shared" si="8"/>
+        <v>0.23333333333333334</v>
+      </c>
+      <c r="Q58" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R58">
         <v>-0.49336254442451444</v>
       </c>
-      <c r="I58">
+      <c r="S58">
+        <f t="shared" si="10"/>
+        <v>0.3</v>
+      </c>
+      <c r="T58" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U58">
         <v>-0.50959413235266471</v>
       </c>
-      <c r="J58">
+      <c r="V58">
+        <f t="shared" si="12"/>
+        <v>0.38333333333333336</v>
+      </c>
+      <c r="W58" t="str">
+        <f t="shared" si="13"/>
+        <v>Low sumFollow</v>
+      </c>
+      <c r="X58">
         <v>-0.22751540295324688</v>
       </c>
-      <c r="K58">
+      <c r="Y58">
+        <f t="shared" si="14"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="Z58" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA58">
         <v>-0.60862868414888771</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB58">
+        <f t="shared" si="16"/>
+        <v>0.2</v>
+      </c>
+      <c r="AC58" t="str">
+        <f t="shared" si="17"/>
+        <v>Big decrease</v>
+      </c>
+    </row>
+    <row r="59" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -18253,32 +22489,104 @@
       <c r="C59" s="8">
         <v>-7.8177453852370585E-2</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="15">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="E59" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>High subjectivity</v>
+      </c>
+      <c r="F59">
         <v>0.49116407162424697</v>
       </c>
-      <c r="E59">
+      <c r="G59">
+        <f t="shared" si="2"/>
+        <v>0.75</v>
+      </c>
+      <c r="H59" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I59">
         <v>-0.47193973442846421</v>
       </c>
-      <c r="F59">
+      <c r="J59">
+        <f t="shared" si="4"/>
+        <v>0.31666666666666665</v>
+      </c>
+      <c r="K59" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L59">
         <v>-0.51688458910396162</v>
       </c>
-      <c r="G59">
+      <c r="M59">
+        <f t="shared" si="6"/>
+        <v>0.46666666666666667</v>
+      </c>
+      <c r="N59" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O59">
         <v>-0.3407347721054198</v>
       </c>
-      <c r="H59">
+      <c r="P59">
+        <f t="shared" si="8"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q59" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R59">
         <v>-0.49276114043734154</v>
       </c>
-      <c r="I59">
+      <c r="S59">
+        <f t="shared" si="10"/>
+        <v>0.35</v>
+      </c>
+      <c r="T59" t="str">
+        <f t="shared" si="11"/>
+        <v>Low sumFaves</v>
+      </c>
+      <c r="U59">
         <v>-0.20892620664089367</v>
       </c>
-      <c r="J59">
+      <c r="V59">
+        <f t="shared" si="12"/>
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="W59" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X59">
         <v>-1.3575299741607818E-2</v>
       </c>
-      <c r="K59">
+      <c r="Y59">
+        <f t="shared" si="14"/>
+        <v>0.6</v>
+      </c>
+      <c r="Z59" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA59">
         <v>0.44213967523915559</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB59">
+        <f t="shared" si="16"/>
+        <v>0.73333333333333328</v>
+      </c>
+      <c r="AC59" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
+    </row>
+    <row r="60" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -18288,32 +22596,104 @@
       <c r="C60" s="8">
         <v>-0.27404571952685075</v>
       </c>
-      <c r="D60">
+      <c r="D60" s="15">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="E60" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Low subjectivity</v>
+      </c>
+      <c r="F60">
         <v>0.18736335671706314</v>
       </c>
-      <c r="E60">
+      <c r="G60">
+        <f t="shared" si="2"/>
+        <v>0.6166666666666667</v>
+      </c>
+      <c r="H60" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I60">
         <v>-0.60806608861850153</v>
       </c>
-      <c r="F60">
+      <c r="J60">
+        <f t="shared" si="4"/>
+        <v>0.26666666666666666</v>
+      </c>
+      <c r="K60" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L60">
         <v>-0.63037496624849088</v>
       </c>
-      <c r="G60">
+      <c r="M60">
+        <f t="shared" si="6"/>
+        <v>0.36666666666666664</v>
+      </c>
+      <c r="N60" t="str">
+        <f t="shared" si="7"/>
+        <v>Low numTweets</v>
+      </c>
+      <c r="O60">
         <v>-0.3438180341753353</v>
       </c>
-      <c r="H60">
+      <c r="P60">
+        <f t="shared" si="8"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="Q60" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R60">
         <v>-0.49748629351976703</v>
       </c>
-      <c r="I60">
+      <c r="S60">
+        <f t="shared" si="10"/>
+        <v>0.11666666666666667</v>
+      </c>
+      <c r="T60" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U60">
         <v>0.15657546409333348</v>
       </c>
-      <c r="J60">
+      <c r="V60">
+        <f t="shared" si="12"/>
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="W60" t="str">
+        <f t="shared" si="13"/>
+        <v>High sumFollow</v>
+      </c>
+      <c r="X60">
         <v>0.55693164215609614</v>
       </c>
-      <c r="K60">
+      <c r="Y60">
+        <f t="shared" si="14"/>
+        <v>0.75</v>
+      </c>
+      <c r="Z60" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA60">
         <v>0.58878233394100898</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="AB60">
+        <f t="shared" si="16"/>
+        <v>0.76666666666666672</v>
+      </c>
+      <c r="AC60" t="str">
+        <f t="shared" si="17"/>
+        <v>Big increase</v>
+      </c>
+    </row>
+    <row r="61" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -18323,33 +22703,165 @@
       <c r="C61" s="8">
         <v>-1.232977421366916</v>
       </c>
-      <c r="D61">
+      <c r="D61" s="15">
+        <f t="shared" si="0"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="E61" s="14" t="str">
+        <f t="shared" si="1"/>
+        <v>Very low subjectivity</v>
+      </c>
+      <c r="F61">
         <v>0.16511305299118345</v>
       </c>
-      <c r="E61">
+      <c r="G61">
+        <f t="shared" si="2"/>
+        <v>0.6</v>
+      </c>
+      <c r="H61" t="str">
+        <f t="shared" si="3"/>
+        <v>High polarity</v>
+      </c>
+      <c r="I61">
         <v>0.99601743908383611</v>
       </c>
-      <c r="F61">
+      <c r="J61">
+        <f t="shared" si="4"/>
+        <v>0.8833333333333333</v>
+      </c>
+      <c r="K61" t="str">
+        <f t="shared" si="5"/>
+        <v>Late time sent</v>
+      </c>
+      <c r="L61">
         <v>-0.98786965425375761</v>
       </c>
-      <c r="G61">
+      <c r="M61">
+        <f t="shared" si="6"/>
+        <v>0.05</v>
+      </c>
+      <c r="N61" t="str">
+        <f t="shared" si="7"/>
+        <v>Very low numTweets</v>
+      </c>
+      <c r="O61">
         <v>-0.34476168719286743</v>
       </c>
-      <c r="H61">
+      <c r="P61">
+        <f t="shared" si="8"/>
+        <v>1.6666666666666666E-2</v>
+      </c>
+      <c r="Q61" t="str">
+        <f t="shared" si="9"/>
+        <v>Very low sumRetweets</v>
+      </c>
+      <c r="R61">
         <v>-0.49849284179600867</v>
       </c>
-      <c r="I61">
+      <c r="S61">
+        <f t="shared" si="10"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="T61" t="str">
+        <f t="shared" si="11"/>
+        <v>Very low sumFaves</v>
+      </c>
+      <c r="U61">
         <v>-0.79039762873770991</v>
       </c>
-      <c r="J61">
+      <c r="V61">
+        <f t="shared" si="12"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="W61" t="str">
+        <f t="shared" si="13"/>
+        <v>Very low sumFollow</v>
+      </c>
+      <c r="X61">
         <v>-0.22751540295324688</v>
       </c>
-      <c r="K61">
+      <c r="Y61">
+        <f t="shared" si="14"/>
+        <v>0.51666666666666672</v>
+      </c>
+      <c r="Z61" t="str">
+        <f t="shared" si="15"/>
+        <v>High verif</v>
+      </c>
+      <c r="AA61">
         <v>0.26253389816079675</v>
       </c>
+      <c r="AB61">
+        <f t="shared" si="16"/>
+        <v>0.65</v>
+      </c>
+      <c r="AC61" t="str">
+        <f t="shared" si="17"/>
+        <v>Increase</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="F1:J56 F62:J1048576">
+  <conditionalFormatting sqref="L1:O2 L62:O1048576 L3:L56 O3:O56 R62:R1048576 R1:R56 U1:U56 X1:X56 U62:U1048576 X62:X1048576 M3:N61">
+    <cfRule type="colorScale" priority="13">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C1:K2 C62:K1048576 C3:C56 F3:F56 I3:I56 J3:K61 G3:H61 D3:E61">
+    <cfRule type="colorScale" priority="12">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA62:AA1048576 AA1:AA56">
+    <cfRule type="colorScale" priority="11">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U57:U61 L57:L61 O57:O61 R57:R61 X57:X61">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="C57:C61 F57:F61 I57:I61">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="AA57:AA61">
     <cfRule type="colorScale" priority="7">
       <colorScale>
         <cfvo type="min"/>
@@ -18361,7 +22873,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C1:E56 C62:E1048576">
+  <conditionalFormatting sqref="P1:Q1048576">
     <cfRule type="colorScale" priority="6">
       <colorScale>
         <cfvo type="min"/>
@@ -18373,7 +22885,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="K62:K1048576 K1:K56">
+  <conditionalFormatting sqref="S1:T1048576">
     <cfRule type="colorScale" priority="5">
       <colorScale>
         <cfvo type="min"/>
@@ -18385,7 +22897,19 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F57:J61">
+  <conditionalFormatting sqref="V1:W1048576">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Y1:Z1048576">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -18397,19 +22921,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="C57:E61">
-    <cfRule type="colorScale" priority="2">
-      <colorScale>
-        <cfvo type="min"/>
-        <cfvo type="percentile" val="50"/>
-        <cfvo type="max"/>
-        <color rgb="FFF8696B"/>
-        <color rgb="FFFFEB84"/>
-        <color rgb="FF63BE7B"/>
-      </colorScale>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="K57:K61">
+  <conditionalFormatting sqref="AB1:AC1048576">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -18426,7 +22938,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:K61"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -18434,12 +22946,12 @@
       <selection pane="topRight" activeCell="K1" sqref="K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="8"/>
+    <col min="3" max="3" width="10.875" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" s="6" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -18474,7 +22986,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -18509,7 +23021,7 @@
         <v>0.7378652926222603</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>11</v>
       </c>
@@ -18544,7 +23056,7 @@
         <v>5.3475496041623667E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>11</v>
       </c>
@@ -18579,7 +23091,7 @@
         <v>-9.2900582443061708E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -18614,7 +23126,7 @@
         <v>0.54897387255906593</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>11</v>
       </c>
@@ -18649,7 +23161,7 @@
         <v>-0.78768476001982135</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -18684,7 +23196,7 @@
         <v>0.32987591495246887</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>12</v>
       </c>
@@ -18719,7 +23231,7 @@
         <v>-3.0791151353299354E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -18754,7 +23266,7 @@
         <v>-9.6508178098076283E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>12</v>
       </c>
@@ -18789,7 +23301,7 @@
         <v>0.89947135905925713</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -18824,7 +23336,7 @@
         <v>0.25669020446199992</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -18859,7 +23371,7 @@
         <v>-0.81483747334240675</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -18894,7 +23406,7 @@
         <v>-1.2900672590062767</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -18929,7 +23441,7 @@
         <v>0.60263677348675015</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -18964,7 +23476,7 @@
         <v>0.14691079314978872</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -18999,7 +23511,7 @@
         <v>0.14654997887864499</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -19034,7 +23546,7 @@
         <v>0.19968012226416862</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -19069,7 +23581,7 @@
         <v>-0.18981924122123972</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>14</v>
       </c>
@@ -19104,7 +23616,7 @@
         <v>0.73824430646909533</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -19139,7 +23651,7 @@
         <v>3.2849630060844164</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>14</v>
       </c>
@@ -19174,7 +23686,7 @@
         <v>-2.3803944047494454</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>14</v>
       </c>
@@ -19209,7 +23721,7 @@
         <v>0.19005922841589545</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>15</v>
       </c>
@@ -19244,7 +23756,7 @@
         <v>-0.31597331053204436</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>15</v>
       </c>
@@ -19279,7 +23791,7 @@
         <v>-0.92280053241042259</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>15</v>
       </c>
@@ -19314,7 +23826,7 @@
         <v>0.61599875839029949</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>15</v>
       </c>
@@ -19349,7 +23861,7 @@
         <v>0.22239714421216208</v>
       </c>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>12</v>
       </c>
@@ -19384,7 +23896,7 @@
         <v>-1.6900624029700886</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
@@ -19419,7 +23931,7 @@
         <v>1.0848307137268838</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>12</v>
       </c>
@@ -19454,7 +23966,7 @@
         <v>0.10349908095363346</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -19489,7 +24001,7 @@
         <v>0.39994453525434925</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>12</v>
       </c>
@@ -19524,7 +24036,7 @@
         <v>-1.6542396379707013E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>13</v>
       </c>
@@ -19559,7 +24071,7 @@
         <v>-2.4106477905867214</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>13</v>
       </c>
@@ -19594,7 +24106,7 @@
         <v>-9.9157598391492758E-3</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>13</v>
       </c>
@@ -19629,7 +24141,7 @@
         <v>0.1255767997985642</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>13</v>
       </c>
@@ -19664,7 +24176,7 @@
         <v>0.3660164435823367</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>13</v>
       </c>
@@ -19699,7 +24211,7 @@
         <v>1.2651307261415587</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>14</v>
       </c>
@@ -19734,7 +24246,7 @@
         <v>0.63269347092388106</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>14</v>
       </c>
@@ -19769,7 +24281,7 @@
         <v>-0.23720133833429324</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>14</v>
       </c>
@@ -19804,7 +24316,7 @@
         <v>0.99099576533017397</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>14</v>
       </c>
@@ -19839,7 +24351,7 @@
         <v>-0.36893421099078283</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>14</v>
       </c>
@@ -19874,7 +24386,7 @@
         <v>-3.7408999029779562</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>42</v>
       </c>
@@ -19909,7 +24421,7 @@
         <v>-0.70239730913560772</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>42</v>
       </c>
@@ -19944,7 +24456,7 @@
         <v>-0.12107727228740689</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -19979,7 +24491,7 @@
         <v>-0.70641796316586181</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>42</v>
       </c>
@@ -20014,7 +24526,7 @@
         <v>-1.2695701175997425</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>42</v>
       </c>
@@ -20049,7 +24561,7 @@
         <v>0.26878516501864103</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>10</v>
       </c>
@@ -20084,7 +24596,7 @@
         <v>-0.21401075578976578</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>10</v>
       </c>
@@ -20119,7 +24631,7 @@
         <v>0.16122482372282837</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>10</v>
       </c>
@@ -20154,7 +24666,7 @@
         <v>-0.21437973177545397</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>10</v>
       </c>
@@ -20189,7 +24701,7 @@
         <v>-0.36235665807140666</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>10</v>
       </c>
@@ -20224,7 +24736,7 @@
         <v>0.68623604184548304</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>43</v>
       </c>
@@ -20259,7 +24771,7 @@
         <v>1.3057907511477513</v>
       </c>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>43</v>
       </c>
@@ -20294,7 +24806,7 @@
         <v>0.73814582686056496</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>43</v>
       </c>
@@ -20329,7 +24841,7 @@
         <v>0.22427680800646727</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>43</v>
       </c>
@@ -20364,7 +24876,7 @@
         <v>1.448745035437311</v>
       </c>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
         <v>43</v>
       </c>
@@ -20399,7 +24911,7 @@
         <v>-0.41060642129091879</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
         <v>15</v>
       </c>
@@ -20434,7 +24946,7 @@
         <v>-6.3714537619441194E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
         <v>15</v>
       </c>
@@ -20469,7 +24981,7 @@
         <v>-0.60862868414888771</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
         <v>15</v>
       </c>
@@ -20504,7 +25016,7 @@
         <v>0.44213967523915559</v>
       </c>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>15</v>
       </c>
@@ -20539,7 +25051,7 @@
         <v>0.58878233394100898</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
         <v>15</v>
       </c>
@@ -20652,16 +25164,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView zoomScale="99" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -20678,7 +25190,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>10</v>
       </c>
@@ -20697,7 +25209,7 @@
         <v>5.8175762104383286E-2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>11</v>
       </c>
@@ -20716,7 +25228,7 @@
         <v>0.15538444002583621</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>14</v>
       </c>
@@ -20735,7 +25247,7 @@
         <v>1.5812003698121808E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>12</v>
       </c>
@@ -20754,7 +25266,7 @@
         <v>0.17586342278904241</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>13</v>
       </c>
@@ -20773,7 +25285,7 @@
         <v>0.10226193340847782</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>15</v>
       </c>
@@ -20792,7 +25304,7 @@
         <v>7.6850010765080606E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>42</v>
       </c>
@@ -20811,7 +25323,7 @@
         <v>0.33295127851163264</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
         <v>43</v>
       </c>

--- a/Training Dataset Wkbk.xlsx
+++ b/Training Dataset Wkbk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12760" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Training Dataset" sheetId="1" r:id="rId1"/>
@@ -262,7 +262,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -272,8 +272,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -566,15 +564,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC129"/>
   <sheetViews>
-    <sheetView topLeftCell="A110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A86" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A117" sqref="A117:J128"/>
+      <selection pane="topRight" activeCell="H116" sqref="H116"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="15.5" style="10" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="11"/>
+    <col min="11" max="11" width="15.5" style="14" customWidth="1"/>
     <col min="17" max="17" width="10.83203125" style="8"/>
     <col min="25" max="25" width="10.83203125" style="8"/>
     <col min="27" max="27" width="10.83203125" style="4"/>
@@ -592,7 +591,7 @@
         <f>AVERAGE(E4:E1048576)</f>
         <v>0.13777682734494193</v>
       </c>
-      <c r="K1" s="8">
+      <c r="K1" s="10">
         <f t="shared" ref="K1:P1" si="0">AVERAGE(K4:K1048576)</f>
         <v>0.73890650606380914</v>
       </c>
@@ -633,7 +632,7 @@
         <f>_xlfn.STDEV.P(E4:E1048576)</f>
         <v>7.1266627441565783E-2</v>
       </c>
-      <c r="K2" s="8">
+      <c r="K2" s="10">
         <f t="shared" ref="K2:P2" si="1">_xlfn.STDEV.P(K4:K1048576)</f>
         <v>2.503046798984717E-2</v>
       </c>
@@ -690,10 +689,10 @@
       <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -711,7 +710,7 @@
       <c r="P3" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="Q3" s="9" t="s">
         <v>24</v>
       </c>
       <c r="R3" s="6" t="s">
@@ -735,7 +734,7 @@
       <c r="X3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Y3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="Z3" s="6" t="s">
@@ -779,10 +778,10 @@
       <c r="I4">
         <v>31541854</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="11">
         <v>75</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="14">
         <f t="shared" ref="K4:K35" si="2">MOD(F4, 1)</f>
         <v>0.74314814814715646</v>
       </c>
@@ -834,7 +833,7 @@
         <f t="shared" ref="W4:W35" si="9">STANDARDIZE(O4, O$1, O$2)</f>
         <v>1.0496465225908045</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="11">
         <f t="shared" ref="X4:X35" si="10">STANDARDIZE(P4, P$1, P$2)</f>
         <v>0.23416768721083342</v>
       </c>
@@ -885,10 +884,10 @@
       <c r="I5">
         <v>72090386</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="11">
         <v>110</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="14">
         <f t="shared" si="2"/>
         <v>0.73813657407299615</v>
       </c>
@@ -940,14 +939,14 @@
         <f t="shared" si="9"/>
         <v>3.4033330159331969</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="11">
         <f t="shared" si="10"/>
         <v>0.70373446261049755</v>
       </c>
-      <c r="Y5" s="14">
+      <c r="Y5" s="12">
         <v>1138.28</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="13">
         <v>1129.8800000000001</v>
       </c>
       <c r="AA5" s="4">
@@ -991,10 +990,10 @@
       <c r="I6">
         <v>85964933</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="11">
         <v>127</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="14">
         <f t="shared" si="2"/>
         <v>0.73249999999825377</v>
       </c>
@@ -1046,14 +1045,14 @@
         <f t="shared" si="9"/>
         <v>4.2086971626585132</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="11">
         <f t="shared" si="10"/>
         <v>0.9318097535189056</v>
       </c>
-      <c r="Y6" s="14">
+      <c r="Y6" s="12">
         <v>1130.1600000000001</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="13">
         <v>1137.29</v>
       </c>
       <c r="AA6" s="4">
@@ -1097,10 +1096,10 @@
       <c r="I7">
         <v>21567903</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="11">
         <v>62</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="14">
         <f t="shared" si="2"/>
         <v>0.81998842592292931</v>
       </c>
@@ -1152,14 +1151,14 @@
         <f t="shared" si="9"/>
         <v>0.47069698740272803</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="11">
         <f t="shared" si="10"/>
         <v>5.9757170633815443E-2</v>
       </c>
-      <c r="Y7" s="14">
+      <c r="Y7" s="12">
         <v>1127.01</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="13">
         <v>1126.69</v>
       </c>
       <c r="AA7" s="4">
@@ -1203,10 +1202,10 @@
       <c r="I8">
         <v>42028395</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="11">
         <v>133</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="14">
         <f t="shared" si="2"/>
         <v>0.73333333332993789</v>
       </c>
@@ -1258,14 +1257,14 @@
         <f t="shared" si="9"/>
         <v>1.6583499378853763</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="11">
         <f t="shared" si="10"/>
         <v>1.0123069150159909</v>
       </c>
-      <c r="Y8" s="14">
+      <c r="Y8" s="12">
         <v>1130.1099999999999</v>
       </c>
-      <c r="Z8" s="15">
+      <c r="Z8" s="13">
         <v>1136.8399999999999</v>
       </c>
       <c r="AA8" s="4">
@@ -1309,10 +1308,10 @@
       <c r="I9">
         <v>36875721</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="11">
         <v>57</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="14">
         <f t="shared" si="2"/>
         <v>0.74396990740933688</v>
       </c>
@@ -1364,14 +1363,14 @@
         <f t="shared" si="9"/>
         <v>1.3592570089873208</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="11">
         <f t="shared" si="10"/>
         <v>-7.3237972804222314E-3</v>
       </c>
       <c r="Y9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z9" s="12" t="s">
+      <c r="Z9" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AA9" s="4" t="str">
@@ -1415,10 +1414,10 @@
       <c r="I10">
         <v>27528000</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="11">
         <v>66</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="14">
         <f t="shared" si="2"/>
         <v>0.76112268518772908</v>
       </c>
@@ -1470,14 +1469,14 @@
         <f t="shared" si="9"/>
         <v>0.81665771929582121</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="11">
         <f t="shared" si="10"/>
         <v>0.11342194496520566</v>
       </c>
       <c r="Y10" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z10" s="12" t="s">
+      <c r="Z10" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AA10" s="4" t="str">
@@ -1521,10 +1520,10 @@
       <c r="I11">
         <v>30306395</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="11">
         <v>112</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="14">
         <f t="shared" si="2"/>
         <v>0.73445601851562969</v>
       </c>
@@ -1576,14 +1575,14 @@
         <f t="shared" si="9"/>
         <v>0.97793287432905507</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="11">
         <f t="shared" si="10"/>
         <v>0.73056684977619246</v>
       </c>
       <c r="Y11" s="8">
         <v>1126.0999999999999</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="10">
         <v>1125.3499999999999</v>
       </c>
       <c r="AA11" s="4">
@@ -1627,10 +1626,10 @@
       <c r="I12">
         <v>59429920</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="11">
         <v>130</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="14">
         <f t="shared" si="2"/>
         <v>0.78340277777897427</v>
       </c>
@@ -1682,14 +1681,14 @@
         <f t="shared" si="9"/>
         <v>2.6684416067048531</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="11">
         <f t="shared" si="10"/>
         <v>0.97205833426744825</v>
       </c>
       <c r="Y12" s="8">
         <v>1125.96</v>
       </c>
-      <c r="Z12" s="12">
+      <c r="Z12" s="10">
         <v>1129.1300000000001</v>
       </c>
       <c r="AA12" s="4">
@@ -1733,10 +1732,10 @@
       <c r="I13">
         <v>47905740</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="11">
         <v>147</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="14">
         <f t="shared" si="2"/>
         <v>0.74598379629605915</v>
       </c>
@@ -1788,14 +1787,14 @@
         <f t="shared" si="9"/>
         <v>1.9995072341153217</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="11">
         <f t="shared" si="10"/>
         <v>1.2001336251758563</v>
       </c>
       <c r="Y13" s="8">
         <v>1122.82</v>
       </c>
-      <c r="Z13" s="12">
+      <c r="Z13" s="10">
         <v>1132.8800000000001</v>
       </c>
       <c r="AA13" s="4">
@@ -1839,10 +1838,10 @@
       <c r="I14">
         <v>41610277</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="11">
         <v>142</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="14">
         <f t="shared" si="2"/>
         <v>0.74165509259182727</v>
       </c>
@@ -1894,14 +1893,14 @@
         <f t="shared" si="9"/>
         <v>1.634079794413269</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="11">
         <f t="shared" si="10"/>
         <v>1.1330526572616189</v>
       </c>
       <c r="Y14" s="8">
         <v>1124.74</v>
       </c>
-      <c r="Z14" s="12">
+      <c r="Z14" s="10">
         <v>1130.5999999999999</v>
       </c>
       <c r="AA14" s="4">
@@ -1945,10 +1944,10 @@
       <c r="I15">
         <v>20281730</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="11">
         <v>29</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="14">
         <f t="shared" si="2"/>
         <v>0.72678240740788169</v>
       </c>
@@ -2000,7 +1999,7 @@
         <f t="shared" si="9"/>
         <v>1.309977924292421</v>
       </c>
-      <c r="X15" s="13">
+      <c r="X15" s="11">
         <f t="shared" si="10"/>
         <v>-8.0936333123151516E-2</v>
       </c>
@@ -2051,10 +2050,10 @@
       <c r="I16">
         <v>14672469</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="11">
         <v>101</v>
       </c>
-      <c r="K16" s="10">
+      <c r="K16" s="14">
         <f t="shared" si="2"/>
         <v>0.76372685185197042</v>
       </c>
@@ -2106,7 +2105,7 @@
         <f t="shared" si="9"/>
         <v>0.73161651965063823</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="11">
         <f t="shared" si="10"/>
         <v>1.634924214577876</v>
       </c>
@@ -2157,10 +2156,10 @@
       <c r="I17">
         <v>15599546</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="11">
         <v>64</v>
       </c>
-      <c r="K17" s="10">
+      <c r="K17" s="14">
         <f t="shared" si="2"/>
         <v>0.73211805555911269</v>
       </c>
@@ -2212,7 +2211,7 @@
         <f t="shared" si="9"/>
         <v>0.82720585948187264</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="11">
         <f t="shared" si="10"/>
         <v>0.75316254423151463</v>
       </c>
@@ -2263,10 +2262,10 @@
       <c r="I18">
         <v>21339523</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="11">
         <v>71</v>
       </c>
-      <c r="K18" s="10">
+      <c r="K18" s="14">
         <f t="shared" si="2"/>
         <v>0.72684027777722804</v>
       </c>
@@ -2318,7 +2317,7 @@
         <f t="shared" si="9"/>
         <v>1.4190451695677335</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="11">
         <f t="shared" si="10"/>
         <v>0.91998231970244793</v>
       </c>
@@ -2369,10 +2368,10 @@
       <c r="I19">
         <v>10196381</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="11">
         <v>74</v>
       </c>
-      <c r="K19" s="10">
+      <c r="K19" s="14">
         <f t="shared" si="2"/>
         <v>0.74319444444699911</v>
       </c>
@@ -2424,7 +2423,7 @@
         <f t="shared" si="9"/>
         <v>0.27009466445790831</v>
       </c>
-      <c r="X19" s="13">
+      <c r="X19" s="11">
         <f t="shared" si="10"/>
         <v>0.99147650918999064</v>
       </c>
@@ -2475,10 +2474,10 @@
       <c r="I20">
         <v>12309559</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="11">
         <v>51</v>
       </c>
-      <c r="K20" s="10">
+      <c r="K20" s="14">
         <f t="shared" si="2"/>
         <v>0.74042824074422242</v>
       </c>
@@ -2530,7 +2529,7 @@
         <f t="shared" si="9"/>
         <v>0.48798087020553044</v>
       </c>
-      <c r="X20" s="13">
+      <c r="X20" s="11">
         <f t="shared" si="10"/>
         <v>0.44335438978549579</v>
       </c>
@@ -2581,10 +2580,10 @@
       <c r="I21">
         <v>10139671</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="11">
         <v>38</v>
       </c>
-      <c r="K21" s="10">
+      <c r="K21" s="14">
         <f t="shared" si="2"/>
         <v>0.75825231481576338</v>
       </c>
@@ -2636,7 +2635,7 @@
         <f t="shared" si="9"/>
         <v>0.26424739237389661</v>
       </c>
-      <c r="X21" s="13">
+      <c r="X21" s="11">
         <f t="shared" si="10"/>
         <v>0.13354623533947699</v>
       </c>
@@ -2687,10 +2686,10 @@
       <c r="I22">
         <v>662701</v>
       </c>
-      <c r="J22">
+      <c r="J22" s="11">
         <v>1</v>
       </c>
-      <c r="K22" s="10">
+      <c r="K22" s="14">
         <f t="shared" si="2"/>
         <v>0.70695601851912215</v>
       </c>
@@ -2742,7 +2741,7 @@
         <f t="shared" si="9"/>
         <v>-0.61532387107210618</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X22" s="11">
         <f t="shared" si="10"/>
         <v>-0.71418145981952386</v>
       </c>
@@ -2793,10 +2792,10 @@
       <c r="I23">
         <v>578655</v>
       </c>
-      <c r="J23">
+      <c r="J23" s="11">
         <v>2</v>
       </c>
-      <c r="K23" s="10">
+      <c r="K23" s="14">
         <f t="shared" si="2"/>
         <v>0.75760416666889796</v>
       </c>
@@ -2848,7 +2847,7 @@
         <f t="shared" si="9"/>
         <v>-0.63636552915064171</v>
       </c>
-      <c r="X23" s="13">
+      <c r="X23" s="11">
         <f t="shared" si="10"/>
         <v>-0.65631608813631559</v>
       </c>
@@ -2899,10 +2898,10 @@
       <c r="I24">
         <v>2477109</v>
       </c>
-      <c r="J24">
+      <c r="J24" s="11">
         <v>13</v>
       </c>
-      <c r="K24" s="10">
+      <c r="K24" s="14">
         <f t="shared" si="2"/>
         <v>0.72964120370306773</v>
       </c>
@@ -2954,7 +2953,7 @@
         <f t="shared" si="9"/>
         <v>-0.16107081023685596</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="11">
         <f t="shared" si="10"/>
         <v>-1.9796999621024953E-2</v>
       </c>
@@ -3005,10 +3004,10 @@
       <c r="I25">
         <v>2446737</v>
       </c>
-      <c r="J25">
+      <c r="J25" s="11">
         <v>18</v>
       </c>
-      <c r="K25" s="10">
+      <c r="K25" s="14">
         <f t="shared" si="2"/>
         <v>0.70692129629605915</v>
       </c>
@@ -3060,7 +3059,7 @@
         <f t="shared" si="9"/>
         <v>-0.16867470856826108</v>
       </c>
-      <c r="X25" s="13">
+      <c r="X25" s="11">
         <f t="shared" si="10"/>
         <v>0.26952985879501623</v>
       </c>
@@ -3111,10 +3110,10 @@
       <c r="I26">
         <v>3860212</v>
       </c>
-      <c r="J26">
+      <c r="J26" s="11">
         <v>21</v>
       </c>
-      <c r="K26" s="10">
+      <c r="K26" s="14">
         <f t="shared" si="2"/>
         <v>0.72935185184906004</v>
       </c>
@@ -3166,7 +3165,7 @@
         <f t="shared" si="9"/>
         <v>0.18520123618292245</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X26" s="11">
         <f t="shared" si="10"/>
         <v>0.44312597384464097</v>
       </c>
@@ -3217,10 +3216,10 @@
       <c r="I27">
         <v>5578478</v>
       </c>
-      <c r="J27">
+      <c r="J27" s="11">
         <v>29</v>
       </c>
-      <c r="K27" s="10">
+      <c r="K27" s="14">
         <f t="shared" si="2"/>
         <v>0.72635416666889796</v>
       </c>
@@ -3272,7 +3271,7 @@
         <f t="shared" si="9"/>
         <v>0.61538429855320642</v>
       </c>
-      <c r="X27" s="13">
+      <c r="X27" s="11">
         <f t="shared" si="10"/>
         <v>0.90604894731030694</v>
       </c>
@@ -3323,10 +3322,10 @@
       <c r="I28">
         <v>1126647</v>
       </c>
-      <c r="J28">
+      <c r="J28" s="11">
         <v>18</v>
       </c>
-      <c r="K28" s="10">
+      <c r="K28" s="14">
         <f t="shared" si="2"/>
         <v>0.76167824074218515</v>
       </c>
@@ -3378,7 +3377,7 @@
         <f t="shared" si="9"/>
         <v>-0.49917089414394505</v>
       </c>
-      <c r="X28" s="13">
+      <c r="X28" s="11">
         <f t="shared" si="10"/>
         <v>0.26952985879501623</v>
       </c>
@@ -3429,10 +3428,10 @@
       <c r="I29">
         <v>233753</v>
       </c>
-      <c r="J29">
+      <c r="J29" s="11">
         <v>0</v>
       </c>
-      <c r="K29" s="10">
+      <c r="K29" s="14">
         <f t="shared" si="2"/>
         <v>0.73958333333575865</v>
       </c>
@@ -3484,7 +3483,7 @@
         <f t="shared" si="9"/>
         <v>-0.72271478972940884</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="11">
         <f t="shared" si="10"/>
         <v>-0.77204683150273212</v>
       </c>
@@ -3535,10 +3534,10 @@
       <c r="I30">
         <v>2978744</v>
       </c>
-      <c r="J30">
+      <c r="J30" s="11">
         <v>3</v>
       </c>
-      <c r="K30" s="10">
+      <c r="K30" s="14">
         <f t="shared" si="2"/>
         <v>0.76597222222335404</v>
       </c>
@@ -3590,7 +3589,7 @@
         <f t="shared" si="9"/>
         <v>-3.5482059431033421E-2</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="11">
         <f t="shared" si="10"/>
         <v>-0.59845071645310732</v>
       </c>
@@ -3641,10 +3640,10 @@
       <c r="I31">
         <v>4078743</v>
       </c>
-      <c r="J31">
+      <c r="J31" s="11">
         <v>17</v>
       </c>
-      <c r="K31" s="10">
+      <c r="K31" s="14">
         <f t="shared" si="2"/>
         <v>0.74375000000145519</v>
       </c>
@@ -3696,7 +3695,7 @@
         <f t="shared" si="9"/>
         <v>0.23991240127775668</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="11">
         <f t="shared" si="10"/>
         <v>0.21166448711180802</v>
       </c>
@@ -3747,10 +3746,10 @@
       <c r="I32">
         <v>1407384</v>
       </c>
-      <c r="J32">
+      <c r="J32" s="11">
         <v>11</v>
       </c>
-      <c r="K32" s="10">
+      <c r="K32" s="14">
         <f t="shared" si="2"/>
         <v>0.71875</v>
       </c>
@@ -3802,7 +3801,7 @@
         <f t="shared" si="9"/>
         <v>-0.42888590777940871</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="11">
         <f t="shared" si="10"/>
         <v>-0.13552774298744144</v>
       </c>
@@ -3853,10 +3852,10 @@
       <c r="I33">
         <v>1959983</v>
       </c>
-      <c r="J33">
+      <c r="J33" s="11">
         <v>19</v>
       </c>
-      <c r="K33" s="10">
+      <c r="K33" s="14">
         <f t="shared" si="2"/>
         <v>0.73958333333575865</v>
       </c>
@@ -3908,7 +3907,7 @@
         <f t="shared" si="9"/>
         <v>-0.29053786965099526</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="11">
         <f t="shared" si="10"/>
         <v>0.3273952304782245</v>
       </c>
@@ -3959,10 +3958,10 @@
       <c r="I34">
         <v>1855143</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="11">
         <v>22</v>
       </c>
-      <c r="K34" s="10">
+      <c r="K34" s="14">
         <f t="shared" si="2"/>
         <v>0.74097222222189885</v>
       </c>
@@ -4014,7 +4013,7 @@
         <f t="shared" si="9"/>
         <v>-0.31678548920402166</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X34" s="11">
         <f t="shared" si="10"/>
         <v>0.50099134552784919</v>
       </c>
@@ -4065,10 +4064,10 @@
       <c r="I35">
         <v>11914864</v>
       </c>
-      <c r="J35">
+      <c r="J35" s="11">
         <v>55</v>
       </c>
-      <c r="K35" s="10">
+      <c r="K35" s="14">
         <f t="shared" si="2"/>
         <v>0.75540509259008104</v>
       </c>
@@ -4120,7 +4119,7 @@
         <f t="shared" si="9"/>
         <v>-0.68448289566612697</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X35" s="11">
         <f t="shared" si="10"/>
         <v>-0.66881860626683265</v>
       </c>
@@ -4171,10 +4170,10 @@
       <c r="I36">
         <v>36394247</v>
       </c>
-      <c r="J36">
+      <c r="J36" s="11">
         <v>64</v>
       </c>
-      <c r="K36" s="10">
+      <c r="K36" s="14">
         <f t="shared" ref="K36:K67" si="14">MOD(F36, 1)</f>
         <v>0.74760416666686069</v>
       </c>
@@ -4226,7 +4225,7 @@
         <f t="shared" ref="W36:W67" si="21">STANDARDIZE(O36, O$1, O$2)</f>
         <v>-0.48569936420793086</v>
       </c>
-      <c r="X36" s="13">
+      <c r="X36" s="11">
         <f t="shared" ref="X36:X67" si="22">STANDARDIZE(P36, P$1, P$2)</f>
         <v>-0.65192671486459453</v>
       </c>
@@ -4277,10 +4276,10 @@
       <c r="I37">
         <v>57323472</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="11">
         <v>134</v>
       </c>
-      <c r="K37" s="10">
+      <c r="K37" s="14">
         <f t="shared" si="14"/>
         <v>0.72627314814599231</v>
       </c>
@@ -4332,7 +4331,7 @@
         <f t="shared" si="21"/>
         <v>-0.31574470251636916</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="11">
         <f t="shared" si="22"/>
         <v>-0.52054533729163155</v>
       </c>
@@ -4383,10 +4382,10 @@
       <c r="I38">
         <v>17800991</v>
       </c>
-      <c r="J38">
+      <c r="J38" s="11">
         <v>99</v>
       </c>
-      <c r="K38" s="10">
+      <c r="K38" s="14">
         <f t="shared" si="14"/>
         <v>0.76082175925694173</v>
       </c>
@@ -4438,7 +4437,7 @@
         <f t="shared" si="21"/>
         <v>-0.6366849135163547</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X38" s="11">
         <f t="shared" si="22"/>
         <v>-0.58623602607811298</v>
       </c>
@@ -4489,10 +4488,10 @@
       <c r="I39">
         <v>16674638</v>
       </c>
-      <c r="J39">
+      <c r="J39" s="11">
         <v>112</v>
       </c>
-      <c r="K39" s="10">
+      <c r="K39" s="14">
         <f t="shared" si="14"/>
         <v>0.73724537037196569</v>
       </c>
@@ -4544,7 +4543,7 @@
         <f t="shared" si="21"/>
         <v>-0.6458314033199799</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="11">
         <f t="shared" si="22"/>
         <v>-0.56183662738599138</v>
       </c>
@@ -4595,10 +4594,10 @@
       <c r="I40">
         <v>20977216</v>
       </c>
-      <c r="J40">
+      <c r="J40" s="11">
         <v>83</v>
       </c>
-      <c r="K40" s="10">
+      <c r="K40" s="14">
         <f t="shared" si="14"/>
         <v>0.73878472221986158</v>
       </c>
@@ -4650,7 +4649,7 @@
         <f t="shared" si="21"/>
         <v>-0.61089254684576466</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="11">
         <f t="shared" si="22"/>
         <v>-0.61626605523764744</v>
       </c>
@@ -4701,10 +4700,10 @@
       <c r="I41">
         <v>5276634</v>
       </c>
-      <c r="J41">
+      <c r="J41" s="11">
         <v>44</v>
       </c>
-      <c r="K41" s="10">
+      <c r="K41" s="14">
         <f t="shared" si="14"/>
         <v>0.73263888889050577</v>
       </c>
@@ -4756,7 +4755,7 @@
         <f t="shared" si="21"/>
         <v>-0.73838829034179099</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="11">
         <f t="shared" si="22"/>
         <v>-0.68946425131401257</v>
       </c>
@@ -4807,10 +4806,10 @@
       <c r="I42">
         <v>18651373</v>
       </c>
-      <c r="J42">
+      <c r="J42" s="11">
         <v>51</v>
       </c>
-      <c r="K42" s="10">
+      <c r="K42" s="14">
         <f t="shared" si="14"/>
         <v>0.73333333332993789</v>
       </c>
@@ -4862,7 +4861,7 @@
         <f t="shared" si="21"/>
         <v>-0.6297794315829055</v>
       </c>
-      <c r="X42" s="13">
+      <c r="X42" s="11">
         <f t="shared" si="22"/>
         <v>-0.67632611355671624</v>
       </c>
@@ -4913,10 +4912,10 @@
       <c r="I43">
         <v>14133192</v>
       </c>
-      <c r="J43">
+      <c r="J43" s="11">
         <v>99</v>
       </c>
-      <c r="K43" s="10">
+      <c r="K43" s="14">
         <f t="shared" si="14"/>
         <v>0.70833333333575865</v>
       </c>
@@ -4968,7 +4967,7 @@
         <f t="shared" si="21"/>
         <v>-0.66646908078473899</v>
       </c>
-      <c r="X43" s="13">
+      <c r="X43" s="11">
         <f t="shared" si="22"/>
         <v>-0.58623602607811298</v>
       </c>
@@ -5019,10 +5018,10 @@
       <c r="I44">
         <v>22383865</v>
       </c>
-      <c r="J44">
+      <c r="J44" s="11">
         <v>107</v>
       </c>
-      <c r="K44" s="10">
+      <c r="K44" s="14">
         <f t="shared" si="14"/>
         <v>0.74652777778101154</v>
       </c>
@@ -5074,7 +5073,7 @@
         <f t="shared" si="21"/>
         <v>-0.5994699282388275</v>
       </c>
-      <c r="X44" s="13">
+      <c r="X44" s="11">
         <f t="shared" si="22"/>
         <v>-0.57122101149834581</v>
       </c>
@@ -5125,10 +5124,10 @@
       <c r="I45">
         <v>17160497</v>
       </c>
-      <c r="J45">
+      <c r="J45" s="11">
         <v>81</v>
       </c>
-      <c r="K45" s="10">
+      <c r="K45" s="14">
         <f t="shared" si="14"/>
         <v>0.74236111110803904</v>
       </c>
@@ -5180,7 +5179,7 @@
         <f t="shared" si="21"/>
         <v>-0.64188601107660725</v>
       </c>
-      <c r="X45" s="13">
+      <c r="X45" s="11">
         <f t="shared" si="22"/>
         <v>-0.62001980888258923</v>
       </c>
@@ -5231,10 +5230,10 @@
       <c r="I46">
         <v>34626861</v>
       </c>
-      <c r="J46">
+      <c r="J46" s="11">
         <v>119</v>
       </c>
-      <c r="K46" s="10">
+      <c r="K46" s="14">
         <f t="shared" si="14"/>
         <v>0.75208333333284827</v>
       </c>
@@ -5286,7 +5285,7 @@
         <f t="shared" si="21"/>
         <v>-0.50005132849272405</v>
       </c>
-      <c r="X46" s="13">
+      <c r="X46" s="11">
         <f t="shared" si="22"/>
         <v>-0.54869848962869505</v>
       </c>
@@ -5337,10 +5336,10 @@
       <c r="I47">
         <v>15641992</v>
       </c>
-      <c r="J47">
+      <c r="J47" s="11">
         <v>87</v>
       </c>
-      <c r="K47" s="10">
+      <c r="K47" s="14">
         <f t="shared" si="14"/>
         <v>0.75277777777955635</v>
       </c>
@@ -5392,7 +5391,7 @@
         <f t="shared" si="21"/>
         <v>-0.65421695039958472</v>
       </c>
-      <c r="X47" s="13">
+      <c r="X47" s="11">
         <f t="shared" si="22"/>
         <v>-0.60875854794776385</v>
       </c>
@@ -5443,10 +5442,10 @@
       <c r="I48">
         <v>1051083</v>
       </c>
-      <c r="J48">
+      <c r="J48" s="11">
         <v>5</v>
       </c>
-      <c r="K48" s="10">
+      <c r="K48" s="14">
         <f t="shared" si="14"/>
         <v>0.74171296296117362</v>
       </c>
@@ -5498,7 +5497,7 @@
         <f t="shared" si="21"/>
         <v>-0.62728309394066684</v>
       </c>
-      <c r="X48" s="13">
+      <c r="X48" s="11">
         <f t="shared" si="22"/>
         <v>-0.60277709938269297</v>
       </c>
@@ -5549,10 +5548,10 @@
       <c r="I49">
         <v>1169765</v>
       </c>
-      <c r="J49">
+      <c r="J49" s="11">
         <v>12</v>
       </c>
-      <c r="K49" s="10">
+      <c r="K49" s="14">
         <f t="shared" si="14"/>
         <v>0.73656250000203727</v>
       </c>
@@ -5604,7 +5603,7 @@
         <f t="shared" si="21"/>
         <v>-0.6098995499033445</v>
       </c>
-      <c r="X49" s="13">
+      <c r="X49" s="11">
         <f t="shared" si="22"/>
         <v>-0.36579947441463834</v>
       </c>
@@ -5655,10 +5654,10 @@
       <c r="I50">
         <v>3736873</v>
       </c>
-      <c r="J50">
+      <c r="J50" s="11">
         <v>13</v>
       </c>
-      <c r="K50" s="10">
+      <c r="K50" s="14">
         <f t="shared" si="14"/>
         <v>0.75983796296350192</v>
       </c>
@@ -5710,7 +5709,7 @@
         <f t="shared" si="21"/>
         <v>-0.23389109902989785</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X50" s="11">
         <f t="shared" si="22"/>
         <v>-0.33194552799063048</v>
       </c>
@@ -5761,10 +5760,10 @@
       <c r="I51">
         <v>3061210</v>
       </c>
-      <c r="J51">
+      <c r="J51" s="11">
         <v>20</v>
       </c>
-      <c r="K51" s="10">
+      <c r="K51" s="14">
         <f t="shared" si="14"/>
         <v>0.75325231481838273</v>
       </c>
@@ -5816,7 +5815,7 @@
         <f t="shared" si="21"/>
         <v>-0.33285654884443844</v>
       </c>
-      <c r="X51" s="13">
+      <c r="X51" s="11">
         <f t="shared" si="22"/>
         <v>-9.4967903022575864E-2</v>
       </c>
@@ -5867,10 +5866,10 @@
       <c r="I52">
         <v>1241254</v>
       </c>
-      <c r="J52">
+      <c r="J52" s="11">
         <v>11</v>
       </c>
-      <c r="K52" s="10">
+      <c r="K52" s="14">
         <f t="shared" si="14"/>
         <v>0.70951388889079681</v>
       </c>
@@ -5922,7 +5921,7 @@
         <f t="shared" si="21"/>
         <v>-0.59942844072348456</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X52" s="11">
         <f t="shared" si="22"/>
         <v>-0.39965342083864613</v>
       </c>
@@ -5973,10 +5972,10 @@
       <c r="I53">
         <v>2380535</v>
       </c>
-      <c r="J53">
+      <c r="J53" s="11">
         <v>11</v>
       </c>
-      <c r="K53" s="10">
+      <c r="K53" s="14">
         <f t="shared" si="14"/>
         <v>0.74505787037196569</v>
       </c>
@@ -6028,7 +6027,7 @@
         <f t="shared" si="21"/>
         <v>-0.43255611438600627</v>
       </c>
-      <c r="X53" s="13">
+      <c r="X53" s="11">
         <f t="shared" si="22"/>
         <v>-0.39965342083864613</v>
       </c>
@@ -6079,10 +6078,10 @@
       <c r="I54">
         <v>373205</v>
       </c>
-      <c r="J54">
+      <c r="J54" s="11">
         <v>3</v>
       </c>
-      <c r="K54" s="10">
+      <c r="K54" s="14">
         <f t="shared" si="14"/>
         <v>0.79651620370714227</v>
       </c>
@@ -6134,7 +6133,7 @@
         <f t="shared" si="21"/>
         <v>-0.72657297837918289</v>
       </c>
-      <c r="X54" s="13">
+      <c r="X54" s="11">
         <f t="shared" si="22"/>
         <v>-0.67048499223070868</v>
       </c>
@@ -6185,10 +6184,10 @@
       <c r="I55">
         <v>3111593</v>
       </c>
-      <c r="J55">
+      <c r="J55" s="11">
         <v>9</v>
       </c>
-      <c r="K55" s="10">
+      <c r="K55" s="14">
         <f t="shared" si="14"/>
         <v>0.7278703703705105</v>
       </c>
@@ -6240,7 +6239,7 @@
         <f t="shared" si="21"/>
         <v>0.419904094628478</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="11">
         <f t="shared" si="22"/>
         <v>3.0942094761295634E-2</v>
       </c>
@@ -6291,10 +6290,10 @@
       <c r="I56">
         <v>932906</v>
       </c>
-      <c r="J56">
+      <c r="J56" s="11">
         <v>13</v>
       </c>
-      <c r="K56" s="10">
+      <c r="K56" s="14">
         <f t="shared" si="14"/>
         <v>0.73478009259270038</v>
       </c>
@@ -6346,7 +6345,7 @@
         <f t="shared" si="21"/>
         <v>-0.4211153789983289</v>
       </c>
-      <c r="X56" s="13">
+      <c r="X56" s="11">
         <f t="shared" si="22"/>
         <v>0.38782606198975245</v>
       </c>
@@ -6397,10 +6396,10 @@
       <c r="I57">
         <v>3553195</v>
       </c>
-      <c r="J57">
+      <c r="J57" s="11">
         <v>25</v>
       </c>
-      <c r="K57" s="10">
+      <c r="K57" s="14">
         <f t="shared" si="14"/>
         <v>0.72939814814890269</v>
       </c>
@@ -6452,7 +6451,7 @@
         <f t="shared" si="21"/>
         <v>0.59037184956185984</v>
       </c>
-      <c r="X57" s="13">
+      <c r="X57" s="11">
         <f t="shared" si="22"/>
         <v>1.4584779636751226</v>
       </c>
@@ -6503,10 +6502,10 @@
       <c r="I58">
         <v>5736899</v>
       </c>
-      <c r="J58">
+      <c r="J58" s="11">
         <v>40</v>
       </c>
-      <c r="K58" s="10">
+      <c r="K58" s="14">
         <f t="shared" si="14"/>
         <v>0.70394675926218042</v>
       </c>
@@ -6558,7 +6557,7 @@
         <f t="shared" si="21"/>
         <v>1.4333279917873161</v>
       </c>
-      <c r="X58" s="13">
+      <c r="X58" s="11">
         <f t="shared" si="22"/>
         <v>2.7967928407818357</v>
       </c>
@@ -6609,10 +6608,10 @@
       <c r="I59">
         <v>9061562</v>
       </c>
-      <c r="J59">
+      <c r="J59" s="11">
         <v>64</v>
       </c>
-      <c r="K59" s="10">
+      <c r="K59" s="14">
         <f t="shared" si="14"/>
         <v>0.71223379629373085</v>
       </c>
@@ -6664,7 +6663,7 @@
         <f t="shared" si="21"/>
         <v>2.7167185505259144</v>
       </c>
-      <c r="X59" s="13">
+      <c r="X59" s="11">
         <f t="shared" si="22"/>
         <v>4.9380966441525755</v>
       </c>
@@ -6715,10 +6714,10 @@
       <c r="I60">
         <v>8192859</v>
       </c>
-      <c r="J60">
+      <c r="J60" s="11">
         <v>39</v>
       </c>
-      <c r="K60" s="10">
+      <c r="K60" s="14">
         <f t="shared" si="14"/>
         <v>0.768171296294895</v>
       </c>
@@ -6770,7 +6769,7 @@
         <f t="shared" si="21"/>
         <v>2.3813807347689799</v>
       </c>
-      <c r="X60" s="13">
+      <c r="X60" s="11">
         <f t="shared" si="22"/>
         <v>2.7075718489747209</v>
       </c>
@@ -6821,10 +6820,10 @@
       <c r="I61">
         <v>7342441</v>
       </c>
-      <c r="J61">
+      <c r="J61" s="11">
         <v>31</v>
       </c>
-      <c r="K61" s="10">
+      <c r="K61" s="14">
         <f t="shared" si="14"/>
         <v>0.69965277778101154</v>
       </c>
@@ -6876,7 +6875,7 @@
         <f t="shared" si="21"/>
         <v>2.0531013175223713</v>
       </c>
-      <c r="X61" s="13">
+      <c r="X61" s="11">
         <f t="shared" si="22"/>
         <v>1.9938039145178079</v>
       </c>
@@ -6927,10 +6926,10 @@
       <c r="I62">
         <v>594699</v>
       </c>
-      <c r="J62">
+      <c r="J62" s="11">
         <v>8</v>
       </c>
-      <c r="K62" s="10">
+      <c r="K62" s="14">
         <f t="shared" si="14"/>
         <v>0.72835648147884058</v>
       </c>
@@ -6982,14 +6981,14 @@
         <f t="shared" si="21"/>
         <v>-0.55167046704764555</v>
       </c>
-      <c r="X62" s="13">
+      <c r="X62" s="11">
         <f t="shared" si="22"/>
         <v>-5.8278897045818574E-2</v>
       </c>
       <c r="Y62" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z62" s="12" t="s">
+      <c r="Z62" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AA62" s="4" t="str">
@@ -7033,10 +7032,10 @@
       <c r="I63">
         <v>2713237</v>
       </c>
-      <c r="J63">
+      <c r="J63" s="11">
         <v>20</v>
       </c>
-      <c r="K63" s="10">
+      <c r="K63" s="14">
         <f t="shared" si="14"/>
         <v>0.77359953703853535</v>
       </c>
@@ -7088,14 +7087,14 @@
         <f t="shared" si="21"/>
         <v>0.26613021456398034</v>
       </c>
-      <c r="X63" s="13">
+      <c r="X63" s="11">
         <f t="shared" si="22"/>
         <v>1.0123730046395518</v>
       </c>
       <c r="Y63" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z63" s="12" t="s">
+      <c r="Z63" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AA63" s="4" t="str">
@@ -7139,10 +7138,10 @@
       <c r="I64">
         <v>4745671</v>
       </c>
-      <c r="J64">
+      <c r="J64" s="11">
         <v>29</v>
       </c>
-      <c r="K64" s="10">
+      <c r="K64" s="14">
         <f t="shared" si="14"/>
         <v>0.72319444444292458</v>
       </c>
@@ -7194,7 +7193,7 @@
         <f t="shared" si="21"/>
         <v>1.0506929226818629</v>
       </c>
-      <c r="X64" s="13">
+      <c r="X64" s="11">
         <f t="shared" si="22"/>
         <v>1.8153619309035791</v>
       </c>
@@ -7245,10 +7244,10 @@
       <c r="I65">
         <v>4434956</v>
       </c>
-      <c r="J65">
+      <c r="J65" s="11">
         <v>9</v>
       </c>
-      <c r="K65" s="10">
+      <c r="K65" s="14">
         <f t="shared" si="14"/>
         <v>0.76854166666453239</v>
       </c>
@@ -7300,7 +7299,7 @@
         <f t="shared" si="21"/>
         <v>0.93075033076849811</v>
       </c>
-      <c r="X65" s="13">
+      <c r="X65" s="11">
         <f t="shared" si="22"/>
         <v>3.0942094761295634E-2</v>
       </c>
@@ -7351,10 +7350,10 @@
       <c r="I66">
         <v>6822925</v>
       </c>
-      <c r="J66">
+      <c r="J66" s="11">
         <v>58</v>
       </c>
-      <c r="K66" s="10">
+      <c r="K66" s="14">
         <f t="shared" si="14"/>
         <v>0.74815972222131677</v>
       </c>
@@ -7406,7 +7405,7 @@
         <f t="shared" si="21"/>
         <v>1.8525571031121766</v>
       </c>
-      <c r="X66" s="13">
+      <c r="X66" s="11">
         <f t="shared" si="22"/>
         <v>4.4027706933098907</v>
       </c>
@@ -7457,10 +7456,10 @@
       <c r="I67">
         <v>4028826</v>
       </c>
-      <c r="J67">
+      <c r="J67" s="11">
         <v>36</v>
       </c>
-      <c r="K67" s="10">
+      <c r="K67" s="14">
         <f t="shared" si="14"/>
         <v>0.72545138889108784</v>
       </c>
@@ -7512,7 +7511,7 @@
         <f t="shared" si="21"/>
         <v>0.77397552152602545</v>
       </c>
-      <c r="X67" s="13">
+      <c r="X67" s="11">
         <f t="shared" si="22"/>
         <v>2.4399088735533785</v>
       </c>
@@ -7563,10 +7562,10 @@
       <c r="I68">
         <v>1936309</v>
       </c>
-      <c r="J68">
+      <c r="J68" s="11">
         <v>5</v>
       </c>
-      <c r="K68" s="10">
+      <c r="K68" s="14">
         <f t="shared" ref="K68:K99" si="26">MOD(F68, 1)</f>
         <v>0.71648148148233304</v>
       </c>
@@ -7618,7 +7617,7 @@
         <f t="shared" ref="W68:W99" si="33">STANDARDIZE(O68, O$1, O$2)</f>
         <v>-0.7177500330635278</v>
       </c>
-      <c r="X68" s="13">
+      <c r="X68" s="11">
         <f t="shared" ref="X68:X99" si="34">STANDARDIZE(P68, P$1, P$2)</f>
         <v>-0.73415590820389487</v>
       </c>
@@ -7669,10 +7668,10 @@
       <c r="I69">
         <v>1930630</v>
       </c>
-      <c r="J69">
+      <c r="J69" s="11">
         <v>10</v>
       </c>
-      <c r="K69" s="10">
+      <c r="K69" s="14">
         <f t="shared" si="26"/>
         <v>0.74268518518510973</v>
       </c>
@@ -7724,7 +7723,7 @@
         <f t="shared" si="33"/>
         <v>-0.71793623372331472</v>
       </c>
-      <c r="X69" s="13">
+      <c r="X69" s="11">
         <f t="shared" si="34"/>
         <v>-0.69626498490505773</v>
       </c>
@@ -7775,10 +7774,10 @@
       <c r="I70">
         <v>8676720</v>
       </c>
-      <c r="J70">
+      <c r="J70" s="11">
         <v>12</v>
       </c>
-      <c r="K70" s="10">
+      <c r="K70" s="14">
         <f t="shared" si="26"/>
         <v>0.71901620370044839</v>
       </c>
@@ -7830,7 +7829,7 @@
         <f t="shared" si="33"/>
         <v>-0.4967482765156826</v>
       </c>
-      <c r="X70" s="13">
+      <c r="X70" s="11">
         <f t="shared" si="34"/>
         <v>-0.68110861558552283</v>
       </c>
@@ -7881,10 +7880,10 @@
       <c r="I71">
         <v>8185081</v>
       </c>
-      <c r="J71">
+      <c r="J71" s="11">
         <v>25</v>
       </c>
-      <c r="K71" s="10">
+      <c r="K71" s="14">
         <f t="shared" si="26"/>
         <v>0.75474537037371192</v>
       </c>
@@ -7936,7 +7935,7 @@
         <f t="shared" si="33"/>
         <v>-0.51286792895044153</v>
       </c>
-      <c r="X71" s="13">
+      <c r="X71" s="11">
         <f t="shared" si="34"/>
         <v>-0.58259221500854608</v>
       </c>
@@ -7987,10 +7986,10 @@
       <c r="I72">
         <v>2336647</v>
       </c>
-      <c r="J72">
+      <c r="J72" s="11">
         <v>11</v>
       </c>
-      <c r="K72" s="10">
+      <c r="K72" s="14">
         <f t="shared" si="26"/>
         <v>0.74584490740380716</v>
       </c>
@@ -8042,7 +8041,7 @@
         <f t="shared" si="33"/>
         <v>-0.70462391935727875</v>
       </c>
-      <c r="X72" s="13">
+      <c r="X72" s="11">
         <f t="shared" si="34"/>
         <v>-0.68868680024529016</v>
       </c>
@@ -8093,10 +8092,10 @@
       <c r="I73">
         <v>2048015</v>
       </c>
-      <c r="J73">
+      <c r="J73" s="11">
         <v>10</v>
       </c>
-      <c r="K73" s="10">
+      <c r="K73" s="14">
         <f t="shared" si="26"/>
         <v>0.75703703703766223</v>
       </c>
@@ -8148,7 +8147,7 @@
         <f t="shared" si="33"/>
         <v>-0.71408746379038801</v>
       </c>
-      <c r="X73" s="13">
+      <c r="X73" s="11">
         <f t="shared" si="34"/>
         <v>-0.69626498490505773</v>
       </c>
@@ -8199,10 +8198,10 @@
       <c r="I74">
         <v>913879</v>
       </c>
-      <c r="J74">
+      <c r="J74" s="11">
         <v>3</v>
       </c>
-      <c r="K74" s="10">
+      <c r="K74" s="14">
         <f t="shared" si="26"/>
         <v>0.74236111110803904</v>
       </c>
@@ -8254,7 +8253,7 @@
         <f t="shared" si="33"/>
         <v>-0.75127303721671856</v>
       </c>
-      <c r="X74" s="13">
+      <c r="X74" s="11">
         <f t="shared" si="34"/>
         <v>-0.74931227752342977</v>
       </c>
@@ -8305,10 +8304,10 @@
       <c r="I75">
         <v>1100498</v>
       </c>
-      <c r="J75">
+      <c r="J75" s="11">
         <v>6</v>
       </c>
-      <c r="K75" s="10">
+      <c r="K75" s="14">
         <f t="shared" si="26"/>
         <v>0.72291666666569654</v>
       </c>
@@ -8360,7 +8359,7 @@
         <f t="shared" si="33"/>
         <v>-0.74515425205581343</v>
       </c>
-      <c r="X75" s="13">
+      <c r="X75" s="11">
         <f t="shared" si="34"/>
         <v>-0.72657772354412753</v>
       </c>
@@ -8411,10 +8410,10 @@
       <c r="I76">
         <v>4077966</v>
       </c>
-      <c r="J76">
+      <c r="J76" s="11">
         <v>14</v>
       </c>
-      <c r="K76" s="10">
+      <c r="K76" s="14">
         <f t="shared" si="26"/>
         <v>0.73958333333575865</v>
       </c>
@@ -8466,7 +8465,7 @@
         <f t="shared" si="33"/>
         <v>-0.64753028549576241</v>
       </c>
-      <c r="X76" s="13">
+      <c r="X76" s="11">
         <f t="shared" si="34"/>
         <v>-0.66595224626598792</v>
       </c>
@@ -8517,10 +8516,10 @@
       <c r="I77">
         <v>11336102</v>
       </c>
-      <c r="J77">
+      <c r="J77" s="11">
         <v>45</v>
       </c>
-      <c r="K77" s="10">
+      <c r="K77" s="14">
         <f t="shared" si="26"/>
         <v>0.75347222221898846</v>
       </c>
@@ -8572,7 +8571,7 @@
         <f t="shared" si="33"/>
         <v>-0.40955357973358397</v>
       </c>
-      <c r="X77" s="13">
+      <c r="X77" s="11">
         <f t="shared" si="34"/>
         <v>-0.43102852181319729</v>
       </c>
@@ -8623,10 +8622,10 @@
       <c r="I78">
         <v>10820240</v>
       </c>
-      <c r="J78">
+      <c r="J78" s="11">
         <v>36</v>
       </c>
-      <c r="K78" s="10">
+      <c r="K78" s="14">
         <f t="shared" si="26"/>
         <v>0.75972222222480923</v>
       </c>
@@ -8678,7 +8677,7 @@
         <f t="shared" si="33"/>
         <v>-0.42646744568868444</v>
       </c>
-      <c r="X78" s="13">
+      <c r="X78" s="11">
         <f t="shared" si="34"/>
         <v>-0.49923218375110429</v>
       </c>
@@ -8729,10 +8728,10 @@
       <c r="I79">
         <v>9479257</v>
       </c>
-      <c r="J79">
+      <c r="J79" s="11">
         <v>69</v>
       </c>
-      <c r="K79" s="10">
+      <c r="K79" s="14">
         <f t="shared" si="26"/>
         <v>0.78125</v>
       </c>
@@ -8784,7 +8783,7 @@
         <f t="shared" si="33"/>
         <v>-0.47043503141910942</v>
       </c>
-      <c r="X79" s="13">
+      <c r="X79" s="11">
         <f t="shared" si="34"/>
         <v>-0.24915208997877875</v>
       </c>
@@ -8835,10 +8834,10 @@
       <c r="I80">
         <v>5138084</v>
       </c>
-      <c r="J80">
+      <c r="J80" s="11">
         <v>30</v>
       </c>
-      <c r="K80" s="10">
+      <c r="K80" s="14">
         <f t="shared" si="26"/>
         <v>0.75069444444670808</v>
       </c>
@@ -8890,7 +8889,7 @@
         <f t="shared" si="33"/>
         <v>-0.61277158307420554</v>
       </c>
-      <c r="X80" s="13">
+      <c r="X80" s="11">
         <f t="shared" si="34"/>
         <v>-0.54470129170970893</v>
       </c>
@@ -8941,10 +8940,10 @@
       <c r="I81">
         <v>5388987</v>
       </c>
-      <c r="J81">
+      <c r="J81" s="11">
         <v>8</v>
       </c>
-      <c r="K81" s="10">
+      <c r="K81" s="14">
         <f t="shared" si="26"/>
         <v>0.74082175926014315</v>
       </c>
@@ -8996,7 +8995,7 @@
         <f t="shared" si="33"/>
         <v>-0.67935670283270944</v>
       </c>
-      <c r="X81" s="13">
+      <c r="X81" s="11">
         <f t="shared" si="34"/>
         <v>-0.73709028368735119</v>
       </c>
@@ -9047,10 +9046,10 @@
       <c r="I82">
         <v>1730906</v>
       </c>
-      <c r="J82">
+      <c r="J82" s="11">
         <v>16</v>
       </c>
-      <c r="K82" s="10">
+      <c r="K82" s="14">
         <f t="shared" si="26"/>
         <v>0.74998842592322035</v>
       </c>
@@ -9102,7 +9101,7 @@
         <f t="shared" si="33"/>
         <v>-0.74851368454075284</v>
       </c>
-      <c r="X82" s="13">
+      <c r="X82" s="11">
         <f t="shared" si="34"/>
         <v>-0.70213373587197048</v>
       </c>
@@ -9153,10 +9152,10 @@
       <c r="I83">
         <v>10033166</v>
       </c>
-      <c r="J83">
+      <c r="J83" s="11">
         <v>48</v>
       </c>
-      <c r="K83" s="10">
+      <c r="K83" s="14">
         <f t="shared" si="26"/>
         <v>0.74407407407124992</v>
       </c>
@@ -9208,7 +9207,7 @@
         <f t="shared" si="33"/>
         <v>-0.59155727954167825</v>
       </c>
-      <c r="X83" s="13">
+      <c r="X83" s="11">
         <f t="shared" si="34"/>
         <v>-0.56230754461044719</v>
       </c>
@@ -9259,10 +9258,10 @@
       <c r="I84">
         <v>16320737</v>
       </c>
-      <c r="J84">
+      <c r="J84" s="11">
         <v>61</v>
       </c>
-      <c r="K84" s="10">
+      <c r="K84" s="14">
         <f t="shared" si="26"/>
         <v>0.72938657407212304</v>
       </c>
@@ -9314,7 +9313,7 @@
         <f t="shared" si="33"/>
         <v>-0.47268909902981321</v>
       </c>
-      <c r="X84" s="13">
+      <c r="X84" s="11">
         <f t="shared" si="34"/>
         <v>-0.50550315441045346</v>
       </c>
@@ -9365,10 +9364,10 @@
       <c r="I85">
         <v>21426368</v>
       </c>
-      <c r="J85">
+      <c r="J85" s="11">
         <v>56</v>
       </c>
-      <c r="K85" s="10">
+      <c r="K85" s="14">
         <f t="shared" si="26"/>
         <v>0.72681712963094469</v>
       </c>
@@ -9420,7 +9419,7 @@
         <f t="shared" si="33"/>
         <v>-0.37616580452785464</v>
       </c>
-      <c r="X85" s="13">
+      <c r="X85" s="11">
         <f t="shared" si="34"/>
         <v>-0.52735099679506647</v>
       </c>
@@ -9471,10 +9470,10 @@
       <c r="I86">
         <v>18230009</v>
       </c>
-      <c r="J86">
+      <c r="J86" s="11">
         <v>68</v>
       </c>
-      <c r="K86" s="10">
+      <c r="K86" s="14">
         <f t="shared" si="26"/>
         <v>0.72381944444350665</v>
       </c>
@@ -9526,7 +9525,7 @@
         <f t="shared" si="33"/>
         <v>-0.43659381060408414</v>
       </c>
-      <c r="X86" s="13">
+      <c r="X86" s="11">
         <f t="shared" si="34"/>
         <v>-0.47491617507199518</v>
       </c>
@@ -9577,10 +9576,10 @@
       <c r="I87">
         <v>28632901</v>
       </c>
-      <c r="J87">
+      <c r="J87" s="11">
         <v>41</v>
       </c>
-      <c r="K87" s="10">
+      <c r="K87" s="14">
         <f t="shared" si="26"/>
         <v>0.73435185185371665</v>
       </c>
@@ -9632,7 +9631,7 @@
         <f t="shared" si="33"/>
         <v>-0.23992440613907906</v>
       </c>
-      <c r="X87" s="13">
+      <c r="X87" s="11">
         <f t="shared" si="34"/>
         <v>-0.59289452394890552</v>
       </c>
@@ -9683,10 +9682,10 @@
       <c r="I88">
         <v>2382266</v>
       </c>
-      <c r="J88">
+      <c r="J88" s="11">
         <v>11</v>
       </c>
-      <c r="K88" s="10">
+      <c r="K88" s="14">
         <f t="shared" si="26"/>
         <v>0.73402777777664596</v>
       </c>
@@ -9738,14 +9737,14 @@
         <f t="shared" si="33"/>
         <v>-0.73619955273083637</v>
       </c>
-      <c r="X88" s="13">
+      <c r="X88" s="11">
         <f t="shared" si="34"/>
         <v>-0.72398157825658349</v>
       </c>
       <c r="Y88" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z88" s="12" t="s">
+      <c r="Z88" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AA88" s="4" t="str">
@@ -9789,10 +9788,10 @@
       <c r="I89">
         <v>2926112</v>
       </c>
-      <c r="J89">
+      <c r="J89" s="11">
         <v>27</v>
       </c>
-      <c r="K89" s="10">
+      <c r="K89" s="14">
         <f t="shared" si="26"/>
         <v>0.70763888888905058</v>
       </c>
@@ -9844,14 +9843,14 @@
         <f t="shared" si="33"/>
         <v>-0.72591800131795292</v>
       </c>
-      <c r="X89" s="13">
+      <c r="X89" s="11">
         <f t="shared" si="34"/>
         <v>-0.65406848262582196</v>
       </c>
       <c r="Y89" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z89" s="12" t="s">
+      <c r="Z89" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AA89" s="4" t="str">
@@ -9895,10 +9894,10 @@
       <c r="I90">
         <v>16890622</v>
       </c>
-      <c r="J90">
+      <c r="J90" s="11">
         <v>54</v>
       </c>
-      <c r="K90" s="10">
+      <c r="K90" s="14">
         <f t="shared" si="26"/>
         <v>0.72499999999854481</v>
       </c>
@@ -9950,14 +9949,14 @@
         <f t="shared" si="33"/>
         <v>-0.46191527348557615</v>
       </c>
-      <c r="X90" s="13">
+      <c r="X90" s="11">
         <f t="shared" si="34"/>
         <v>-0.53609013374891157</v>
       </c>
       <c r="Y90" s="8">
         <v>83.79</v>
       </c>
-      <c r="Z90" s="12">
+      <c r="Z90" s="10">
         <v>83.87</v>
       </c>
       <c r="AA90" s="4">
@@ -10001,10 +10000,10 @@
       <c r="I91">
         <v>12224187</v>
       </c>
-      <c r="J91">
+      <c r="J91" s="11">
         <v>49</v>
       </c>
-      <c r="K91" s="10">
+      <c r="K91" s="14">
         <f t="shared" si="26"/>
         <v>0.7381944444423425</v>
       </c>
@@ -10056,7 +10055,7 @@
         <f t="shared" si="33"/>
         <v>-0.55013545229976135</v>
       </c>
-      <c r="X91" s="13">
+      <c r="X91" s="11">
         <f t="shared" si="34"/>
         <v>-0.55793797613352469</v>
       </c>
@@ -10107,10 +10106,10 @@
       <c r="I92">
         <v>10942134</v>
       </c>
-      <c r="J92">
+      <c r="J92" s="11">
         <v>69</v>
       </c>
-      <c r="K92" s="10">
+      <c r="K92" s="14">
         <f t="shared" si="26"/>
         <v>0.72777777777810115</v>
       </c>
@@ -10162,14 +10161,14 @@
         <f t="shared" si="33"/>
         <v>-0.57437300085862097</v>
       </c>
-      <c r="X92" s="13">
+      <c r="X92" s="11">
         <f t="shared" si="34"/>
         <v>-0.47054660659507264</v>
       </c>
-      <c r="Y92" s="14">
+      <c r="Y92" s="12">
         <v>84.14</v>
       </c>
-      <c r="Z92" s="12">
+      <c r="Z92" s="10">
         <v>84.56</v>
       </c>
       <c r="AA92" s="4">
@@ -10213,10 +10212,10 @@
       <c r="I93">
         <v>15655615</v>
       </c>
-      <c r="J93">
+      <c r="J93" s="11">
         <v>62</v>
       </c>
-      <c r="K93" s="10">
+      <c r="K93" s="14">
         <f t="shared" si="26"/>
         <v>0.73750000000291038</v>
       </c>
@@ -10268,14 +10267,14 @@
         <f t="shared" si="33"/>
         <v>-0.48526340506284454</v>
       </c>
-      <c r="X93" s="13">
+      <c r="X93" s="11">
         <f t="shared" si="34"/>
         <v>-0.50113358593353086</v>
       </c>
       <c r="Y93" s="8">
         <v>84.77</v>
       </c>
-      <c r="Z93" s="12">
+      <c r="Z93" s="10">
         <v>84.27</v>
       </c>
       <c r="AA93" s="4">
@@ -10319,10 +10318,10 @@
       <c r="I94">
         <v>24069567</v>
       </c>
-      <c r="J94">
+      <c r="J94" s="11">
         <v>81</v>
       </c>
-      <c r="K94" s="10">
+      <c r="K94" s="14">
         <f t="shared" si="26"/>
         <v>0.75972222222480923</v>
       </c>
@@ -10374,7 +10373,7 @@
         <f t="shared" si="33"/>
         <v>-0.32619543347983287</v>
       </c>
-      <c r="X94" s="13">
+      <c r="X94" s="11">
         <f t="shared" si="34"/>
         <v>-0.4181117848720014</v>
       </c>
@@ -10425,10 +10424,10 @@
       <c r="I95">
         <v>209299</v>
       </c>
-      <c r="J95">
+      <c r="J95" s="11">
         <v>1</v>
       </c>
-      <c r="K95" s="10">
+      <c r="K95" s="14">
         <f t="shared" si="26"/>
         <v>0.804618055553874</v>
       </c>
@@ -10480,14 +10479,14 @@
         <f t="shared" si="33"/>
         <v>-0.73390313971050392</v>
       </c>
-      <c r="X95" s="13">
+      <c r="X95" s="11">
         <f t="shared" si="34"/>
         <v>-0.71977594741371564</v>
       </c>
       <c r="Y95" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z95" s="12" t="s">
+      <c r="Z95" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AA95" s="4" t="str">
@@ -10531,10 +10530,10 @@
       <c r="I96">
         <v>2530128</v>
       </c>
-      <c r="J96">
+      <c r="J96" s="11">
         <v>10</v>
       </c>
-      <c r="K96" s="10">
+      <c r="K96" s="14">
         <f t="shared" si="26"/>
         <v>0.72101851851766696</v>
       </c>
@@ -10586,14 +10585,14 @@
         <f t="shared" si="33"/>
         <v>-0.20903869793612251</v>
       </c>
-      <c r="X96" s="13">
+      <c r="X96" s="11">
         <f t="shared" si="34"/>
         <v>-0.24933799061256814</v>
       </c>
       <c r="Y96" s="8">
         <v>49</v>
       </c>
-      <c r="Z96" s="12">
+      <c r="Z96" s="10">
         <v>48.94</v>
       </c>
       <c r="AA96" s="4">
@@ -10637,10 +10636,10 @@
       <c r="I97">
         <v>2564042</v>
       </c>
-      <c r="J97">
+      <c r="J97" s="11">
         <v>10</v>
       </c>
-      <c r="K97" s="10">
+      <c r="K97" s="14">
         <f t="shared" si="26"/>
         <v>0.76193287037312984</v>
       </c>
@@ -10692,7 +10691,7 @@
         <f t="shared" si="33"/>
         <v>-0.20136891585466093</v>
       </c>
-      <c r="X97" s="13">
+      <c r="X97" s="11">
         <f t="shared" si="34"/>
         <v>-0.24933799061256814</v>
       </c>
@@ -10743,10 +10742,10 @@
       <c r="I98">
         <v>1564770</v>
       </c>
-      <c r="J98">
+      <c r="J98" s="11">
         <v>8</v>
       </c>
-      <c r="K98" s="10">
+      <c r="K98" s="14">
         <f t="shared" si="26"/>
         <v>0.72400462962832535</v>
       </c>
@@ -10798,14 +10797,14 @@
         <f t="shared" si="33"/>
         <v>-0.42735813800793881</v>
       </c>
-      <c r="X98" s="13">
+      <c r="X98" s="11">
         <f t="shared" si="34"/>
         <v>-0.35387975879060096</v>
       </c>
       <c r="Y98" s="8">
         <v>48.88</v>
       </c>
-      <c r="Z98" s="12">
+      <c r="Z98" s="10">
         <v>48.82</v>
       </c>
       <c r="AA98" s="4">
@@ -10849,10 +10848,10 @@
       <c r="I99">
         <v>2212768</v>
       </c>
-      <c r="J99">
+      <c r="J99" s="11">
         <v>10</v>
       </c>
-      <c r="K99" s="10">
+      <c r="K99" s="14">
         <f t="shared" si="26"/>
         <v>0.731863425928168</v>
       </c>
@@ -10904,14 +10903,14 @@
         <f t="shared" si="33"/>
         <v>-0.28081088763278594</v>
       </c>
-      <c r="X99" s="13">
+      <c r="X99" s="11">
         <f t="shared" si="34"/>
         <v>-0.24933799061256814</v>
       </c>
       <c r="Y99" s="8">
         <v>49.32</v>
       </c>
-      <c r="Z99" s="12">
+      <c r="Z99" s="10">
         <v>49.2</v>
       </c>
       <c r="AA99" s="4">
@@ -10955,10 +10954,10 @@
       <c r="I100">
         <v>828298</v>
       </c>
-      <c r="J100">
+      <c r="J100" s="11">
         <v>8</v>
       </c>
-      <c r="K100" s="10">
+      <c r="K100" s="14">
         <f t="shared" ref="K100:K116" si="38">MOD(F100, 1)</f>
         <v>0.70518518518656492</v>
       </c>
@@ -11010,7 +11009,7 @@
         <f t="shared" ref="W100:W116" si="45">STANDARDIZE(O100, O$1, O$2)</f>
         <v>-0.593914125184272</v>
       </c>
-      <c r="X100" s="13">
+      <c r="X100" s="11">
         <f t="shared" ref="X100:X116" si="46">STANDARDIZE(P100, P$1, P$2)</f>
         <v>-0.35387975879060096</v>
       </c>
@@ -11061,10 +11060,10 @@
       <c r="I101">
         <v>1126288</v>
       </c>
-      <c r="J101">
+      <c r="J101" s="11">
         <v>2</v>
       </c>
-      <c r="K101" s="10">
+      <c r="K101" s="14">
         <f t="shared" si="38"/>
         <v>0.68611111111385981</v>
       </c>
@@ -11116,14 +11115,14 @@
         <f t="shared" si="45"/>
         <v>-0.52652253579774333</v>
       </c>
-      <c r="X101" s="13">
+      <c r="X101" s="11">
         <f t="shared" si="46"/>
         <v>-0.66750506332469928</v>
       </c>
       <c r="Y101" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z101" s="12" t="s">
+      <c r="Z101" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AA101" s="4" t="str">
@@ -11167,10 +11166,10 @@
       <c r="I102">
         <v>1164567</v>
       </c>
-      <c r="J102">
+      <c r="J102" s="11">
         <v>13</v>
       </c>
-      <c r="K102" s="10">
+      <c r="K102" s="14">
         <f t="shared" si="38"/>
         <v>0.74305555555474712</v>
       </c>
@@ -11222,14 +11221,14 @@
         <f t="shared" si="45"/>
         <v>-0.51786559210793182</v>
       </c>
-      <c r="X102" s="13">
+      <c r="X102" s="11">
         <f t="shared" si="46"/>
         <v>-9.2525338345518945E-2</v>
       </c>
       <c r="Y102" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Z102" s="12" t="s">
+      <c r="Z102" s="10" t="s">
         <v>16</v>
       </c>
       <c r="AA102" s="4" t="str">
@@ -11273,10 +11272,10 @@
       <c r="I103">
         <v>903368</v>
       </c>
-      <c r="J103">
+      <c r="J103" s="11">
         <v>9</v>
       </c>
-      <c r="K103" s="10">
+      <c r="K103" s="14">
         <f t="shared" si="38"/>
         <v>0.70833333333575865</v>
       </c>
@@ -11328,7 +11327,7 @@
         <f t="shared" si="45"/>
         <v>-0.57693675475155037</v>
       </c>
-      <c r="X103" s="13">
+      <c r="X103" s="11">
         <f t="shared" si="46"/>
         <v>-0.30160887470158454</v>
       </c>
@@ -11379,10 +11378,10 @@
       <c r="I104">
         <v>9615</v>
       </c>
-      <c r="J104">
+      <c r="J104" s="11">
         <v>0</v>
       </c>
-      <c r="K104" s="10">
+      <c r="K104" s="14">
         <f t="shared" si="38"/>
         <v>0.65906250000261934</v>
       </c>
@@ -11434,7 +11433,7 @@
         <f t="shared" si="45"/>
         <v>-0.77350918724823381</v>
       </c>
-      <c r="X104" s="13">
+      <c r="X104" s="11">
         <f t="shared" si="46"/>
         <v>-0.77204683150273212</v>
       </c>
@@ -11485,10 +11484,10 @@
       <c r="I105">
         <v>43451</v>
       </c>
-      <c r="J105">
+      <c r="J105" s="11">
         <v>2</v>
       </c>
-      <c r="K105" s="10">
+      <c r="K105" s="14">
         <f t="shared" si="38"/>
         <v>0.68641203703737119</v>
       </c>
@@ -11540,7 +11539,7 @@
         <f t="shared" si="45"/>
         <v>-0.74631465154778565</v>
       </c>
-      <c r="X105" s="13">
+      <c r="X105" s="11">
         <f t="shared" si="46"/>
         <v>-0.40052147074695404</v>
       </c>
@@ -11591,10 +11590,10 @@
       <c r="I106">
         <v>76243</v>
       </c>
-      <c r="J106">
+      <c r="J106" s="11">
         <v>0</v>
       </c>
-      <c r="K106" s="10">
+      <c r="K106" s="14">
         <f t="shared" si="38"/>
         <v>0.76329861111298669</v>
       </c>
@@ -11646,7 +11645,7 @@
         <f t="shared" si="45"/>
         <v>-0.71995919538603181</v>
       </c>
-      <c r="X106" s="13">
+      <c r="X106" s="11">
         <f t="shared" si="46"/>
         <v>-0.77204683150273212</v>
       </c>
@@ -11697,10 +11696,10 @@
       <c r="I107">
         <v>215825</v>
       </c>
-      <c r="J107">
+      <c r="J107" s="11">
         <v>1</v>
       </c>
-      <c r="K107" s="10">
+      <c r="K107" s="14">
         <f t="shared" si="38"/>
         <v>0.70768518518161727</v>
       </c>
@@ -11752,7 +11751,7 @@
         <f t="shared" si="45"/>
         <v>-0.60777490403540047</v>
       </c>
-      <c r="X107" s="13">
+      <c r="X107" s="11">
         <f t="shared" si="46"/>
         <v>-0.58628415112484311</v>
       </c>
@@ -11803,10 +11802,10 @@
       <c r="I108">
         <v>274476</v>
       </c>
-      <c r="J108">
+      <c r="J108" s="11">
         <v>2</v>
       </c>
-      <c r="K108" s="10">
+      <c r="K108" s="14">
         <f t="shared" si="38"/>
         <v>0.69630787037021946</v>
       </c>
@@ -11858,7 +11857,7 @@
         <f t="shared" si="45"/>
         <v>-0.56063615497029262</v>
       </c>
-      <c r="X108" s="13">
+      <c r="X108" s="11">
         <f t="shared" si="46"/>
         <v>-0.40052147074695404</v>
       </c>
@@ -11909,10 +11908,10 @@
       <c r="I109">
         <v>82166</v>
       </c>
-      <c r="J109">
+      <c r="J109" s="11">
         <v>5</v>
       </c>
-      <c r="K109" s="10">
+      <c r="K109" s="14">
         <f t="shared" si="38"/>
         <v>0.71604166666656965</v>
       </c>
@@ -11964,7 +11963,7 @@
         <f t="shared" si="45"/>
         <v>-0.71519878532119696</v>
       </c>
-      <c r="X109" s="13">
+      <c r="X109" s="11">
         <f t="shared" si="46"/>
         <v>0.15676657038671302</v>
       </c>
@@ -12015,10 +12014,10 @@
       <c r="I110">
         <v>511258</v>
       </c>
-      <c r="J110">
+      <c r="J110" s="11">
         <v>1</v>
       </c>
-      <c r="K110" s="10">
+      <c r="K110" s="14">
         <f t="shared" si="38"/>
         <v>0.68680555555329192</v>
       </c>
@@ -12070,7 +12069,7 @@
         <f t="shared" si="45"/>
         <v>-0.37033066518948132</v>
       </c>
-      <c r="X110" s="13">
+      <c r="X110" s="11">
         <f t="shared" si="46"/>
         <v>-0.58628415112484311</v>
       </c>
@@ -12121,10 +12120,10 @@
       <c r="I111">
         <v>54216</v>
       </c>
-      <c r="J111">
+      <c r="J111" s="11">
         <v>0</v>
       </c>
-      <c r="K111" s="10">
+      <c r="K111" s="14">
         <f t="shared" si="38"/>
         <v>0.72361111111240461</v>
       </c>
@@ -12176,7 +12175,7 @@
         <f t="shared" si="45"/>
         <v>-0.7376626484500397</v>
       </c>
-      <c r="X111" s="13">
+      <c r="X111" s="11">
         <f t="shared" si="46"/>
         <v>-0.77204683150273212</v>
       </c>
@@ -12227,10 +12226,10 @@
       <c r="I112">
         <v>3708280</v>
       </c>
-      <c r="J112">
+      <c r="J112" s="11">
         <v>2</v>
       </c>
-      <c r="K112" s="10">
+      <c r="K112" s="14">
         <f t="shared" si="38"/>
         <v>0.75</v>
       </c>
@@ -12282,7 +12281,7 @@
         <f t="shared" si="45"/>
         <v>2.1991671748069237</v>
       </c>
-      <c r="X112" s="13">
+      <c r="X112" s="11">
         <f t="shared" si="46"/>
         <v>-0.40052147074695404</v>
       </c>
@@ -12333,10 +12332,10 @@
       <c r="I113">
         <v>577345</v>
       </c>
-      <c r="J113">
+      <c r="J113" s="11">
         <v>7</v>
       </c>
-      <c r="K113" s="10">
+      <c r="K113" s="14">
         <f t="shared" si="38"/>
         <v>0.77847222222044365</v>
       </c>
@@ -12388,7 +12387,7 @@
         <f t="shared" si="45"/>
         <v>-0.31721548370125807</v>
       </c>
-      <c r="X113" s="13">
+      <c r="X113" s="11">
         <f t="shared" si="46"/>
         <v>0.52829193114249096</v>
       </c>
@@ -12439,10 +12438,10 @@
       <c r="I114">
         <v>55167</v>
       </c>
-      <c r="J114">
+      <c r="J114" s="11">
         <v>0</v>
       </c>
-      <c r="K114" s="10">
+      <c r="K114" s="14">
         <f t="shared" si="38"/>
         <v>0.77777777778101154</v>
       </c>
@@ -12494,7 +12493,7 @@
         <f t="shared" si="45"/>
         <v>-0.73689831450243581</v>
       </c>
-      <c r="X114" s="13">
+      <c r="X114" s="11">
         <f t="shared" si="46"/>
         <v>-0.77204683150273212</v>
       </c>
@@ -12545,10 +12544,10 @@
       <c r="I115">
         <v>56512</v>
       </c>
-      <c r="J115">
+      <c r="J115" s="11">
         <v>0</v>
       </c>
-      <c r="K115" s="10">
+      <c r="K115" s="14">
         <f t="shared" si="38"/>
         <v>0.80902777778101154</v>
       </c>
@@ -12600,7 +12599,7 @@
         <f t="shared" si="45"/>
         <v>-0.7358173164377384</v>
       </c>
-      <c r="X115" s="13">
+      <c r="X115" s="11">
         <f t="shared" si="46"/>
         <v>-0.77204683150273212</v>
       </c>
@@ -12651,10 +12650,10 @@
       <c r="I116">
         <v>195108</v>
       </c>
-      <c r="J116">
+      <c r="J116" s="11">
         <v>2</v>
       </c>
-      <c r="K116" s="10">
+      <c r="K116" s="14">
         <f t="shared" si="38"/>
         <v>0.73472222222335404</v>
       </c>
@@ -12706,7 +12705,7 @@
         <f t="shared" si="45"/>
         <v>-0.62442548909587414</v>
       </c>
-      <c r="X116" s="13">
+      <c r="X116" s="11">
         <f t="shared" si="46"/>
         <v>-0.40052147074695404</v>
       </c>
@@ -12757,7 +12756,7 @@
       <c r="I117">
         <v>21224304</v>
       </c>
-      <c r="J117">
+      <c r="J117" s="11">
         <v>98</v>
       </c>
       <c r="K117"/>
@@ -12793,7 +12792,7 @@
       <c r="I118">
         <v>15768176</v>
       </c>
-      <c r="J118">
+      <c r="J118" s="11">
         <v>67</v>
       </c>
       <c r="K118"/>
@@ -12829,7 +12828,7 @@
       <c r="I119">
         <v>9184086</v>
       </c>
-      <c r="J119">
+      <c r="J119" s="11">
         <v>36</v>
       </c>
       <c r="K119"/>
@@ -12865,7 +12864,7 @@
       <c r="I120">
         <v>1067810</v>
       </c>
-      <c r="J120">
+      <c r="J120" s="11">
         <v>12</v>
       </c>
       <c r="K120"/>
@@ -12901,7 +12900,7 @@
       <c r="I121">
         <v>6691159</v>
       </c>
-      <c r="J121">
+      <c r="J121" s="11">
         <v>15</v>
       </c>
       <c r="K121"/>
@@ -12937,7 +12936,7 @@
       <c r="I122">
         <v>609992</v>
       </c>
-      <c r="J122">
+      <c r="J122" s="11">
         <v>1</v>
       </c>
       <c r="K122"/>
@@ -12973,7 +12972,7 @@
       <c r="I123">
         <v>2299905</v>
       </c>
-      <c r="J123">
+      <c r="J123" s="11">
         <v>12</v>
       </c>
       <c r="K123"/>
@@ -13009,7 +13008,7 @@
       <c r="I124">
         <v>2116230</v>
       </c>
-      <c r="J124">
+      <c r="J124" s="11">
         <v>6</v>
       </c>
       <c r="AA124"/>
@@ -13042,7 +13041,7 @@
       <c r="I125">
         <v>632310</v>
       </c>
-      <c r="J125">
+      <c r="J125" s="11">
         <v>5</v>
       </c>
       <c r="AA125"/>
@@ -13075,7 +13074,7 @@
       <c r="I126">
         <v>128442</v>
       </c>
-      <c r="J126">
+      <c r="J126" s="11">
         <v>0</v>
       </c>
       <c r="AA126"/>
@@ -13108,7 +13107,7 @@
       <c r="I127">
         <v>120768</v>
       </c>
-      <c r="J127">
+      <c r="J127" s="11">
         <v>4</v>
       </c>
       <c r="AA127"/>
@@ -13141,12 +13140,14 @@
       <c r="I128">
         <v>4447</v>
       </c>
-      <c r="J128">
+      <c r="J128" s="11">
         <v>0</v>
       </c>
       <c r="AA128"/>
     </row>
-    <row r="129" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="129" spans="10:10" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="J129" s="11"/>
+    </row>
   </sheetData>
   <sortState ref="A4:AC123">
     <sortCondition ref="A4:A123"/>
@@ -13208,20 +13209,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="F1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AA3" sqref="AA3"/>
+    <sheetView topLeftCell="A38" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="I95" sqref="I95:I96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="6" max="6" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="13"/>
-    <col min="11" max="11" width="15.5" style="16" customWidth="1"/>
-    <col min="16" max="16" width="10.83203125" style="13"/>
-    <col min="17" max="17" width="10.83203125" style="12"/>
-    <col min="24" max="24" width="10.83203125" style="13"/>
-    <col min="25" max="25" width="10.83203125" style="12"/>
+    <col min="10" max="10" width="10.83203125" style="11"/>
+    <col min="11" max="11" width="15.5" style="14" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="11"/>
+    <col min="17" max="17" width="10.83203125" style="10"/>
+    <col min="24" max="24" width="10.83203125" style="11"/>
+    <col min="25" max="25" width="10.83203125" style="10"/>
     <col min="27" max="27" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
@@ -13237,7 +13238,7 @@
         <f>AVERAGE(E4:E1048576)</f>
         <v>0.15124748510016708</v>
       </c>
-      <c r="K1" s="12">
+      <c r="K1" s="10">
         <f>AVERAGE(K4:K1048576)</f>
         <v>0.73914120370391179</v>
       </c>
@@ -13257,7 +13258,7 @@
         <f>AVERAGE(O4:O1048576)</f>
         <v>468.02491242323845</v>
       </c>
-      <c r="P1" s="13">
+      <c r="P1" s="11">
         <f>AVERAGE(P4:P1048576)</f>
         <v>1.8456636578349668E-3</v>
       </c>
@@ -13278,7 +13279,7 @@
         <f>_xlfn.STDEV.P(E4:E1048576)</f>
         <v>7.3592675353250717E-2</v>
       </c>
-      <c r="K2" s="12">
+      <c r="K2" s="10">
         <f>_xlfn.STDEV.P(K4:K1048576)</f>
         <v>2.4348877238488002E-2</v>
       </c>
@@ -13298,7 +13299,7 @@
         <f>_xlfn.STDEV.P(O4:O1048576)</f>
         <v>428.50958752689223</v>
       </c>
-      <c r="P2" s="13">
+      <c r="P2" s="11">
         <f>_xlfn.STDEV.P(P4:P1048576)</f>
         <v>1.0985089113329182E-3</v>
       </c>
@@ -13335,10 +13336,10 @@
       <c r="I3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="K3" s="17" t="s">
+      <c r="K3" s="15" t="s">
         <v>5</v>
       </c>
       <c r="L3" s="6" t="s">
@@ -13353,10 +13354,10 @@
       <c r="O3" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P3" s="19" t="s">
+      <c r="P3" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="Q3" s="18" t="s">
+      <c r="Q3" s="16" t="s">
         <v>24</v>
       </c>
       <c r="R3" s="6" t="s">
@@ -13377,10 +13378,10 @@
       <c r="W3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="X3" s="19" t="s">
+      <c r="X3" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="Y3" s="18" t="s">
+      <c r="Y3" s="16" t="s">
         <v>38</v>
       </c>
       <c r="Z3" s="6" t="s">
@@ -13424,10 +13425,10 @@
       <c r="I4">
         <v>72090386</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>110</v>
       </c>
-      <c r="K4" s="16">
+      <c r="K4" s="14">
         <f t="shared" ref="K4:K35" si="0">MOD(F4, 1)</f>
         <v>0.73813657407299615</v>
       </c>
@@ -13447,11 +13448,11 @@
         <f>I4/VLOOKUP(A4, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1648.0062637161668</v>
       </c>
-      <c r="P4" s="13">
+      <c r="P4" s="11">
         <f>J4/VLOOKUP(A4, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.5146305779078274E-3</v>
       </c>
-      <c r="Q4" s="12">
+      <c r="Q4" s="10">
         <f t="shared" ref="Q4:Q35" si="1">STANDARDIZE(D4, D$1, D$2)</f>
         <v>-0.20190884784069349</v>
       </c>
@@ -13479,14 +13480,14 @@
         <f t="shared" ref="W4:W35" si="7">STANDARDIZE(O4, O$1, O$2)</f>
         <v>2.7536871650949362</v>
       </c>
-      <c r="X4" s="13">
+      <c r="X4" s="11">
         <f t="shared" ref="X4:X35" si="8">STANDARDIZE(P4, P$1, P$2)</f>
         <v>0.60897723557030026</v>
       </c>
-      <c r="Y4" s="20">
+      <c r="Y4" s="18">
         <v>1138.28</v>
       </c>
-      <c r="Z4" s="15">
+      <c r="Z4" s="13">
         <v>1129.8800000000001</v>
       </c>
       <c r="AA4" s="4">
@@ -13530,10 +13531,10 @@
       <c r="I5">
         <v>85964933</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>127</v>
       </c>
-      <c r="K5" s="16">
+      <c r="K5" s="14">
         <f t="shared" si="0"/>
         <v>0.73249999999825377</v>
       </c>
@@ -13553,11 +13554,11 @@
         <f>I5/VLOOKUP(A5, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1965.1822649963424</v>
       </c>
-      <c r="P5" s="13">
+      <c r="P5" s="11">
         <f>J5/VLOOKUP(A5, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.9032553035844917E-3</v>
       </c>
-      <c r="Q5" s="12">
+      <c r="Q5" s="10">
         <f t="shared" si="1"/>
         <v>-7.2858329520502765E-2</v>
       </c>
@@ -13585,14 +13586,14 @@
         <f t="shared" si="7"/>
         <v>3.4938713068564562</v>
       </c>
-      <c r="X5" s="13">
+      <c r="X5" s="11">
         <f t="shared" si="8"/>
         <v>0.96275199485296414</v>
       </c>
-      <c r="Y5" s="20">
+      <c r="Y5" s="18">
         <v>1130.1600000000001</v>
       </c>
-      <c r="Z5" s="15">
+      <c r="Z5" s="13">
         <v>1137.29</v>
       </c>
       <c r="AA5" s="4">
@@ -13636,10 +13637,10 @@
       <c r="I6">
         <v>21567903</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>62</v>
       </c>
-      <c r="K6" s="16">
+      <c r="K6" s="14">
         <f t="shared" si="0"/>
         <v>0.81998842592292931</v>
       </c>
@@ -13659,11 +13660,11 @@
         <f>I6/VLOOKUP(A6, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>493.04825804681786</v>
       </c>
-      <c r="P6" s="13">
+      <c r="P6" s="11">
         <f>J6/VLOOKUP(A6, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.4173372348207755E-3</v>
       </c>
-      <c r="Q6" s="12">
+      <c r="Q6" s="10">
         <f t="shared" si="1"/>
         <v>-0.3977665535578665</v>
       </c>
@@ -13691,14 +13692,14 @@
         <f t="shared" si="7"/>
         <v>5.8396232784427515E-2</v>
       </c>
-      <c r="X6" s="13">
+      <c r="X6" s="11">
         <f t="shared" si="8"/>
         <v>-0.38991620240427993</v>
       </c>
-      <c r="Y6" s="20">
+      <c r="Y6" s="18">
         <v>1127.01</v>
       </c>
-      <c r="Z6" s="15">
+      <c r="Z6" s="13">
         <v>1126.69</v>
       </c>
       <c r="AA6" s="4">
@@ -13742,10 +13743,10 @@
       <c r="I7">
         <v>42028395</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>133</v>
       </c>
-      <c r="K7" s="16">
+      <c r="K7" s="14">
         <f t="shared" si="0"/>
         <v>0.73333333332993789</v>
       </c>
@@ -13765,11 +13766,11 @@
         <f>I7/VLOOKUP(A7, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>960.78079279444034</v>
       </c>
-      <c r="P7" s="13">
+      <c r="P7" s="11">
         <f>J7/VLOOKUP(A7, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.0404169714703731E-3</v>
       </c>
-      <c r="Q7" s="12">
+      <c r="Q7" s="10">
         <f t="shared" si="1"/>
         <v>-0.20625717182021183</v>
       </c>
@@ -13797,14 +13798,14 @@
         <f t="shared" si="7"/>
         <v>1.1499296508512256</v>
       </c>
-      <c r="X7" s="13">
+      <c r="X7" s="11">
         <f t="shared" si="8"/>
         <v>1.0876136745997866</v>
       </c>
-      <c r="Y7" s="20">
+      <c r="Y7" s="18">
         <v>1130.1099999999999</v>
       </c>
-      <c r="Z7" s="15">
+      <c r="Z7" s="13">
         <v>1136.8399999999999</v>
       </c>
       <c r="AA7" s="4">
@@ -13848,10 +13849,10 @@
       <c r="I8">
         <v>30306395</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>112</v>
       </c>
-      <c r="K8" s="16">
+      <c r="K8" s="14">
         <f t="shared" si="0"/>
         <v>0.73445601851562969</v>
       </c>
@@ -13871,11 +13872,11 @@
         <f>I8/VLOOKUP(A8, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>692.81261430138989</v>
       </c>
-      <c r="P8" s="13">
+      <c r="P8" s="11">
         <f>J8/VLOOKUP(A8, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.5603511338697879E-3</v>
       </c>
-      <c r="Q8" s="12">
+      <c r="Q8" s="10">
         <f t="shared" si="1"/>
         <v>-0.23355300239743301</v>
       </c>
@@ -13903,14 +13904,14 @@
         <f t="shared" si="7"/>
         <v>0.5245803324389896</v>
       </c>
-      <c r="X8" s="13">
+      <c r="X8" s="11">
         <f t="shared" si="8"/>
         <v>0.65059779548590768</v>
       </c>
-      <c r="Y8" s="12">
+      <c r="Y8" s="10">
         <v>1126.0999999999999</v>
       </c>
-      <c r="Z8" s="12">
+      <c r="Z8" s="10">
         <v>1125.3499999999999</v>
       </c>
       <c r="AA8" s="4">
@@ -13954,10 +13955,10 @@
       <c r="I9">
         <v>59429920</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>130</v>
       </c>
-      <c r="K9" s="16">
+      <c r="K9" s="14">
         <f t="shared" si="0"/>
         <v>0.78340277777897427</v>
       </c>
@@ -13977,11 +13978,11 @@
         <f>I9/VLOOKUP(A9, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1358.5844915874177</v>
       </c>
-      <c r="P9" s="13">
+      <c r="P9" s="11">
         <f>J9/VLOOKUP(A9, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.9718361375274324E-3</v>
       </c>
-      <c r="Q9" s="12">
+      <c r="Q9" s="10">
         <f t="shared" si="1"/>
         <v>-0.3069469695519072</v>
       </c>
@@ -14009,14 +14010,14 @@
         <f t="shared" si="7"/>
         <v>2.0782722372770479</v>
       </c>
-      <c r="X9" s="13">
+      <c r="X9" s="11">
         <f t="shared" si="8"/>
         <v>1.0251828347263754</v>
       </c>
-      <c r="Y9" s="12">
+      <c r="Y9" s="10">
         <v>1125.96</v>
       </c>
-      <c r="Z9" s="12">
+      <c r="Z9" s="10">
         <v>1129.1300000000001</v>
       </c>
       <c r="AA9" s="4">
@@ -14060,10 +14061,10 @@
       <c r="I10">
         <v>47905740</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>147</v>
       </c>
-      <c r="K10" s="16">
+      <c r="K10" s="14">
         <f t="shared" si="0"/>
         <v>0.74598379629605915</v>
       </c>
@@ -14083,11 +14084,11 @@
         <f>I10/VLOOKUP(A10, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1095.1385332845648</v>
       </c>
-      <c r="P10" s="13">
+      <c r="P10" s="11">
         <f>J10/VLOOKUP(A10, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.3604608632040968E-3</v>
       </c>
-      <c r="Q10" s="12">
+      <c r="Q10" s="10">
         <f t="shared" si="1"/>
         <v>-0.23095417188954806</v>
       </c>
@@ -14115,14 +14116,14 @@
         <f t="shared" si="7"/>
         <v>1.4634762887819173</v>
       </c>
-      <c r="X10" s="13">
+      <c r="X10" s="11">
         <f t="shared" si="8"/>
         <v>1.3789575940090393</v>
       </c>
-      <c r="Y10" s="12">
+      <c r="Y10" s="10">
         <v>1122.82</v>
       </c>
-      <c r="Z10" s="12">
+      <c r="Z10" s="10">
         <v>1132.8800000000001</v>
       </c>
       <c r="AA10" s="4">
@@ -14166,10 +14167,10 @@
       <c r="I11">
         <v>41610277</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>142</v>
       </c>
-      <c r="K11" s="16">
+      <c r="K11" s="14">
         <f t="shared" si="0"/>
         <v>0.74165509259182727</v>
       </c>
@@ -14189,11 +14190,11 @@
         <f>I11/VLOOKUP(A11, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>951.22249908558888</v>
       </c>
-      <c r="P11" s="13">
+      <c r="P11" s="11">
         <f>J11/VLOOKUP(A11, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.2461594732991952E-3</v>
       </c>
-      <c r="Q11" s="12">
+      <c r="Q11" s="10">
         <f t="shared" si="1"/>
         <v>-0.13038866643568622</v>
       </c>
@@ -14221,14 +14222,14 @@
         <f t="shared" si="7"/>
         <v>1.1276237468829706</v>
       </c>
-      <c r="X11" s="13">
+      <c r="X11" s="11">
         <f t="shared" si="8"/>
         <v>1.2749061942200202</v>
       </c>
-      <c r="Y11" s="12">
+      <c r="Y11" s="10">
         <v>1124.74</v>
       </c>
-      <c r="Z11" s="12">
+      <c r="Z11" s="10">
         <v>1130.5999999999999</v>
       </c>
       <c r="AA11" s="4">
@@ -14272,10 +14273,10 @@
       <c r="I12">
         <v>14672469</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>101</v>
       </c>
-      <c r="K12" s="16">
+      <c r="K12" s="14">
         <f t="shared" si="0"/>
         <v>0.76372685185197042</v>
       </c>
@@ -14295,11 +14296,11 @@
         <f>I12/VLOOKUP(A12, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>279.05568763194429</v>
       </c>
-      <c r="P12" s="13">
+      <c r="P12" s="11">
         <f>J12/VLOOKUP(A12, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.9209189980790809E-3</v>
       </c>
-      <c r="Q12" s="12">
+      <c r="Q12" s="10">
         <f t="shared" si="1"/>
         <v>0.40636789575547538</v>
       </c>
@@ -14327,11 +14328,11 @@
         <f t="shared" si="7"/>
         <v>-0.44099182443481477</v>
       </c>
-      <c r="X12" s="13">
+      <c r="X12" s="11">
         <f t="shared" si="8"/>
         <v>6.8506809064298027E-2</v>
       </c>
-      <c r="Y12" s="12">
+      <c r="Y12" s="10">
         <v>171.04</v>
       </c>
       <c r="Z12">
@@ -14378,10 +14379,10 @@
       <c r="I13">
         <v>15599546</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <v>64</v>
       </c>
-      <c r="K13" s="16">
+      <c r="K13" s="14">
         <f t="shared" si="0"/>
         <v>0.73211805555911269</v>
       </c>
@@ -14401,11 +14402,11 @@
         <f>I13/VLOOKUP(A13, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>296.68776507731224</v>
       </c>
-      <c r="P13" s="13">
+      <c r="P13" s="11">
         <f>J13/VLOOKUP(A13, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.2172159987827839E-3</v>
       </c>
-      <c r="Q13" s="12">
+      <c r="Q13" s="10">
         <f t="shared" si="1"/>
         <v>0.4253537671433727</v>
       </c>
@@ -14433,11 +14434,11 @@
         <f t="shared" si="7"/>
         <v>-0.39984437299240944</v>
       </c>
-      <c r="X13" s="13">
+      <c r="X13" s="11">
         <f t="shared" si="8"/>
         <v>-0.57209154388163463</v>
       </c>
-      <c r="Y13" s="12">
+      <c r="Y13" s="10">
         <v>171.18</v>
       </c>
       <c r="Z13">
@@ -14484,10 +14485,10 @@
       <c r="I14">
         <v>21339523</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <v>71</v>
       </c>
-      <c r="K14" s="16">
+      <c r="K14" s="14">
         <f t="shared" si="0"/>
         <v>0.72684027777722804</v>
       </c>
@@ -14507,11 +14508,11 @@
         <f>I14/VLOOKUP(A14, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>405.85638753114364</v>
       </c>
-      <c r="P14" s="13">
+      <c r="P14" s="11">
         <f>J14/VLOOKUP(A14, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.350348998649651E-3</v>
       </c>
-      <c r="Q14" s="12">
+      <c r="Q14" s="10">
         <f t="shared" si="1"/>
         <v>1.6890860813865578</v>
       </c>
@@ -14539,11 +14540,11 @@
         <f t="shared" si="7"/>
         <v>-0.1450808259644675</v>
       </c>
-      <c r="X14" s="13">
+      <c r="X14" s="11">
         <f t="shared" si="8"/>
         <v>-0.4508972608918636</v>
       </c>
-      <c r="Y14" s="12">
+      <c r="Y14" s="10">
         <v>169.97</v>
       </c>
       <c r="Z14">
@@ -14590,10 +14591,10 @@
       <c r="I15">
         <v>10196381</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <v>74</v>
       </c>
-      <c r="K15" s="16">
+      <c r="K15" s="14">
         <f t="shared" si="0"/>
         <v>0.74319444444699911</v>
       </c>
@@ -14613,11 +14614,11 @@
         <f>I15/VLOOKUP(A15, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>193.92497004507504</v>
       </c>
-      <c r="P15" s="13">
+      <c r="P15" s="11">
         <f>J15/VLOOKUP(A15, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.4074059985925941E-3</v>
       </c>
-      <c r="Q15" s="12">
+      <c r="Q15" s="10">
         <f t="shared" si="1"/>
         <v>2.2451008986550973</v>
       </c>
@@ -14645,11 +14646,11 @@
         <f t="shared" si="7"/>
         <v>-0.63965883227982978</v>
       </c>
-      <c r="X15" s="13">
+      <c r="X15" s="11">
         <f t="shared" si="8"/>
         <v>-0.39895685389624735</v>
       </c>
-      <c r="Y15" s="12">
+      <c r="Y15" s="10">
         <v>173.04</v>
       </c>
       <c r="Z15">
@@ -14696,10 +14697,10 @@
       <c r="I16">
         <v>12309559</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <v>51</v>
       </c>
-      <c r="K16" s="16">
+      <c r="K16" s="14">
         <f t="shared" si="0"/>
         <v>0.74042824074422242</v>
       </c>
@@ -14719,11 +14720,11 @@
         <f>I16/VLOOKUP(A16, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>234.11550238688449</v>
       </c>
-      <c r="P16" s="13">
+      <c r="P16" s="11">
         <f>J16/VLOOKUP(A16, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>9.6996899903003099E-4</v>
       </c>
-      <c r="Q16" s="12">
+      <c r="Q16" s="10">
         <f t="shared" si="1"/>
         <v>0.43051170248863335</v>
       </c>
@@ -14751,11 +14752,11 @@
         <f t="shared" si="7"/>
         <v>-0.54586738977380378</v>
       </c>
-      <c r="X16" s="13">
+      <c r="X16" s="11">
         <f t="shared" si="8"/>
         <v>-0.797166640862638</v>
       </c>
-      <c r="Y16" s="12">
+      <c r="Y16" s="10">
         <v>173.5</v>
       </c>
       <c r="Z16">
@@ -14802,10 +14803,10 @@
       <c r="I17">
         <v>2477109</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <v>13</v>
       </c>
-      <c r="K17" s="16">
+      <c r="K17" s="14">
         <f t="shared" si="0"/>
         <v>0.72964120370306773</v>
       </c>
@@ -14825,11 +14826,11 @@
         <f>I17/VLOOKUP(A17, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>204.11247528015821</v>
       </c>
-      <c r="P17" s="13">
+      <c r="P17" s="11">
         <f>J17/VLOOKUP(A17, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.0711931443638761E-3</v>
       </c>
-      <c r="Q17" s="12">
+      <c r="Q17" s="10">
         <f t="shared" si="1"/>
         <v>0.31111608527721246</v>
       </c>
@@ -14857,11 +14858,11 @@
         <f t="shared" si="7"/>
         <v>-0.61588455620381588</v>
       </c>
-      <c r="X17" s="13">
+      <c r="X17" s="11">
         <f t="shared" si="8"/>
         <v>-0.70501978225316075</v>
       </c>
-      <c r="Y17" s="12">
+      <c r="Y17" s="10">
         <v>35.9</v>
       </c>
       <c r="Z17">
@@ -14908,10 +14909,10 @@
       <c r="I18">
         <v>2446737</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <v>18</v>
       </c>
-      <c r="K18" s="16">
+      <c r="K18" s="14">
         <f t="shared" si="0"/>
         <v>0.70692129629605915</v>
       </c>
@@ -14931,11 +14932,11 @@
         <f>I18/VLOOKUP(A18, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>201.60983849703362</v>
       </c>
-      <c r="P18" s="13">
+      <c r="P18" s="11">
         <f>J18/VLOOKUP(A18, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.4831905075807514E-3</v>
       </c>
-      <c r="Q18" s="12">
+      <c r="Q18" s="10">
         <f t="shared" si="1"/>
         <v>0.41392569463010515</v>
       </c>
@@ -14963,11 +14964,11 @@
         <f t="shared" si="7"/>
         <v>-0.621724884765817</v>
       </c>
-      <c r="X18" s="13">
+      <c r="X18" s="11">
         <f t="shared" si="8"/>
         <v>-0.32996832935510245</v>
       </c>
-      <c r="Y18" s="12">
+      <c r="Y18" s="10">
         <v>36.04</v>
       </c>
       <c r="Z18">
@@ -15014,10 +15015,10 @@
       <c r="I19">
         <v>3860212</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <v>21</v>
       </c>
-      <c r="K19" s="16">
+      <c r="K19" s="14">
         <f t="shared" si="0"/>
         <v>0.72935185184906004</v>
       </c>
@@ -15037,11 +15038,11 @@
         <f>I19/VLOOKUP(A19, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>318.07943309162823</v>
       </c>
-      <c r="P19" s="13">
+      <c r="P19" s="11">
         <f>J19/VLOOKUP(A19, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.7303889255108767E-3</v>
       </c>
-      <c r="Q19" s="12">
+      <c r="Q19" s="10">
         <f t="shared" si="1"/>
         <v>0.10544353274334153</v>
       </c>
@@ -15069,11 +15070,11 @@
         <f t="shared" si="7"/>
         <v>-0.349923277556071</v>
       </c>
-      <c r="X19" s="13">
+      <c r="X19" s="11">
         <f t="shared" si="8"/>
         <v>-0.10493745761626735</v>
       </c>
-      <c r="Y19" s="12">
+      <c r="Y19" s="10">
         <v>33.97</v>
       </c>
       <c r="Z19">
@@ -15120,10 +15121,10 @@
       <c r="I20">
         <v>5578478</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <v>29</v>
       </c>
-      <c r="K20" s="16">
+      <c r="K20" s="14">
         <f t="shared" si="0"/>
         <v>0.72635416666889796</v>
       </c>
@@ -15143,11 +15144,11 @@
         <f>I20/VLOOKUP(A20, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>459.66364535266973</v>
       </c>
-      <c r="P20" s="13">
+      <c r="P20" s="11">
         <f>J20/VLOOKUP(A20, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.3895847066578773E-3</v>
       </c>
-      <c r="Q20" s="12">
+      <c r="Q20" s="10">
         <f t="shared" si="1"/>
         <v>-0.10264701293533939</v>
       </c>
@@ -15175,11 +15176,11 @@
         <f t="shared" si="7"/>
         <v>-1.9512438727042444E-2</v>
       </c>
-      <c r="X20" s="13">
+      <c r="X20" s="11">
         <f t="shared" si="8"/>
         <v>0.4951448670206261</v>
       </c>
-      <c r="Y20" s="12">
+      <c r="Y20" s="10">
         <v>33.86</v>
       </c>
       <c r="Z20">
@@ -15226,10 +15227,10 @@
       <c r="I21">
         <v>1126647</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="11">
         <v>18</v>
       </c>
-      <c r="K21" s="16">
+      <c r="K21" s="14">
         <f t="shared" si="0"/>
         <v>0.76167824074218515</v>
       </c>
@@ -15249,11 +15250,11 @@
         <f>I21/VLOOKUP(A21, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>92.835118655240606</v>
       </c>
-      <c r="P21" s="13">
+      <c r="P21" s="11">
         <f>J21/VLOOKUP(A21, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.4831905075807514E-3</v>
       </c>
-      <c r="Q21" s="12">
+      <c r="Q21" s="10">
         <f t="shared" si="1"/>
         <v>-1.1214165436571515</v>
       </c>
@@ -15281,11 +15282,11 @@
         <f t="shared" si="7"/>
         <v>-0.87556919305674075</v>
       </c>
-      <c r="X21" s="13">
+      <c r="X21" s="11">
         <f t="shared" si="8"/>
         <v>-0.32996832935510245</v>
       </c>
-      <c r="Y21" s="12">
+      <c r="Y21" s="10">
         <v>33.86</v>
       </c>
       <c r="Z21">
@@ -15332,10 +15333,10 @@
       <c r="I22">
         <v>4078743</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <v>17</v>
       </c>
-      <c r="K22" s="16">
+      <c r="K22" s="14">
         <f t="shared" si="0"/>
         <v>0.74375000000145519</v>
       </c>
@@ -15355,11 +15356,11 @@
         <f>I22/VLOOKUP(A22, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>336.08627224785761</v>
       </c>
-      <c r="P22" s="13">
+      <c r="P22" s="11">
         <f>J22/VLOOKUP(A22, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.4007910349373763E-3</v>
       </c>
-      <c r="Q22" s="12">
+      <c r="Q22" s="10">
         <f t="shared" si="1"/>
         <v>-0.4962945433219742</v>
       </c>
@@ -15387,11 +15388,11 @@
         <f t="shared" si="7"/>
         <v>-0.30790125592487633</v>
       </c>
-      <c r="X22" s="13">
+      <c r="X22" s="11">
         <f t="shared" si="8"/>
         <v>-0.40497861993471418</v>
       </c>
-      <c r="Y22" s="12">
+      <c r="Y22" s="10">
         <v>34.06</v>
       </c>
       <c r="Z22">
@@ -15438,10 +15439,10 @@
       <c r="I23">
         <v>1407384</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="11">
         <v>11</v>
       </c>
-      <c r="K23" s="16">
+      <c r="K23" s="14">
         <f t="shared" si="0"/>
         <v>0.71875</v>
       </c>
@@ -15461,11 +15462,11 @@
         <f>I23/VLOOKUP(A23, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>115.9676994067238</v>
       </c>
-      <c r="P23" s="13">
+      <c r="P23" s="11">
         <f>J23/VLOOKUP(A23, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>9.0639419907712591E-4</v>
       </c>
-      <c r="Q23" s="12">
+      <c r="Q23" s="10">
         <f t="shared" si="1"/>
         <v>9.3419817454839474E-2</v>
       </c>
@@ -15493,11 +15494,11 @@
         <f t="shared" si="7"/>
         <v>-0.82158538166761641</v>
       </c>
-      <c r="X23" s="13">
+      <c r="X23" s="11">
         <f t="shared" si="8"/>
         <v>-0.85504036341238421</v>
       </c>
-      <c r="Y23" s="12">
+      <c r="Y23" s="10">
         <v>34.29</v>
       </c>
       <c r="Z23">
@@ -15544,10 +15545,10 @@
       <c r="I24">
         <v>1959983</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="11">
         <v>19</v>
       </c>
-      <c r="K24" s="16">
+      <c r="K24" s="14">
         <f t="shared" si="0"/>
         <v>0.73958333333575865</v>
       </c>
@@ -15567,11 +15568,11 @@
         <f>I24/VLOOKUP(A24, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>161.50156558998023</v>
       </c>
-      <c r="P24" s="13">
+      <c r="P24" s="11">
         <f>J24/VLOOKUP(A24, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.5655899802241265E-3</v>
       </c>
-      <c r="Q24" s="12">
+      <c r="Q24" s="10">
         <f t="shared" si="1"/>
         <v>-0.63420700404255792</v>
       </c>
@@ -15599,11 +15600,11 @@
         <f t="shared" si="7"/>
         <v>-0.71532436089080853</v>
       </c>
-      <c r="X24" s="13">
+      <c r="X24" s="11">
         <f t="shared" si="8"/>
         <v>-0.25495803877549078</v>
       </c>
-      <c r="Y24" s="12">
+      <c r="Y24" s="10">
         <v>34.31</v>
       </c>
       <c r="Z24">
@@ -15650,10 +15651,10 @@
       <c r="I25">
         <v>1855143</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="11">
         <v>22</v>
       </c>
-      <c r="K25" s="16">
+      <c r="K25" s="14">
         <f t="shared" si="0"/>
         <v>0.74097222222189885</v>
       </c>
@@ -15673,11 +15674,11 @@
         <f>I25/VLOOKUP(A25, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>152.86280487804879</v>
       </c>
-      <c r="P25" s="13">
+      <c r="P25" s="11">
         <f>J25/VLOOKUP(A25, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.8127883981542518E-3</v>
       </c>
-      <c r="Q25" s="12">
+      <c r="Q25" s="10">
         <f t="shared" si="1"/>
         <v>-1.2061948469966184</v>
       </c>
@@ -15705,11 +15706,11 @@
         <f t="shared" si="7"/>
         <v>-0.73548437822388479</v>
       </c>
-      <c r="X25" s="13">
+      <c r="X25" s="11">
         <f t="shared" si="8"/>
         <v>-2.9927167036655655E-2</v>
       </c>
-      <c r="Y25" s="12">
+      <c r="Y25" s="10">
         <v>34.32</v>
       </c>
       <c r="Z25">
@@ -15756,10 +15757,10 @@
       <c r="I26">
         <v>36394247</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <v>64</v>
       </c>
-      <c r="K26" s="16">
+      <c r="K26" s="14">
         <f t="shared" si="0"/>
         <v>0.74760416666686069</v>
       </c>
@@ -15779,11 +15780,11 @@
         <f>I26/VLOOKUP(A26, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1310.465468817514</v>
       </c>
-      <c r="P26" s="13">
+      <c r="P26" s="11">
         <f>J26/VLOOKUP(A26, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.3044793317009938E-3</v>
       </c>
-      <c r="Q26" s="12">
+      <c r="Q26" s="10">
         <f t="shared" si="1"/>
         <v>-0.20659474066235381</v>
       </c>
@@ -15811,11 +15812,11 @@
         <f t="shared" si="7"/>
         <v>1.9659783139424061</v>
       </c>
-      <c r="X26" s="13">
+      <c r="X26" s="11">
         <f t="shared" si="8"/>
         <v>0.41767132622465963</v>
       </c>
-      <c r="Y26" s="12">
+      <c r="Y26" s="10">
         <v>1049.8</v>
       </c>
       <c r="Z26">
@@ -15862,10 +15863,10 @@
       <c r="I27">
         <v>57323472</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="11">
         <v>134</v>
       </c>
-      <c r="K27" s="16">
+      <c r="K27" s="14">
         <f t="shared" si="0"/>
         <v>0.72627314814599231</v>
       </c>
@@ -15885,11 +15886,11 @@
         <f>I27/VLOOKUP(A27, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2064.0743194584475</v>
       </c>
-      <c r="P27" s="13">
+      <c r="P27" s="11">
         <f>J27/VLOOKUP(A27, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>4.8250036007489554E-3</v>
       </c>
-      <c r="Q27" s="12">
+      <c r="Q27" s="10">
         <f t="shared" si="1"/>
         <v>2.1472180305840682</v>
       </c>
@@ -15917,11 +15918,11 @@
         <f t="shared" si="7"/>
         <v>3.7246527347186715</v>
       </c>
-      <c r="X27" s="13">
+      <c r="X27" s="11">
         <f t="shared" si="8"/>
         <v>2.7121672953011289</v>
       </c>
-      <c r="Y27" s="12">
+      <c r="Y27" s="10">
         <v>1038.75</v>
       </c>
       <c r="Z27">
@@ -15968,10 +15969,10 @@
       <c r="I28">
         <v>17800991</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <v>99</v>
       </c>
-      <c r="K28" s="16">
+      <c r="K28" s="14">
         <f t="shared" si="0"/>
         <v>0.76082175925694173</v>
       </c>
@@ -15991,11 +15992,11 @@
         <f>I28/VLOOKUP(A28, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>640.9689975514907</v>
       </c>
-      <c r="P28" s="13">
+      <c r="P28" s="11">
         <f>J28/VLOOKUP(A28, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.5647414662249746E-3</v>
       </c>
-      <c r="Q28" s="12">
+      <c r="Q28" s="10">
         <f t="shared" si="1"/>
         <v>-0.24463566549556598</v>
       </c>
@@ -16023,11 +16024,11 @@
         <f t="shared" si="7"/>
         <v>0.4035944356026776</v>
       </c>
-      <c r="X28" s="13">
+      <c r="X28" s="11">
         <f t="shared" si="8"/>
         <v>1.5649193107628943</v>
       </c>
-      <c r="Y28" s="12">
+      <c r="Y28" s="10">
         <v>1035</v>
       </c>
       <c r="Z28">
@@ -16074,10 +16075,10 @@
       <c r="I29">
         <v>16674638</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="11">
         <v>112</v>
       </c>
-      <c r="K29" s="16">
+      <c r="K29" s="14">
         <f t="shared" si="0"/>
         <v>0.73724537037196569</v>
       </c>
@@ -16097,11 +16098,11 @@
         <f>I29/VLOOKUP(A29, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>600.41185366556249</v>
       </c>
-      <c r="P29" s="13">
+      <c r="P29" s="11">
         <f>J29/VLOOKUP(A29, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>4.032838830476739E-3</v>
       </c>
-      <c r="Q29" s="12">
+      <c r="Q29" s="10">
         <f t="shared" si="1"/>
         <v>-0.29198252864566315</v>
       </c>
@@ -16129,11 +16130,11 @@
         <f t="shared" si="7"/>
         <v>0.30894744270807184</v>
       </c>
-      <c r="X29" s="13">
+      <c r="X29" s="11">
         <f t="shared" si="8"/>
         <v>1.9910399907342387</v>
       </c>
-      <c r="Y29" s="12">
+      <c r="Y29" s="10">
         <v>1037.72</v>
       </c>
       <c r="Z29">
@@ -16180,10 +16181,10 @@
       <c r="I30">
         <v>20977216</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="11">
         <v>83</v>
       </c>
-      <c r="K30" s="16">
+      <c r="K30" s="14">
         <f t="shared" si="0"/>
         <v>0.73878472221986158</v>
       </c>
@@ -16203,11 +16204,11 @@
         <f>I30/VLOOKUP(A30, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>755.33688607230306</v>
       </c>
-      <c r="P30" s="13">
+      <c r="P30" s="11">
         <f>J30/VLOOKUP(A30, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.9886216332997264E-3</v>
       </c>
-      <c r="Q30" s="12">
+      <c r="Q30" s="10">
         <f t="shared" si="1"/>
         <v>-0.11274550969832982</v>
       </c>
@@ -16235,11 +16236,11 @@
         <f t="shared" si="7"/>
         <v>0.67049135424778239</v>
       </c>
-      <c r="X30" s="13">
+      <c r="X30" s="11">
         <f t="shared" si="8"/>
         <v>1.0404630892597015</v>
       </c>
-      <c r="Y30" s="12">
+      <c r="Y30" s="10">
         <v>1040.8</v>
       </c>
       <c r="Z30">
@@ -16286,10 +16287,10 @@
       <c r="I31">
         <v>14133192</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="11">
         <v>99</v>
       </c>
-      <c r="K31" s="16">
+      <c r="K31" s="14">
         <f t="shared" si="0"/>
         <v>0.70833333333575865</v>
       </c>
@@ -16309,11 +16310,11 @@
         <f>I31/VLOOKUP(A31, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>508.90076335877865</v>
       </c>
-      <c r="P31" s="13">
+      <c r="P31" s="11">
         <f>J31/VLOOKUP(A31, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.5647414662249746E-3</v>
       </c>
-      <c r="Q31" s="12">
+      <c r="Q31" s="10">
         <f t="shared" si="1"/>
         <v>-0.20505419412530795</v>
       </c>
@@ -16341,11 +16342,11 @@
         <f t="shared" si="7"/>
         <v>9.5390749998038094E-2</v>
       </c>
-      <c r="X31" s="13">
+      <c r="X31" s="11">
         <f t="shared" si="8"/>
         <v>1.5649193107628943</v>
       </c>
-      <c r="Y31" s="12">
+      <c r="Y31" s="10">
         <v>1043.8699999999999</v>
       </c>
       <c r="Z31">
@@ -16392,10 +16393,10 @@
       <c r="I32">
         <v>22383865</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="11">
         <v>107</v>
       </c>
-      <c r="K32" s="16">
+      <c r="K32" s="14">
         <f t="shared" si="0"/>
         <v>0.74652777778101154</v>
       </c>
@@ -16415,11 +16416,11 @@
         <f>I32/VLOOKUP(A32, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>805.98678525133232</v>
       </c>
-      <c r="P32" s="13">
+      <c r="P32" s="11">
         <f>J32/VLOOKUP(A32, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.8528013826875989E-3</v>
       </c>
-      <c r="Q32" s="12">
+      <c r="Q32" s="10">
         <f t="shared" si="1"/>
         <v>-0.88317866993854199</v>
       </c>
@@ -16447,11 +16448,11 @@
         <f t="shared" si="7"/>
         <v>0.78869150811446942</v>
       </c>
-      <c r="X32" s="13">
+      <c r="X32" s="11">
         <f t="shared" si="8"/>
         <v>1.8271474215144907</v>
       </c>
-      <c r="Y32" s="12">
+      <c r="Y32" s="10">
         <v>1048</v>
       </c>
       <c r="Z32">
@@ -16498,10 +16499,10 @@
       <c r="I33">
         <v>17160497</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="11">
         <v>81</v>
       </c>
-      <c r="K33" s="16">
+      <c r="K33" s="14">
         <f t="shared" si="0"/>
         <v>0.74236111110803904</v>
       </c>
@@ -16521,11 +16522,11 @@
         <f>I33/VLOOKUP(A33, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>617.90641653463922</v>
       </c>
-      <c r="P33" s="13">
+      <c r="P33" s="11">
         <f>J33/VLOOKUP(A33, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.9166066541840702E-3</v>
       </c>
-      <c r="Q33" s="12">
+      <c r="Q33" s="10">
         <f t="shared" si="1"/>
         <v>0.41199603739418078</v>
       </c>
@@ -16553,11 +16554,11 @@
         <f t="shared" si="7"/>
         <v>0.34977398049931513</v>
       </c>
-      <c r="X33" s="13">
+      <c r="X33" s="11">
         <f t="shared" si="8"/>
         <v>0.97490606157180215</v>
       </c>
-      <c r="Y33" s="12">
+      <c r="Y33" s="10">
         <v>1050.05</v>
       </c>
       <c r="Z33">
@@ -16604,10 +16605,10 @@
       <c r="I34">
         <v>34626861</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="11">
         <v>119</v>
       </c>
-      <c r="K34" s="16">
+      <c r="K34" s="14">
         <f t="shared" si="0"/>
         <v>0.75208333333284827</v>
       </c>
@@ -16627,11 +16628,11 @@
         <f>I34/VLOOKUP(A34, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1246.8263358778627</v>
       </c>
-      <c r="P34" s="13">
+      <c r="P34" s="11">
         <f>J34/VLOOKUP(A34, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>4.2848912573815352E-3</v>
       </c>
-      <c r="Q34" s="12">
+      <c r="Q34" s="10">
         <f t="shared" si="1"/>
         <v>0.5741703969417622</v>
       </c>
@@ -16659,11 +16660,11 @@
         <f t="shared" si="7"/>
         <v>1.8174655739896333</v>
       </c>
-      <c r="X34" s="13">
+      <c r="X34" s="11">
         <f t="shared" si="8"/>
         <v>2.2204895876418855</v>
       </c>
-      <c r="Y34" s="12">
+      <c r="Y34" s="10">
         <v>1049.6500000000001</v>
       </c>
       <c r="Z34">
@@ -16710,10 +16711,10 @@
       <c r="I35">
         <v>15641992</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <v>87</v>
       </c>
-      <c r="K35" s="16">
+      <c r="K35" s="14">
         <f t="shared" si="0"/>
         <v>0.75277777777955635</v>
       </c>
@@ -16733,11 +16734,11 @@
         <f>I35/VLOOKUP(A35, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>563.22886360362952</v>
       </c>
-      <c r="P35" s="13">
+      <c r="P35" s="11">
         <f>J35/VLOOKUP(A35, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.1326515915310383E-3</v>
       </c>
-      <c r="Q35" s="12">
+      <c r="Q35" s="10">
         <f t="shared" si="1"/>
         <v>1.4655126967181857</v>
       </c>
@@ -16765,11 +16766,11 @@
         <f t="shared" si="7"/>
         <v>0.22217461161103264</v>
       </c>
-      <c r="X35" s="13">
+      <c r="X35" s="11">
         <f t="shared" si="8"/>
         <v>1.1715771446354997</v>
       </c>
-      <c r="Y35" s="12">
+      <c r="Y35" s="10">
         <v>1049.0999999999999</v>
       </c>
       <c r="Z35">
@@ -16816,10 +16817,10 @@
       <c r="I36">
         <v>1169765</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="11">
         <v>12</v>
       </c>
-      <c r="K36" s="16">
+      <c r="K36" s="14">
         <f t="shared" ref="K36:K67" si="12">MOD(F36, 1)</f>
         <v>0.73656250000203727</v>
       </c>
@@ -16839,11 +16840,11 @@
         <f>I36/VLOOKUP(A36, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>89.568529862174586</v>
       </c>
-      <c r="P36" s="13">
+      <c r="P36" s="11">
         <f>J36/VLOOKUP(A36, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>9.1883614088820824E-4</v>
       </c>
-      <c r="Q36" s="12">
+      <c r="Q36" s="10">
         <f t="shared" ref="Q36:Q67" si="13">STANDARDIZE(D36, D$1, D$2)</f>
         <v>1.2115982055121373</v>
       </c>
@@ -16871,11 +16872,11 @@
         <f t="shared" ref="W36:W67" si="19">STANDARDIZE(O36, O$1, O$2)</f>
         <v>-0.88319233356082805</v>
       </c>
-      <c r="X36" s="13">
+      <c r="X36" s="11">
         <f t="shared" ref="X36:X67" si="20">STANDARDIZE(P36, P$1, P$2)</f>
         <v>-0.84371415414569251</v>
       </c>
-      <c r="Y36" s="12">
+      <c r="Y36" s="10">
         <v>21.51</v>
       </c>
       <c r="Z36">
@@ -16922,10 +16923,10 @@
       <c r="I37">
         <v>3736873</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="11">
         <v>13</v>
       </c>
-      <c r="K37" s="16">
+      <c r="K37" s="14">
         <f t="shared" si="12"/>
         <v>0.75983796296350192</v>
       </c>
@@ -16945,11 +16946,11 @@
         <f>I37/VLOOKUP(A37, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>286.13116385911178</v>
       </c>
-      <c r="P37" s="13">
+      <c r="P37" s="11">
         <f>J37/VLOOKUP(A37, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>9.954058192955589E-4</v>
       </c>
-      <c r="Q37" s="12">
+      <c r="Q37" s="10">
         <f t="shared" si="13"/>
         <v>1.8781559132133123</v>
       </c>
@@ -16977,11 +16978,11 @@
         <f t="shared" si="19"/>
         <v>-0.42447999731793973</v>
       </c>
-      <c r="X37" s="13">
+      <c r="X37" s="11">
         <f t="shared" si="20"/>
         <v>-0.77401087034215754</v>
       </c>
-      <c r="Y37" s="12">
+      <c r="Y37" s="10">
         <v>21.43</v>
       </c>
       <c r="Z37">
@@ -17028,10 +17029,10 @@
       <c r="I38">
         <v>3061210</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="11">
         <v>20</v>
       </c>
-      <c r="K38" s="16">
+      <c r="K38" s="14">
         <f t="shared" si="12"/>
         <v>0.75325231481838273</v>
       </c>
@@ -17051,11 +17052,11 @@
         <f>I38/VLOOKUP(A38, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>234.395865237366</v>
       </c>
-      <c r="P38" s="13">
+      <c r="P38" s="11">
         <f>J38/VLOOKUP(A38, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.5313935681470138E-3</v>
       </c>
-      <c r="Q38" s="12">
+      <c r="Q38" s="10">
         <f t="shared" si="13"/>
         <v>0.1571566326578514</v>
       </c>
@@ -17083,11 +17084,11 @@
         <f t="shared" si="19"/>
         <v>-0.54521311538031914</v>
       </c>
-      <c r="X38" s="13">
+      <c r="X38" s="11">
         <f t="shared" si="20"/>
         <v>-0.28608788371741223</v>
       </c>
-      <c r="Y38" s="12">
+      <c r="Y38" s="10">
         <v>21.31</v>
       </c>
       <c r="Z38">
@@ -17134,10 +17135,10 @@
       <c r="I39">
         <v>1241254</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <v>11</v>
       </c>
-      <c r="K39" s="16">
+      <c r="K39" s="14">
         <f t="shared" si="12"/>
         <v>0.70951388889079681</v>
       </c>
@@ -17157,11 +17158,11 @@
         <f>I39/VLOOKUP(A39, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>95.042419601837679</v>
       </c>
-      <c r="P39" s="13">
+      <c r="P39" s="11">
         <f>J39/VLOOKUP(A39, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>8.4226646248085758E-4</v>
       </c>
-      <c r="Q39" s="12">
+      <c r="Q39" s="10">
         <f t="shared" si="13"/>
         <v>0.68019396595812698</v>
       </c>
@@ -17189,11 +17190,11 @@
         <f t="shared" si="19"/>
         <v>-0.87041808089764927</v>
       </c>
-      <c r="X39" s="13">
+      <c r="X39" s="11">
         <f t="shared" si="20"/>
         <v>-0.91341743794922747</v>
       </c>
-      <c r="Y39" s="12">
+      <c r="Y39" s="10">
         <v>21.1</v>
       </c>
       <c r="Z39">
@@ -17240,10 +17241,10 @@
       <c r="I40">
         <v>2380535</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="11">
         <v>11</v>
       </c>
-      <c r="K40" s="16">
+      <c r="K40" s="14">
         <f t="shared" si="12"/>
         <v>0.74505787037196569</v>
       </c>
@@ -17263,11 +17264,11 @@
         <f>I40/VLOOKUP(A40, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>182.27679938744257</v>
       </c>
-      <c r="P40" s="13">
+      <c r="P40" s="11">
         <f>J40/VLOOKUP(A40, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>8.4226646248085758E-4</v>
       </c>
-      <c r="Q40" s="12">
+      <c r="Q40" s="10">
         <f t="shared" si="13"/>
         <v>1.2296117753670146</v>
       </c>
@@ -17295,11 +17296,11 @@
         <f t="shared" si="19"/>
         <v>-0.66684181953773214</v>
       </c>
-      <c r="X40" s="13">
+      <c r="X40" s="11">
         <f t="shared" si="20"/>
         <v>-0.91341743794922747</v>
       </c>
-      <c r="Y40" s="12">
+      <c r="Y40" s="10">
         <v>21.23</v>
       </c>
       <c r="Z40">
@@ -17346,10 +17347,10 @@
       <c r="I41">
         <v>3553195</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="11">
         <v>25</v>
       </c>
-      <c r="K41" s="16">
+      <c r="K41" s="14">
         <f t="shared" si="12"/>
         <v>0.72939814814890269</v>
       </c>
@@ -17369,11 +17370,11 @@
         <f>I41/VLOOKUP(A41, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>185.51636819297238</v>
       </c>
-      <c r="P41" s="13">
+      <c r="P41" s="11">
         <f>J41/VLOOKUP(A41, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.3052785464418106E-3</v>
       </c>
-      <c r="Q41" s="12">
+      <c r="Q41" s="10">
         <f t="shared" si="13"/>
         <v>-1.3200964305994491</v>
       </c>
@@ -17401,7 +17402,7 @@
         <f t="shared" si="19"/>
         <v>-0.65928173476990526</v>
       </c>
-      <c r="X41" s="13">
+      <c r="X41" s="11">
         <f t="shared" si="20"/>
         <v>-0.49192601518130524</v>
       </c>
@@ -17452,10 +17453,10 @@
       <c r="I42">
         <v>5736899</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="11">
         <v>40</v>
       </c>
-      <c r="K42" s="16">
+      <c r="K42" s="14">
         <f t="shared" si="12"/>
         <v>0.70394675926218042</v>
       </c>
@@ -17475,11 +17476,11 @@
         <f>I42/VLOOKUP(A42, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>299.53004751213911</v>
       </c>
-      <c r="P42" s="13">
+      <c r="P42" s="11">
         <f>J42/VLOOKUP(A42, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.0884456743068972E-3</v>
       </c>
-      <c r="Q42" s="12">
+      <c r="Q42" s="10">
         <f t="shared" si="13"/>
         <v>-0.21703504232612753</v>
       </c>
@@ -17507,7 +17508,7 @@
         <f t="shared" si="19"/>
         <v>-0.39321142353792726</v>
       </c>
-      <c r="X42" s="13">
+      <c r="X42" s="11">
         <f t="shared" si="20"/>
         <v>0.22101051158277946</v>
       </c>
@@ -17558,10 +17559,10 @@
       <c r="I43">
         <v>9061562</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="11">
         <v>64</v>
       </c>
-      <c r="K43" s="16">
+      <c r="K43" s="14">
         <f t="shared" si="12"/>
         <v>0.71223379629373085</v>
       </c>
@@ -17581,11 +17582,11 @@
         <f>I43/VLOOKUP(A43, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>473.11449903409385</v>
       </c>
-      <c r="P43" s="13">
+      <c r="P43" s="11">
         <f>J43/VLOOKUP(A43, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.3415130788910351E-3</v>
       </c>
-      <c r="Q43" s="12">
+      <c r="Q43" s="10">
         <f t="shared" si="13"/>
         <v>5.904673747657558E-2</v>
       </c>
@@ -17613,7 +17614,7 @@
         <f t="shared" si="19"/>
         <v>1.1877415952883425E-2</v>
       </c>
-      <c r="X43" s="13">
+      <c r="X43" s="11">
         <f t="shared" si="20"/>
         <v>1.3617089544053145</v>
       </c>
@@ -17664,10 +17665,10 @@
       <c r="I44">
         <v>8192859</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="11">
         <v>39</v>
       </c>
-      <c r="K44" s="16">
+      <c r="K44" s="14">
         <f t="shared" si="12"/>
         <v>0.768171296294895</v>
       </c>
@@ -17687,11 +17688,11 @@
         <f>I44/VLOOKUP(A44, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>427.75852346890827</v>
       </c>
-      <c r="P44" s="13">
+      <c r="P44" s="11">
         <f>J44/VLOOKUP(A44, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.0362345324492245E-3</v>
       </c>
-      <c r="Q44" s="12">
+      <c r="Q44" s="10">
         <f t="shared" si="13"/>
         <v>-4.5875836585815469E-2</v>
       </c>
@@ -17719,7 +17720,7 @@
         <f t="shared" si="19"/>
         <v>-9.3968466812433135E-2</v>
       </c>
-      <c r="X44" s="13">
+      <c r="X44" s="11">
         <f t="shared" si="20"/>
         <v>0.17348140979850693</v>
       </c>
@@ -17770,10 +17771,10 @@
       <c r="I45">
         <v>7342441</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="11">
         <v>31</v>
       </c>
-      <c r="K45" s="16">
+      <c r="K45" s="14">
         <f t="shared" si="12"/>
         <v>0.69965277778101154</v>
       </c>
@@ -17793,11 +17794,11 @@
         <f>I45/VLOOKUP(A45, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>383.35722863259019</v>
       </c>
-      <c r="P45" s="13">
+      <c r="P45" s="11">
         <f>J45/VLOOKUP(A45, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.6185453975878453E-3</v>
       </c>
-      <c r="Q45" s="12">
+      <c r="Q45" s="10">
         <f t="shared" si="13"/>
         <v>-1.0411984154732441</v>
       </c>
@@ -17825,7 +17826,7 @@
         <f t="shared" si="19"/>
         <v>-0.19758643973242423</v>
       </c>
-      <c r="X45" s="13">
+      <c r="X45" s="11">
         <f t="shared" si="20"/>
         <v>-0.20675140447567128</v>
       </c>
@@ -17876,10 +17877,10 @@
       <c r="I46">
         <v>4745671</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="11">
         <v>29</v>
       </c>
-      <c r="K46" s="16">
+      <c r="K46" s="14">
         <f t="shared" si="12"/>
         <v>0.72319444444292458</v>
       </c>
@@ -17899,11 +17900,11 @@
         <f>I46/VLOOKUP(A46, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>247.77690179084217</v>
       </c>
-      <c r="P46" s="13">
+      <c r="P46" s="11">
         <f>J46/VLOOKUP(A46, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.5141231138725004E-3</v>
       </c>
-      <c r="Q46" s="12">
+      <c r="Q46" s="10">
         <f t="shared" si="13"/>
         <v>0.44994826629952328</v>
       </c>
@@ -17931,7 +17932,7 @@
         <f t="shared" si="19"/>
         <v>-0.51398619084240216</v>
       </c>
-      <c r="X46" s="13">
+      <c r="X46" s="11">
         <f t="shared" si="20"/>
         <v>-0.30180960804421592</v>
       </c>
@@ -17982,10 +17983,10 @@
       <c r="I47">
         <v>4434956</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="11">
         <v>9</v>
       </c>
-      <c r="K47" s="16">
+      <c r="K47" s="14">
         <f t="shared" si="12"/>
         <v>0.76854166666453239</v>
       </c>
@@ -18005,11 +18006,11 @@
         <f>I47/VLOOKUP(A47, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>231.55411684853547</v>
       </c>
-      <c r="P47" s="13">
+      <c r="P47" s="11">
         <f>J47/VLOOKUP(A47, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>4.6990027671905184E-4</v>
       </c>
-      <c r="Q47" s="12">
+      <c r="Q47" s="10">
         <f t="shared" si="13"/>
         <v>-0.77798827049403418</v>
       </c>
@@ -18037,7 +18038,7 @@
         <f t="shared" si="19"/>
         <v>-0.55184481854764245</v>
       </c>
-      <c r="X47" s="13">
+      <c r="X47" s="11">
         <f t="shared" si="20"/>
         <v>-1.2523916437296621</v>
       </c>
@@ -18088,10 +18089,10 @@
       <c r="I48">
         <v>6822925</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="11">
         <v>58</v>
       </c>
-      <c r="K48" s="16">
+      <c r="K48" s="14">
         <f t="shared" si="12"/>
         <v>0.74815972222131677</v>
       </c>
@@ -18111,11 +18112,11 @@
         <f>I48/VLOOKUP(A48, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>356.23270505925967</v>
       </c>
-      <c r="P48" s="13">
+      <c r="P48" s="11">
         <f>J48/VLOOKUP(A48, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.0282462277450009E-3</v>
       </c>
-      <c r="Q48" s="12">
+      <c r="Q48" s="10">
         <f t="shared" si="13"/>
         <v>-0.81239339976795799</v>
       </c>
@@ -18143,7 +18144,7 @@
         <f t="shared" si="19"/>
         <v>-0.26088612861424709</v>
       </c>
-      <c r="X48" s="13">
+      <c r="X48" s="11">
         <f t="shared" si="20"/>
         <v>1.0765343436996808</v>
       </c>
@@ -18194,10 +18195,10 @@
       <c r="I49">
         <v>4028826</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="11">
         <v>36</v>
       </c>
-      <c r="K49" s="16">
+      <c r="K49" s="14">
         <f t="shared" si="12"/>
         <v>0.72545138889108784</v>
       </c>
@@ -18217,11 +18218,11 @@
         <f>I49/VLOOKUP(A49, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>210.34960580587898</v>
       </c>
-      <c r="P49" s="13">
+      <c r="P49" s="11">
         <f>J49/VLOOKUP(A49, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.8796011068762074E-3</v>
       </c>
-      <c r="Q49" s="12">
+      <c r="Q49" s="10">
         <f t="shared" si="13"/>
         <v>-1.2945366464555372</v>
       </c>
@@ -18249,7 +18250,7 @@
         <f t="shared" si="19"/>
         <v>-0.60132915136044274</v>
       </c>
-      <c r="X49" s="13">
+      <c r="X49" s="11">
         <f t="shared" si="20"/>
         <v>3.0894104445690143E-2</v>
       </c>
@@ -18300,10 +18301,10 @@
       <c r="I50">
         <v>1930630</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="11">
         <v>10</v>
       </c>
-      <c r="K50" s="16">
+      <c r="K50" s="14">
         <f t="shared" si="12"/>
         <v>0.74268518518510973</v>
       </c>
@@ -18323,11 +18324,11 @@
         <f>I50/VLOOKUP(A50, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>119.55105579292835</v>
       </c>
-      <c r="P50" s="13">
+      <c r="P50" s="11">
         <f>J50/VLOOKUP(A50, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>6.1923338906433832E-4</v>
       </c>
-      <c r="Q50" s="12">
+      <c r="Q50" s="10">
         <f t="shared" si="13"/>
         <v>3.8420876276232759E-2</v>
       </c>
@@ -18355,11 +18356,11 @@
         <f t="shared" si="19"/>
         <v>-0.8132230101116249</v>
       </c>
-      <c r="X50" s="13">
+      <c r="X50" s="11">
         <f t="shared" si="20"/>
         <v>-1.116449995187105</v>
       </c>
-      <c r="Y50" s="12">
+      <c r="Y50" s="10">
         <v>45.5</v>
       </c>
       <c r="Z50">
@@ -18406,10 +18407,10 @@
       <c r="I51">
         <v>8676720</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="11">
         <v>12</v>
       </c>
-      <c r="K51" s="16">
+      <c r="K51" s="14">
         <f t="shared" si="12"/>
         <v>0.71901620370044839</v>
       </c>
@@ -18429,11 +18430,11 @@
         <f>I51/VLOOKUP(A51, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>537.29147315623254</v>
       </c>
-      <c r="P51" s="13">
+      <c r="P51" s="11">
         <f>J51/VLOOKUP(A51, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>7.4308006687720605E-4</v>
       </c>
-      <c r="Q51" s="12">
+      <c r="Q51" s="10">
         <f t="shared" si="13"/>
         <v>0.16950719334279232</v>
       </c>
@@ -18461,11 +18462,11 @@
         <f t="shared" si="19"/>
         <v>0.16164529977674558</v>
       </c>
-      <c r="X51" s="13">
+      <c r="X51" s="11">
         <f t="shared" si="20"/>
         <v>-1.0037092822669036</v>
       </c>
-      <c r="Y51" s="12">
+      <c r="Y51" s="10">
         <v>45.63</v>
       </c>
       <c r="Z51">
@@ -18512,10 +18513,10 @@
       <c r="I52">
         <v>8185081</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="11">
         <v>25</v>
       </c>
-      <c r="K52" s="16">
+      <c r="K52" s="14">
         <f t="shared" si="12"/>
         <v>0.75474537037371192</v>
       </c>
@@ -18535,11 +18536,11 @@
         <f>I52/VLOOKUP(A52, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>506.84754473961237</v>
       </c>
-      <c r="P52" s="13">
+      <c r="P52" s="11">
         <f>J52/VLOOKUP(A52, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.5480834726608458E-3</v>
       </c>
-      <c r="Q52" s="12">
+      <c r="Q52" s="10">
         <f t="shared" si="13"/>
         <v>-0.89583548640837696</v>
       </c>
@@ -18567,11 +18568,11 @@
         <f t="shared" si="19"/>
         <v>9.0599215155104343E-2</v>
       </c>
-      <c r="X52" s="13">
+      <c r="X52" s="11">
         <f t="shared" si="20"/>
         <v>-0.27089464828559345</v>
       </c>
-      <c r="Y52" s="12">
+      <c r="Y52" s="10">
         <v>45.39</v>
       </c>
       <c r="Z52">
@@ -18618,10 +18619,10 @@
       <c r="I53">
         <v>2336647</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="11">
         <v>11</v>
       </c>
-      <c r="K53" s="16">
+      <c r="K53" s="14">
         <f t="shared" si="12"/>
         <v>0.74584490740380716</v>
       </c>
@@ -18641,11 +18642,11 @@
         <f>I53/VLOOKUP(A53, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>144.69298408570191</v>
       </c>
-      <c r="P53" s="13">
+      <c r="P53" s="11">
         <f>J53/VLOOKUP(A53, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>6.8115672797077213E-4</v>
       </c>
-      <c r="Q53" s="12">
+      <c r="Q53" s="10">
         <f t="shared" si="13"/>
         <v>-0.2443458829260732</v>
       </c>
@@ -18673,11 +18674,11 @@
         <f t="shared" si="19"/>
         <v>-0.75455004450103458</v>
       </c>
-      <c r="X53" s="13">
+      <c r="X53" s="11">
         <f t="shared" si="20"/>
         <v>-1.0600796387270044</v>
       </c>
-      <c r="Y53" s="12">
+      <c r="Y53" s="10">
         <v>45.7</v>
       </c>
       <c r="Z53">
@@ -18724,10 +18725,10 @@
       <c r="I54">
         <v>2048015</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="11">
         <v>10</v>
       </c>
-      <c r="K54" s="16">
+      <c r="K54" s="14">
         <f t="shared" si="12"/>
         <v>0.75703703703766223</v>
       </c>
@@ -18747,11 +18748,11 @@
         <f>I54/VLOOKUP(A54, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>126.81992693046008</v>
       </c>
-      <c r="P54" s="13">
+      <c r="P54" s="11">
         <f>J54/VLOOKUP(A54, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>6.1923338906433832E-4</v>
       </c>
-      <c r="Q54" s="12">
+      <c r="Q54" s="10">
         <f t="shared" si="13"/>
         <v>1.3373179828805188</v>
       </c>
@@ -18779,11 +18780,11 @@
         <f t="shared" si="19"/>
         <v>-0.79625986308034502</v>
       </c>
-      <c r="X54" s="13">
+      <c r="X54" s="11">
         <f t="shared" si="20"/>
         <v>-1.116449995187105</v>
       </c>
-      <c r="Y54" s="12">
+      <c r="Y54" s="10">
         <v>45.26</v>
       </c>
       <c r="Z54">
@@ -18830,10 +18831,10 @@
       <c r="I55">
         <v>4077966</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="11">
         <v>14</v>
       </c>
-      <c r="K55" s="16">
+      <c r="K55" s="14">
         <f t="shared" si="12"/>
         <v>0.73958333333575865</v>
       </c>
@@ -18853,11 +18854,11 @@
         <f>I55/VLOOKUP(A55, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>252.52127066691435</v>
       </c>
-      <c r="P55" s="13">
+      <c r="P55" s="11">
         <f>J55/VLOOKUP(A55, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>8.6692674469007367E-4</v>
       </c>
-      <c r="Q55" s="12">
+      <c r="Q55" s="10">
         <f t="shared" si="13"/>
         <v>-0.27342494546409679</v>
       </c>
@@ -18885,11 +18886,11 @@
         <f t="shared" si="19"/>
         <v>-0.50291439918552494</v>
       </c>
-      <c r="X55" s="13">
+      <c r="X55" s="11">
         <f t="shared" si="20"/>
         <v>-0.89096856934670188</v>
       </c>
-      <c r="Y55" s="12">
+      <c r="Y55" s="10">
         <v>46.04</v>
       </c>
       <c r="Z55">
@@ -18936,10 +18937,10 @@
       <c r="I56">
         <v>11336102</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="11">
         <v>45</v>
       </c>
-      <c r="K56" s="16">
+      <c r="K56" s="14">
         <f t="shared" si="12"/>
         <v>0.75347222221898846</v>
       </c>
@@ -18959,11 +18960,11 @@
         <f>I56/VLOOKUP(A56, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>701.96928602390244</v>
       </c>
-      <c r="P56" s="13">
+      <c r="P56" s="11">
         <f>J56/VLOOKUP(A56, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.7865502507895224E-3</v>
       </c>
-      <c r="Q56" s="12">
+      <c r="Q56" s="10">
         <f t="shared" si="13"/>
         <v>1.1319439667616191</v>
       </c>
@@ -18991,11 +18992,11 @@
         <f t="shared" si="19"/>
         <v>0.54594898319744645</v>
       </c>
-      <c r="X56" s="13">
+      <c r="X56" s="11">
         <f t="shared" si="20"/>
         <v>0.85651248091642207</v>
       </c>
-      <c r="Y56" s="12">
+      <c r="Y56" s="10">
         <v>46.05</v>
       </c>
       <c r="Z56">
@@ -19042,10 +19043,10 @@
       <c r="I57">
         <v>10820240</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="11">
         <v>36</v>
       </c>
-      <c r="K57" s="16">
+      <c r="K57" s="14">
         <f t="shared" si="12"/>
         <v>0.75972222222480923</v>
       </c>
@@ -19065,11 +19066,11 @@
         <f>I57/VLOOKUP(A57, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>670.0253885689516</v>
       </c>
-      <c r="P57" s="13">
+      <c r="P57" s="11">
         <f>J57/VLOOKUP(A57, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.229240200631618E-3</v>
       </c>
-      <c r="Q57" s="12">
+      <c r="Q57" s="10">
         <f t="shared" si="13"/>
         <v>2.3454971904655992</v>
       </c>
@@ -19097,11 +19098,11 @@
         <f t="shared" si="19"/>
         <v>0.47140246572204431</v>
       </c>
-      <c r="X57" s="13">
+      <c r="X57" s="11">
         <f t="shared" si="20"/>
         <v>0.34917927277551514</v>
       </c>
-      <c r="Y57" s="12">
+      <c r="Y57" s="10">
         <v>46.62</v>
       </c>
       <c r="Z57">
@@ -19148,10 +19149,10 @@
       <c r="I58">
         <v>9479257</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="11">
         <v>69</v>
       </c>
-      <c r="K58" s="16">
+      <c r="K58" s="14">
         <f t="shared" si="12"/>
         <v>0.78125</v>
       </c>
@@ -19171,11 +19172,11 @@
         <f>I58/VLOOKUP(A58, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>586.98724379218527</v>
       </c>
-      <c r="P58" s="13">
+      <c r="P58" s="11">
         <f>J58/VLOOKUP(A58, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>4.2727103845439348E-3</v>
       </c>
-      <c r="Q58" s="12">
+      <c r="Q58" s="10">
         <f t="shared" si="13"/>
         <v>2.5895338111855373</v>
       </c>
@@ -19203,11 +19204,11 @@
         <f t="shared" si="19"/>
         <v>0.2776188324175618</v>
       </c>
-      <c r="X58" s="13">
+      <c r="X58" s="11">
         <f t="shared" si="20"/>
         <v>2.2094010359588405</v>
       </c>
-      <c r="Y58" s="12">
+      <c r="Y58" s="10">
         <v>46.7</v>
       </c>
       <c r="Z58">
@@ -19254,10 +19255,10 @@
       <c r="I59">
         <v>5138084</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="11">
         <v>30</v>
       </c>
-      <c r="K59" s="16">
+      <c r="K59" s="14">
         <f t="shared" si="12"/>
         <v>0.75069444444670808</v>
       </c>
@@ -19277,11 +19278,11 @@
         <f>I59/VLOOKUP(A59, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>318.16731686172517</v>
       </c>
-      <c r="P59" s="13">
+      <c r="P59" s="11">
         <f>J59/VLOOKUP(A59, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.857700167193015E-3</v>
       </c>
-      <c r="Q59" s="12">
+      <c r="Q59" s="10">
         <f t="shared" si="13"/>
         <v>-0.57124987140692629</v>
       </c>
@@ -19309,11 +19310,11 @@
         <f t="shared" si="19"/>
         <v>-0.34971818583197645</v>
       </c>
-      <c r="X59" s="13">
+      <c r="X59" s="11">
         <f t="shared" si="20"/>
         <v>1.0957134014910422E-2</v>
       </c>
-      <c r="Y59" s="12">
+      <c r="Y59" s="10">
         <v>46.6</v>
       </c>
       <c r="Z59">
@@ -19360,10 +19361,10 @@
       <c r="I60">
         <v>10033166</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="11">
         <v>48</v>
       </c>
-      <c r="K60" s="16">
+      <c r="K60" s="14">
         <f t="shared" si="12"/>
         <v>0.74407407407124992</v>
       </c>
@@ -19383,11 +19384,11 @@
         <f>I60/VLOOKUP(A60, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>408.88279403374361</v>
       </c>
-      <c r="P60" s="13">
+      <c r="P60" s="11">
         <f>J60/VLOOKUP(A60, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.9561496454478769E-3</v>
       </c>
-      <c r="Q60" s="12">
+      <c r="Q60" s="10">
         <f t="shared" si="13"/>
         <v>-8.6749907770581725E-2</v>
       </c>
@@ -19415,7 +19416,7 @@
         <f t="shared" si="19"/>
         <v>-0.13801819168347831</v>
       </c>
-      <c r="X60" s="13">
+      <c r="X60" s="11">
         <f t="shared" si="20"/>
         <v>0.10057814413070863</v>
       </c>
@@ -19466,10 +19467,10 @@
       <c r="I61">
         <v>16320737</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="11">
         <v>61</v>
       </c>
-      <c r="K61" s="16">
+      <c r="K61" s="14">
         <f t="shared" si="12"/>
         <v>0.72938657407212304</v>
       </c>
@@ -19489,11 +19490,11 @@
         <f>I61/VLOOKUP(A61, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>665.12091449995921</v>
       </c>
-      <c r="P61" s="13">
+      <c r="P61" s="11">
         <f>J61/VLOOKUP(A61, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.4859401744233432E-3</v>
       </c>
-      <c r="Q61" s="12">
+      <c r="Q61" s="10">
         <f t="shared" si="13"/>
         <v>-4.4891584605640439E-2</v>
       </c>
@@ -19521,7 +19522,7 @@
         <f t="shared" si="19"/>
         <v>0.45995704136806853</v>
       </c>
-      <c r="X61" s="13">
+      <c r="X61" s="11">
         <f t="shared" si="20"/>
         <v>0.58285964727538908</v>
       </c>
@@ -19572,10 +19573,10 @@
       <c r="I62">
         <v>21426368</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="11">
         <v>56</v>
       </c>
-      <c r="K62" s="16">
+      <c r="K62" s="14">
         <f t="shared" si="12"/>
         <v>0.72681712963094469</v>
       </c>
@@ -19595,11 +19596,11 @@
         <f>I62/VLOOKUP(A62, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>873.19129513407779</v>
       </c>
-      <c r="P62" s="13">
+      <c r="P62" s="11">
         <f>J62/VLOOKUP(A62, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.2821745863558563E-3</v>
       </c>
-      <c r="Q62" s="12">
+      <c r="Q62" s="10">
         <f t="shared" si="13"/>
         <v>0.11653657844993597</v>
       </c>
@@ -19627,7 +19628,7 @@
         <f t="shared" si="19"/>
         <v>0.94552466153493486</v>
       </c>
-      <c r="X62" s="13">
+      <c r="X62" s="11">
         <f t="shared" si="20"/>
         <v>0.39736676145051214</v>
       </c>
@@ -19678,10 +19679,10 @@
       <c r="I63">
         <v>18230009</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="11">
         <v>68</v>
       </c>
-      <c r="K63" s="16">
+      <c r="K63" s="14">
         <f t="shared" si="12"/>
         <v>0.72381944444350665</v>
       </c>
@@ -19701,11 +19702,11 @@
         <f>I63/VLOOKUP(A63, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>742.92970087211677</v>
       </c>
-      <c r="P63" s="13">
+      <c r="P63" s="11">
         <f>J63/VLOOKUP(A63, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.7712119977178254E-3</v>
       </c>
-      <c r="Q63" s="12">
+      <c r="Q63" s="10">
         <f t="shared" si="13"/>
         <v>-5.3253015766731721E-2</v>
       </c>
@@ -19733,7 +19734,7 @@
         <f t="shared" si="19"/>
         <v>0.64153707746766797</v>
       </c>
-      <c r="X63" s="13">
+      <c r="X63" s="11">
         <f t="shared" si="20"/>
         <v>0.84254968743021741</v>
       </c>
@@ -19784,10 +19785,10 @@
       <c r="I64">
         <v>28632901</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="11">
         <v>41</v>
       </c>
-      <c r="K64" s="16">
+      <c r="K64" s="14">
         <f t="shared" si="12"/>
         <v>0.73435185185371665</v>
       </c>
@@ -19807,11 +19808,11 @@
         <f>I64/VLOOKUP(A64, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1166.8799820686284</v>
       </c>
-      <c r="P64" s="13">
+      <c r="P64" s="11">
         <f>J64/VLOOKUP(A64, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.6708778221533947E-3</v>
       </c>
-      <c r="Q64" s="12">
+      <c r="Q64" s="10">
         <f t="shared" si="13"/>
         <v>2.5536686114767653E-2</v>
       </c>
@@ -19839,7 +19840,7 @@
         <f t="shared" si="19"/>
         <v>1.6308971607351292</v>
       </c>
-      <c r="X64" s="13">
+      <c r="X64" s="11">
         <f t="shared" si="20"/>
         <v>-0.15911189602411963</v>
       </c>
@@ -19890,10 +19891,10 @@
       <c r="I65">
         <v>16890622</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="11">
         <v>54</v>
       </c>
-      <c r="K65" s="16">
+      <c r="K65" s="14">
         <f t="shared" si="12"/>
         <v>0.72499999999854481</v>
       </c>
@@ -19913,11 +19914,11 @@
         <f>I65/VLOOKUP(A65, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>688.34550493112727</v>
       </c>
-      <c r="P65" s="13">
+      <c r="P65" s="11">
         <f>J65/VLOOKUP(A65, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.2006683511288615E-3</v>
       </c>
-      <c r="Q65" s="12">
+      <c r="Q65" s="10">
         <f t="shared" si="13"/>
         <v>-0.23536372384997031</v>
       </c>
@@ -19945,14 +19946,14 @@
         <f t="shared" si="19"/>
         <v>0.51415557299301273</v>
       </c>
-      <c r="X65" s="13">
+      <c r="X65" s="11">
         <f t="shared" si="20"/>
         <v>0.32316960712056125</v>
       </c>
-      <c r="Y65" s="12">
+      <c r="Y65" s="10">
         <v>83.79</v>
       </c>
-      <c r="Z65" s="12">
+      <c r="Z65" s="10">
         <v>83.87</v>
       </c>
       <c r="AA65" s="4">
@@ -19996,10 +19997,10 @@
       <c r="I66">
         <v>12224187</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="11">
         <v>49</v>
       </c>
-      <c r="K66" s="16">
+      <c r="K66" s="14">
         <f t="shared" si="12"/>
         <v>0.7381944444423425</v>
       </c>
@@ -20019,11 +20020,11 @@
         <f>I66/VLOOKUP(A66, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>498.17373054038632</v>
       </c>
-      <c r="P66" s="13">
+      <c r="P66" s="11">
         <f>J66/VLOOKUP(A66, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.9969027630613741E-3</v>
       </c>
-      <c r="Q66" s="12">
+      <c r="Q66" s="10">
         <f t="shared" si="13"/>
         <v>0.23570488516397545</v>
       </c>
@@ -20051,11 +20052,11 @@
         <f t="shared" si="19"/>
         <v>7.0357394547807636E-2</v>
       </c>
-      <c r="X66" s="13">
+      <c r="X66" s="11">
         <f t="shared" si="20"/>
         <v>0.13767672129568387</v>
       </c>
-      <c r="Y66" s="12">
+      <c r="Y66" s="10">
         <v>84.11</v>
       </c>
       <c r="Z66">
@@ -20102,10 +20103,10 @@
       <c r="I67">
         <v>10942134</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="11">
         <v>69</v>
       </c>
-      <c r="K67" s="16">
+      <c r="K67" s="14">
         <f t="shared" si="12"/>
         <v>0.72777777777810115</v>
       </c>
@@ -20125,11 +20126,11 @@
         <f>I67/VLOOKUP(A67, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>445.92607384464912</v>
       </c>
-      <c r="P67" s="13">
+      <c r="P67" s="11">
         <f>J67/VLOOKUP(A67, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.8119651153313227E-3</v>
       </c>
-      <c r="Q67" s="12">
+      <c r="Q67" s="10">
         <f t="shared" si="13"/>
         <v>-0.59936861701502653</v>
       </c>
@@ -20157,14 +20158,14 @@
         <f t="shared" si="19"/>
         <v>-5.1571398218021092E-2</v>
       </c>
-      <c r="X67" s="13">
+      <c r="X67" s="11">
         <f t="shared" si="20"/>
         <v>0.87964826459519263</v>
       </c>
-      <c r="Y67" s="20">
+      <c r="Y67" s="18">
         <v>84.14</v>
       </c>
-      <c r="Z67" s="12">
+      <c r="Z67" s="10">
         <v>84.56</v>
       </c>
       <c r="AA67" s="4">
@@ -20208,10 +20209,10 @@
       <c r="I68">
         <v>15655615</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="11">
         <v>62</v>
       </c>
-      <c r="K68" s="16">
+      <c r="K68" s="14">
         <f t="shared" ref="K68:K85" si="24">MOD(F68, 1)</f>
         <v>0.73750000000291038</v>
       </c>
@@ -20231,11 +20232,11 @@
         <f>I68/VLOOKUP(A68, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>638.01511940663465</v>
       </c>
-      <c r="P68" s="13">
+      <c r="P68" s="11">
         <f>J68/VLOOKUP(A68, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.5266932920368409E-3</v>
       </c>
-      <c r="Q68" s="12">
+      <c r="Q68" s="10">
         <f t="shared" ref="Q68:Q85" si="25">STANDARDIZE(D68, D$1, D$2)</f>
         <v>4.4230949688457914E-2</v>
       </c>
@@ -20263,14 +20264,14 @@
         <f t="shared" ref="W68:W85" si="31">STANDARDIZE(O68, O$1, O$2)</f>
         <v>0.3967010585795307</v>
       </c>
-      <c r="X68" s="13">
+      <c r="X68" s="11">
         <f t="shared" ref="X68:X85" si="32">STANDARDIZE(P68, P$1, P$2)</f>
         <v>0.61995822444036475</v>
       </c>
-      <c r="Y68" s="12">
+      <c r="Y68" s="10">
         <v>84.77</v>
       </c>
-      <c r="Z68" s="12">
+      <c r="Z68" s="10">
         <v>84.27</v>
       </c>
       <c r="AA68" s="4">
@@ -20314,10 +20315,10 @@
       <c r="I69">
         <v>24069567</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="11">
         <v>81</v>
       </c>
-      <c r="K69" s="16">
+      <c r="K69" s="14">
         <f t="shared" si="24"/>
         <v>0.75972222222480923</v>
       </c>
@@ -20337,11 +20338,11 @@
         <f>I69/VLOOKUP(A69, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>980.90989485695661</v>
       </c>
-      <c r="P69" s="13">
+      <c r="P69" s="11">
         <f>J69/VLOOKUP(A69, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.3010025266932922E-3</v>
       </c>
-      <c r="Q69" s="12">
+      <c r="Q69" s="10">
         <f t="shared" si="25"/>
         <v>8.7703355064980837E-2</v>
       </c>
@@ -20369,11 +20370,11 @@
         <f t="shared" si="31"/>
         <v>1.1969043339118539</v>
       </c>
-      <c r="X69" s="13">
+      <c r="X69" s="11">
         <f t="shared" si="32"/>
         <v>1.3248311905748982</v>
       </c>
-      <c r="Y69" s="12">
+      <c r="Y69" s="10">
         <v>84.2</v>
       </c>
       <c r="Z69">
@@ -20420,10 +20421,10 @@
       <c r="I70">
         <v>2530128</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="11">
         <v>10</v>
       </c>
-      <c r="K70" s="16">
+      <c r="K70" s="14">
         <f t="shared" si="24"/>
         <v>0.72101851851766696</v>
       </c>
@@ -20443,11 +20444,11 @@
         <f>I70/VLOOKUP(A70, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>275.40306955480571</v>
       </c>
-      <c r="P70" s="13">
+      <c r="P70" s="11">
         <f>J70/VLOOKUP(A70, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.0884946119516709E-3</v>
       </c>
-      <c r="Q70" s="12">
+      <c r="Q70" s="10">
         <f t="shared" si="25"/>
         <v>2.45470339253347</v>
       </c>
@@ -20475,14 +20476,14 @@
         <f t="shared" si="31"/>
         <v>-0.44951582992607897</v>
       </c>
-      <c r="X70" s="13">
+      <c r="X70" s="11">
         <f t="shared" si="32"/>
         <v>-0.68926982573546502</v>
       </c>
-      <c r="Y70" s="12">
+      <c r="Y70" s="10">
         <v>49</v>
       </c>
-      <c r="Z70" s="12">
+      <c r="Z70" s="10">
         <v>48.94</v>
       </c>
       <c r="AA70" s="4">
@@ -20526,10 +20527,10 @@
       <c r="I71">
         <v>2564042</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="11">
         <v>10</v>
       </c>
-      <c r="K71" s="16">
+      <c r="K71" s="14">
         <f t="shared" si="24"/>
         <v>0.76193287037312984</v>
       </c>
@@ -20549,11 +20550,11 @@
         <f>I71/VLOOKUP(A71, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>279.09459018177859</v>
       </c>
-      <c r="P71" s="13">
+      <c r="P71" s="11">
         <f>J71/VLOOKUP(A71, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.0884946119516709E-3</v>
       </c>
-      <c r="Q71" s="12">
+      <c r="Q71" s="10">
         <f t="shared" si="25"/>
         <v>0.21285309486406295</v>
       </c>
@@ -20581,11 +20582,11 @@
         <f t="shared" si="31"/>
         <v>-0.44090103871853986</v>
       </c>
-      <c r="X71" s="13">
+      <c r="X71" s="11">
         <f t="shared" si="32"/>
         <v>-0.68926982573546502</v>
       </c>
-      <c r="Y71" s="12">
+      <c r="Y71" s="10">
         <v>49.11</v>
       </c>
       <c r="Z71">
@@ -20632,10 +20633,10 @@
       <c r="I72">
         <v>1564770</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="11">
         <v>8</v>
       </c>
-      <c r="K72" s="16">
+      <c r="K72" s="14">
         <f t="shared" si="24"/>
         <v>0.72400462962832535</v>
       </c>
@@ -20655,11 +20656,11 @@
         <f>I72/VLOOKUP(A72, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>170.32437139436161</v>
       </c>
-      <c r="P72" s="13">
+      <c r="P72" s="11">
         <f>J72/VLOOKUP(A72, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>8.7079568956133669E-4</v>
       </c>
-      <c r="Q72" s="12">
+      <c r="Q72" s="10">
         <f t="shared" si="25"/>
         <v>-0.72987461848678348</v>
       </c>
@@ -20687,14 +20688,14 @@
         <f t="shared" si="31"/>
         <v>-0.69473484303357358</v>
       </c>
-      <c r="X72" s="13">
+      <c r="X72" s="11">
         <f t="shared" si="32"/>
         <v>-0.88744657254599457</v>
       </c>
-      <c r="Y72" s="12">
+      <c r="Y72" s="10">
         <v>48.88</v>
       </c>
-      <c r="Z72" s="12">
+      <c r="Z72" s="10">
         <v>48.82</v>
       </c>
       <c r="AA72" s="4">
@@ -20738,10 +20739,10 @@
       <c r="I73">
         <v>2212768</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="11">
         <v>10</v>
       </c>
-      <c r="K73" s="16">
+      <c r="K73" s="14">
         <f t="shared" si="24"/>
         <v>0.731863425928168</v>
       </c>
@@ -20761,11 +20762,11 @@
         <f>I73/VLOOKUP(A73, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>240.85860454990748</v>
       </c>
-      <c r="P73" s="13">
+      <c r="P73" s="11">
         <f>J73/VLOOKUP(A73, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.0884946119516709E-3</v>
       </c>
-      <c r="Q73" s="12">
+      <c r="Q73" s="10">
         <f t="shared" si="25"/>
         <v>9.3224663318457246E-2</v>
       </c>
@@ -20793,14 +20794,14 @@
         <f t="shared" si="31"/>
         <v>-0.53013121406314989</v>
       </c>
-      <c r="X73" s="13">
+      <c r="X73" s="11">
         <f t="shared" si="32"/>
         <v>-0.68926982573546502</v>
       </c>
-      <c r="Y73" s="12">
+      <c r="Y73" s="10">
         <v>49.32</v>
       </c>
-      <c r="Z73" s="12">
+      <c r="Z73" s="10">
         <v>49.2</v>
       </c>
       <c r="AA73" s="4">
@@ -20844,10 +20845,10 @@
       <c r="I74">
         <v>828298</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="11">
         <v>8</v>
       </c>
-      <c r="K74" s="16">
+      <c r="K74" s="14">
         <f t="shared" si="24"/>
         <v>0.70518518518656492</v>
       </c>
@@ -20867,11 +20868,11 @@
         <f>I74/VLOOKUP(A74, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>90.159791009034507</v>
       </c>
-      <c r="P74" s="13">
+      <c r="P74" s="11">
         <f>J74/VLOOKUP(A74, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>8.7079568956133669E-4</v>
       </c>
-      <c r="Q74" s="12">
+      <c r="Q74" s="10">
         <f t="shared" si="25"/>
         <v>5.2067293457369532E-2</v>
       </c>
@@ -20899,11 +20900,11 @@
         <f t="shared" si="31"/>
         <v>-0.88181252511763242</v>
       </c>
-      <c r="X74" s="13">
+      <c r="X74" s="11">
         <f t="shared" si="32"/>
         <v>-0.88744657254599457</v>
       </c>
-      <c r="Y74" s="12">
+      <c r="Y74" s="10">
         <v>49.1</v>
       </c>
       <c r="Z74">
@@ -20950,10 +20951,10 @@
       <c r="I75">
         <v>903368</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="11">
         <v>9</v>
       </c>
-      <c r="K75" s="16">
+      <c r="K75" s="14">
         <f t="shared" si="24"/>
         <v>0.70833333333575865</v>
       </c>
@@ -20973,11 +20974,11 @@
         <f>I75/VLOOKUP(A75, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>98.331120060955698</v>
       </c>
-      <c r="P75" s="13">
+      <c r="P75" s="11">
         <f>J75/VLOOKUP(A75, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>9.7964515075650376E-4</v>
       </c>
-      <c r="Q75" s="12">
+      <c r="Q75" s="10">
         <f t="shared" si="25"/>
         <v>-1.0070142246251697</v>
       </c>
@@ -21005,11 +21006,11 @@
         <f t="shared" si="31"/>
         <v>-0.86274333906025302</v>
       </c>
-      <c r="X75" s="13">
+      <c r="X75" s="11">
         <f t="shared" si="32"/>
         <v>-0.7883581991407298</v>
       </c>
-      <c r="Y75" s="12">
+      <c r="Y75" s="10">
         <v>49</v>
       </c>
       <c r="Z75">
@@ -21056,10 +21057,10 @@
       <c r="I76">
         <v>43451</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="11">
         <v>2</v>
       </c>
-      <c r="K76" s="16">
+      <c r="K76" s="14">
         <f t="shared" si="24"/>
         <v>0.68641203703737119</v>
       </c>
@@ -21079,11 +21080,11 @@
         <f>I76/VLOOKUP(A76, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>17.401281537845414</v>
       </c>
-      <c r="P76" s="13">
+      <c r="P76" s="11">
         <f>J76/VLOOKUP(A76, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>8.0096115338406087E-4</v>
       </c>
-      <c r="Q76" s="12">
+      <c r="Q76" s="10">
         <f t="shared" si="25"/>
         <v>-1.0647245935183964</v>
       </c>
@@ -21111,11 +21112,11 @@
         <f t="shared" si="31"/>
         <v>-1.0516068811578527</v>
       </c>
-      <c r="X76" s="13">
+      <c r="X76" s="11">
         <f t="shared" si="32"/>
         <v>-0.95101868876354934</v>
       </c>
-      <c r="Y76" s="12">
+      <c r="Y76" s="10">
         <v>28.2</v>
       </c>
       <c r="Z76">
@@ -21162,10 +21163,10 @@
       <c r="I77">
         <v>76243</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="11">
         <v>0</v>
       </c>
-      <c r="K77" s="16">
+      <c r="K77" s="14">
         <f t="shared" si="24"/>
         <v>0.76329861111298669</v>
       </c>
@@ -21185,11 +21186,11 @@
         <f>I77/VLOOKUP(A77, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>30.533840608730475</v>
       </c>
-      <c r="P77" s="13">
+      <c r="P77" s="11">
         <f>J77/VLOOKUP(A77, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>0</v>
       </c>
-      <c r="Q77" s="12">
+      <c r="Q77" s="10">
         <f t="shared" si="25"/>
         <v>1.9749806537436203</v>
       </c>
@@ -21217,11 +21218,11 @@
         <f t="shared" si="31"/>
         <v>-1.020959821084638</v>
       </c>
-      <c r="X77" s="13">
+      <c r="X77" s="11">
         <f t="shared" si="32"/>
         <v>-1.6801535597881128</v>
       </c>
-      <c r="Y77" s="12">
+      <c r="Y77" s="10">
         <v>28.3</v>
       </c>
       <c r="Z77">
@@ -21268,10 +21269,10 @@
       <c r="I78">
         <v>215825</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="11">
         <v>1</v>
       </c>
-      <c r="K78" s="16">
+      <c r="K78" s="14">
         <f t="shared" si="24"/>
         <v>0.70768518518161727</v>
       </c>
@@ -21291,11 +21292,11 @@
         <f>I78/VLOOKUP(A78, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>86.433720464557467</v>
       </c>
-      <c r="P78" s="13">
+      <c r="P78" s="11">
         <f>J78/VLOOKUP(A78, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>4.0048057669203043E-4</v>
       </c>
-      <c r="Q78" s="12">
+      <c r="Q78" s="10">
         <f t="shared" si="25"/>
         <v>1.3428188326424503E-2</v>
       </c>
@@ -21323,11 +21324,11 @@
         <f t="shared" si="31"/>
         <v>-0.89050794443364278</v>
       </c>
-      <c r="X78" s="13">
+      <c r="X78" s="11">
         <f t="shared" si="32"/>
         <v>-1.3155861242758311</v>
       </c>
-      <c r="Y78" s="12">
+      <c r="Y78" s="10">
         <v>27.93</v>
       </c>
       <c r="Z78">
@@ -21374,10 +21375,10 @@
       <c r="I79">
         <v>274476</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="11">
         <v>2</v>
       </c>
-      <c r="K79" s="16">
+      <c r="K79" s="14">
         <f t="shared" si="24"/>
         <v>0.69630787037021946</v>
       </c>
@@ -21397,11 +21398,11 @@
         <f>I79/VLOOKUP(A79, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>109.92230676812174</v>
       </c>
-      <c r="P79" s="13">
+      <c r="P79" s="11">
         <f>J79/VLOOKUP(A79, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>8.0096115338406087E-4</v>
       </c>
-      <c r="Q79" s="12">
+      <c r="Q79" s="10">
         <f t="shared" si="25"/>
         <v>-2.147637087861495</v>
       </c>
@@ -21429,11 +21430,11 @@
         <f t="shared" si="31"/>
         <v>-0.83569333354214159</v>
       </c>
-      <c r="X79" s="13">
+      <c r="X79" s="11">
         <f t="shared" si="32"/>
         <v>-0.95101868876354934</v>
       </c>
-      <c r="Y79" s="12">
+      <c r="Y79" s="10">
         <v>28.15</v>
       </c>
       <c r="Z79">
@@ -21480,10 +21481,10 @@
       <c r="I80">
         <v>82166</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="11">
         <v>5</v>
       </c>
-      <c r="K80" s="16">
+      <c r="K80" s="14">
         <f t="shared" si="24"/>
         <v>0.71604166666656965</v>
       </c>
@@ -21503,11 +21504,11 @@
         <f>I80/VLOOKUP(A80, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>32.905887064477376</v>
       </c>
-      <c r="P80" s="13">
+      <c r="P80" s="11">
         <f>J80/VLOOKUP(A80, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.0024028834601522E-3</v>
       </c>
-      <c r="Q80" s="12">
+      <c r="Q80" s="10">
         <f t="shared" si="25"/>
         <v>0.21445064893568239</v>
       </c>
@@ -21535,11 +21536,11 @@
         <f t="shared" si="31"/>
         <v>-1.0154242472613382</v>
       </c>
-      <c r="X80" s="13">
+      <c r="X80" s="11">
         <f t="shared" si="32"/>
         <v>0.14268361777329577</v>
       </c>
-      <c r="Y80" s="12">
+      <c r="Y80" s="10">
         <v>29.04</v>
       </c>
       <c r="Z80">
@@ -21586,10 +21587,10 @@
       <c r="I81">
         <v>3708280</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="11">
         <v>2</v>
       </c>
-      <c r="K81" s="16">
+      <c r="K81" s="14">
         <f t="shared" si="24"/>
         <v>0.75</v>
       </c>
@@ -21609,11 +21610,11 @@
         <f>I81/VLOOKUP(A81, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1485.0941129355226</v>
       </c>
-      <c r="P81" s="13">
+      <c r="P81" s="11">
         <f>J81/VLOOKUP(A81, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>8.0096115338406087E-4</v>
       </c>
-      <c r="Q81" s="12">
+      <c r="Q81" s="10">
         <f t="shared" si="25"/>
         <v>-1.001705606530775</v>
       </c>
@@ -21641,11 +21642,11 @@
         <f t="shared" si="31"/>
         <v>2.373503954444089</v>
       </c>
-      <c r="X81" s="13">
+      <c r="X81" s="11">
         <f t="shared" si="32"/>
         <v>-0.95101868876354934</v>
       </c>
-      <c r="Y81" s="12">
+      <c r="Y81" s="10">
         <v>29.2</v>
       </c>
       <c r="Z81">
@@ -21692,10 +21693,10 @@
       <c r="I82">
         <v>577345</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="11">
         <v>7</v>
       </c>
-      <c r="K82" s="16">
+      <c r="K82" s="14">
         <f t="shared" si="24"/>
         <v>0.77847222222044365</v>
       </c>
@@ -21715,11 +21716,11 @@
         <f>I82/VLOOKUP(A82, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>231.21545855026031</v>
       </c>
-      <c r="P82" s="13">
+      <c r="P82" s="11">
         <f>J82/VLOOKUP(A82, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.803364036844213E-3</v>
       </c>
-      <c r="Q82" s="12">
+      <c r="Q82" s="10">
         <f t="shared" si="25"/>
         <v>4.7845942251460181E-2</v>
       </c>
@@ -21747,11 +21748,11 @@
         <f t="shared" si="31"/>
         <v>-0.55263513528298025</v>
       </c>
-      <c r="X82" s="13">
+      <c r="X82" s="11">
         <f t="shared" si="32"/>
         <v>0.87181848879785917</v>
       </c>
-      <c r="Y82" s="12">
+      <c r="Y82" s="10">
         <v>29.08</v>
       </c>
       <c r="Z82">
@@ -21798,10 +21799,10 @@
       <c r="I83">
         <v>55167</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="11">
         <v>0</v>
       </c>
-      <c r="K83" s="16">
+      <c r="K83" s="14">
         <f t="shared" si="24"/>
         <v>0.77777777778101154</v>
       </c>
@@ -21821,11 +21822,11 @@
         <f>I83/VLOOKUP(A83, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>22.093311974369243</v>
       </c>
-      <c r="P83" s="13">
+      <c r="P83" s="11">
         <f>J83/VLOOKUP(A83, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>0</v>
       </c>
-      <c r="Q83" s="12">
+      <c r="Q83" s="10">
         <f t="shared" si="25"/>
         <v>-0.95859140247377972</v>
       </c>
@@ -21853,11 +21854,11 @@
         <f t="shared" si="31"/>
         <v>-1.0406572301509673</v>
       </c>
-      <c r="X83" s="13">
+      <c r="X83" s="11">
         <f t="shared" si="32"/>
         <v>-1.6801535597881128</v>
       </c>
-      <c r="Y83" s="12">
+      <c r="Y83" s="10">
         <v>28.59</v>
       </c>
       <c r="Z83">
@@ -21904,10 +21905,10 @@
       <c r="I84">
         <v>56512</v>
       </c>
-      <c r="J84" s="13">
+      <c r="J84" s="11">
         <v>0</v>
       </c>
-      <c r="K84" s="16">
+      <c r="K84" s="14">
         <f t="shared" si="24"/>
         <v>0.80902777778101154</v>
       </c>
@@ -21927,11 +21928,11 @@
         <f>I84/VLOOKUP(A84, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>22.631958350020025</v>
       </c>
-      <c r="P84" s="13">
+      <c r="P84" s="11">
         <f>J84/VLOOKUP(A84, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>0</v>
       </c>
-      <c r="Q84" s="12">
+      <c r="Q84" s="10">
         <f t="shared" si="25"/>
         <v>0.11170763053370776</v>
       </c>
@@ -21959,11 +21960,11 @@
         <f t="shared" si="31"/>
         <v>-1.0394002072246906</v>
       </c>
-      <c r="X84" s="13">
+      <c r="X84" s="11">
         <f t="shared" si="32"/>
         <v>-1.6801535597881128</v>
       </c>
-      <c r="Y84" s="12">
+      <c r="Y84" s="10">
         <v>29.14</v>
       </c>
       <c r="Z84">
@@ -22010,10 +22011,10 @@
       <c r="I85">
         <v>195108</v>
       </c>
-      <c r="J85" s="13">
+      <c r="J85" s="11">
         <v>2</v>
       </c>
-      <c r="K85" s="16">
+      <c r="K85" s="14">
         <f t="shared" si="24"/>
         <v>0.73472222222335404</v>
       </c>
@@ -22033,11 +22034,11 @@
         <f>I85/VLOOKUP(A85, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>78.136964357228678</v>
       </c>
-      <c r="P85" s="13">
+      <c r="P85" s="11">
         <f>J85/VLOOKUP(A85, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>8.0096115338406087E-4</v>
       </c>
-      <c r="Q85" s="12">
+      <c r="Q85" s="10">
         <f t="shared" si="25"/>
         <v>-2.4870155454110208</v>
       </c>
@@ -22065,11 +22066,11 @@
         <f t="shared" si="31"/>
         <v>-0.90986983585645287</v>
       </c>
-      <c r="X85" s="13">
+      <c r="X85" s="11">
         <f t="shared" si="32"/>
         <v>-0.95101868876354934</v>
       </c>
-      <c r="Y85" s="12">
+      <c r="Y85" s="10">
         <v>29.02</v>
       </c>
       <c r="Z85">
@@ -22116,10 +22117,10 @@
       <c r="I86">
         <v>21224304</v>
       </c>
-      <c r="J86" s="13">
+      <c r="J86" s="11">
         <v>98</v>
       </c>
-      <c r="K86" s="16">
+      <c r="K86" s="14">
         <f t="shared" ref="K86:K93" si="36">MOD(F86, 1)</f>
         <v>0.75103009259328246</v>
       </c>
@@ -22139,11 +22140,11 @@
         <f>I86/VLOOKUP(A86, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>764.23390465216767</v>
       </c>
-      <c r="P86" s="13">
+      <c r="P86" s="11">
         <f>J86/VLOOKUP(A86, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.5287339766671469E-3</v>
       </c>
-      <c r="Q86" s="12">
+      <c r="Q86" s="10">
         <f t="shared" ref="Q86:Q93" si="37">STANDARDIZE(D86, D$1, D$2)</f>
         <v>-0.14931672498191323</v>
       </c>
@@ -22171,11 +22172,11 @@
         <f t="shared" ref="W86:W93" si="43">STANDARDIZE(O86, O$1, O$2)</f>
         <v>0.69125406023812674</v>
       </c>
-      <c r="X86" s="13">
+      <c r="X86" s="11">
         <f t="shared" ref="X86:X93" si="44">STANDARDIZE(P86, P$1, P$2)</f>
         <v>1.5321407969189451</v>
       </c>
-      <c r="Y86" s="20">
+      <c r="Y86" s="18">
         <v>1023.31</v>
       </c>
       <c r="Z86">
@@ -22222,10 +22223,10 @@
       <c r="I87">
         <v>15768176</v>
       </c>
-      <c r="J87" s="13">
+      <c r="J87" s="11">
         <v>67</v>
       </c>
-      <c r="K87" s="16">
+      <c r="K87" s="14">
         <f t="shared" si="36"/>
         <v>0.74467592592554865</v>
       </c>
@@ -22245,11 +22246,11 @@
         <f>I87/VLOOKUP(A87, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>567.77243266599453</v>
       </c>
-      <c r="P87" s="13">
+      <c r="P87" s="11">
         <f>J87/VLOOKUP(A87, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>2.4125018003744777E-3</v>
       </c>
-      <c r="Q87" s="12">
+      <c r="Q87" s="10">
         <f t="shared" si="37"/>
         <v>0.7410266624457571</v>
       </c>
@@ -22277,11 +22278,11 @@
         <f t="shared" si="43"/>
         <v>0.23277780275218735</v>
       </c>
-      <c r="X87" s="13">
+      <c r="X87" s="11">
         <f t="shared" si="44"/>
         <v>0.51600686775650817</v>
       </c>
-      <c r="Y87" s="20">
+      <c r="Y87" s="18">
         <v>1020.26</v>
       </c>
       <c r="Z87">
@@ -22328,10 +22329,10 @@
       <c r="I88">
         <v>1067810</v>
       </c>
-      <c r="J88" s="13">
+      <c r="J88" s="11">
         <v>12</v>
       </c>
-      <c r="K88" s="16">
+      <c r="K88" s="14">
         <f t="shared" si="36"/>
         <v>0.74585648148058681</v>
       </c>
@@ -22351,11 +22352,11 @@
         <f>I88/VLOOKUP(A88, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>87.986980883322346</v>
       </c>
-      <c r="P88" s="13">
+      <c r="P88" s="11">
         <f>J88/VLOOKUP(A88, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>9.8879367172050102E-4</v>
       </c>
-      <c r="Q88" s="12">
+      <c r="Q88" s="10">
         <f t="shared" si="37"/>
         <v>-0.26749150145836625</v>
       </c>
@@ -22383,11 +22384,11 @@
         <f t="shared" si="43"/>
         <v>-0.88688314708026417</v>
       </c>
-      <c r="X88" s="13">
+      <c r="X88" s="11">
         <f t="shared" si="44"/>
         <v>-0.78003007283277248</v>
       </c>
-      <c r="Y88" s="20">
+      <c r="Y88" s="18">
         <v>36.75</v>
       </c>
       <c r="Z88">
@@ -22434,10 +22435,10 @@
       <c r="I89">
         <v>6691159</v>
       </c>
-      <c r="J89" s="13">
+      <c r="J89" s="11">
         <v>15</v>
       </c>
-      <c r="K89" s="16">
+      <c r="K89" s="14">
         <f t="shared" si="36"/>
         <v>0.70059027777460869</v>
       </c>
@@ -22457,11 +22458,11 @@
         <f>I89/VLOOKUP(A89, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>551.34797297297303</v>
       </c>
-      <c r="P89" s="13">
+      <c r="P89" s="11">
         <f>J89/VLOOKUP(A89, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.2359920896506263E-3</v>
       </c>
-      <c r="Q89" s="12">
+      <c r="Q89" s="10">
         <f t="shared" si="37"/>
         <v>-0.37889918724456961</v>
       </c>
@@ -22489,11 +22490,11 @@
         <f t="shared" si="43"/>
         <v>0.19444853271691481</v>
       </c>
-      <c r="X89" s="13">
+      <c r="X89" s="11">
         <f t="shared" si="44"/>
         <v>-0.55499920109393741</v>
       </c>
-      <c r="Y89" s="20">
+      <c r="Y89" s="18">
         <v>35.93</v>
       </c>
       <c r="Z89">
@@ -22540,10 +22541,10 @@
       <c r="I90">
         <v>2299905</v>
       </c>
-      <c r="J90" s="13">
+      <c r="J90" s="11">
         <v>12</v>
       </c>
-      <c r="K90" s="16">
+      <c r="K90" s="14">
         <f t="shared" si="36"/>
         <v>0.73849537037312984</v>
       </c>
@@ -22563,11 +22564,11 @@
         <f>I90/VLOOKUP(A90, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>142.41779676760171</v>
       </c>
-      <c r="P90" s="13">
+      <c r="P90" s="11">
         <f>J90/VLOOKUP(A90, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>7.4308006687720605E-4</v>
       </c>
-      <c r="Q90" s="12">
+      <c r="Q90" s="10">
         <f t="shared" si="37"/>
         <v>-1.1672559370299316</v>
       </c>
@@ -22595,11 +22596,11 @@
         <f t="shared" si="43"/>
         <v>-0.75985958105360341</v>
       </c>
-      <c r="X90" s="13">
+      <c r="X90" s="11">
         <f t="shared" si="44"/>
         <v>-1.0037092822669036</v>
       </c>
-      <c r="Y90" s="20">
+      <c r="Y90" s="18">
         <v>44.72</v>
       </c>
       <c r="Z90">
@@ -22646,10 +22647,10 @@
       <c r="I91">
         <v>2116230</v>
       </c>
-      <c r="J91" s="13">
+      <c r="J91" s="11">
         <v>6</v>
       </c>
-      <c r="K91" s="16">
+      <c r="K91" s="14">
         <f t="shared" si="36"/>
         <v>0.73645833333284827</v>
       </c>
@@ -22669,11 +22670,11 @@
         <f>I91/VLOOKUP(A91, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>131.04402749396249</v>
       </c>
-      <c r="P91" s="13">
+      <c r="P91" s="11">
         <f>J91/VLOOKUP(A91, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>3.7154003343860303E-4</v>
       </c>
-      <c r="Q91" s="12">
+      <c r="Q91" s="10">
         <f t="shared" si="37"/>
         <v>-0.22488145243656446</v>
       </c>
@@ -22701,11 +22702,11 @@
         <f t="shared" si="43"/>
         <v>-0.78640220601395017</v>
       </c>
-      <c r="X91" s="13">
+      <c r="X91" s="11">
         <f t="shared" si="44"/>
         <v>-1.341931421027508</v>
       </c>
-      <c r="Y91" s="20">
+      <c r="Y91" s="18">
         <v>44.73</v>
       </c>
       <c r="Z91">
@@ -22752,10 +22753,10 @@
       <c r="I92">
         <v>128442</v>
       </c>
-      <c r="J92" s="13">
+      <c r="J92" s="11">
         <v>0</v>
       </c>
-      <c r="K92" s="16">
+      <c r="K92" s="14">
         <f t="shared" si="36"/>
         <v>0.78719907407503342</v>
       </c>
@@ -22775,11 +22776,11 @@
         <f>I92/VLOOKUP(A92, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>51.438526231477773</v>
       </c>
-      <c r="P92" s="13">
+      <c r="P92" s="11">
         <f>J92/VLOOKUP(A92, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>0</v>
       </c>
-      <c r="Q92" s="12">
+      <c r="Q92" s="10">
         <f t="shared" si="37"/>
         <v>0.32573399776905015</v>
       </c>
@@ -22807,11 +22808,11 @@
         <f t="shared" si="43"/>
         <v>-0.97217518188112118</v>
       </c>
-      <c r="X92" s="13">
+      <c r="X92" s="11">
         <f t="shared" si="44"/>
         <v>-1.6801535597881128</v>
       </c>
-      <c r="Y92" s="20">
+      <c r="Y92" s="18">
         <v>28.62</v>
       </c>
       <c r="Z92">
@@ -22858,10 +22859,10 @@
       <c r="I93">
         <v>120768</v>
       </c>
-      <c r="J93" s="13">
+      <c r="J93" s="11">
         <v>4</v>
       </c>
-      <c r="K93" s="16">
+      <c r="K93" s="14">
         <f t="shared" si="36"/>
         <v>0.66707175925694173</v>
       </c>
@@ -22881,11 +22882,11 @@
         <f>I93/VLOOKUP(A93, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>48.365238285943128</v>
       </c>
-      <c r="P93" s="13">
+      <c r="P93" s="11">
         <f>J93/VLOOKUP(A93, 'Normalization Factors'!$A:$C, 3, )</f>
         <v>1.6019223067681217E-3</v>
       </c>
-      <c r="Q93" s="12">
+      <c r="Q93" s="10">
         <f t="shared" si="37"/>
         <v>-3.3652898457232396</v>
       </c>
@@ -22913,11 +22914,11 @@
         <f t="shared" si="43"/>
         <v>-0.97934722198242175</v>
       </c>
-      <c r="X93" s="13">
+      <c r="X93" s="11">
         <f t="shared" si="44"/>
         <v>-0.22188381773898594</v>
       </c>
-      <c r="Y93" s="20">
+      <c r="Y93" s="18">
         <v>28.36</v>
       </c>
       <c r="Z93">
@@ -23016,7 +23017,7 @@
       <c r="B1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="9" t="s">
         <v>24</v>
       </c>
       <c r="D1" s="6" t="s">
@@ -23072,7 +23073,7 @@
       <c r="I2">
         <v>2.6590746287423723</v>
       </c>
-      <c r="J2" s="13">
+      <c r="J2" s="11">
         <v>0.57063492258337778</v>
       </c>
       <c r="K2">
@@ -23107,7 +23108,7 @@
       <c r="I3">
         <v>3.3843176592165354</v>
       </c>
-      <c r="J3" s="13">
+      <c r="J3" s="11">
         <v>0.92738685491968431</v>
       </c>
       <c r="K3">
@@ -23142,7 +23143,7 @@
       <c r="I4">
         <v>1.8189944146948901E-2</v>
       </c>
-      <c r="J4" s="13">
+      <c r="J4" s="11">
         <v>-0.43666465107207558</v>
       </c>
       <c r="K4">
@@ -23177,7 +23178,7 @@
       <c r="I5">
         <v>1.0876900311099587</v>
       </c>
-      <c r="J5" s="13">
+      <c r="J5" s="11">
         <v>1.0532993016266159</v>
       </c>
       <c r="K5">
@@ -23212,7 +23213,7 @@
       <c r="I6">
         <v>0.47496380637497176</v>
       </c>
-      <c r="J6" s="13">
+      <c r="J6" s="11">
         <v>0.61260573815235497</v>
       </c>
       <c r="K6">
@@ -23247,7 +23248,7 @@
       <c r="I7">
         <v>1.9972934023675506</v>
       </c>
-      <c r="J7" s="13">
+      <c r="J7" s="11">
         <v>0.99034307827315016</v>
       </c>
       <c r="K7">
@@ -23282,7 +23283,7 @@
       <c r="I8">
         <v>1.3949075207290556</v>
       </c>
-      <c r="J8" s="13">
+      <c r="J8" s="11">
         <v>1.3470950106094566</v>
       </c>
       <c r="K8">
@@ -23317,7 +23318,7 @@
       <c r="I9">
         <v>1.0658343867119258</v>
       </c>
-      <c r="J9" s="13">
+      <c r="J9" s="11">
         <v>1.2421679716870133</v>
       </c>
       <c r="K9">
@@ -23352,7 +23353,7 @@
       <c r="I10">
         <v>-0.47111763158462916</v>
       </c>
-      <c r="J10" s="13">
+      <c r="J10" s="11">
         <v>2.5616195363816898E-2</v>
       </c>
       <c r="K10">
@@ -23387,7 +23388,7 @@
       <c r="I11">
         <v>-0.43080076893291175</v>
       </c>
-      <c r="J11" s="13">
+      <c r="J11" s="11">
         <v>-0.62037307964355848</v>
       </c>
       <c r="K11">
@@ -23422,7 +23423,7 @@
       <c r="I12">
         <v>-0.18117979426412295</v>
       </c>
-      <c r="J12" s="13">
+      <c r="J12" s="11">
         <v>-0.49815889248000095</v>
       </c>
       <c r="K12">
@@ -23457,7 +23458,7 @@
       <c r="I13">
         <v>-0.66577441318205877</v>
       </c>
-      <c r="J13" s="13">
+      <c r="J13" s="11">
         <v>-0.44578138369561904</v>
       </c>
       <c r="K13">
@@ -23492,7 +23493,7 @@
       <c r="I14">
         <v>-0.5738762135884643</v>
       </c>
-      <c r="J14" s="13">
+      <c r="J14" s="11">
         <v>-0.84734228437587944</v>
       </c>
       <c r="K14">
@@ -23527,7 +23528,7 @@
       <c r="I15">
         <v>-0.64248003674802145</v>
       </c>
-      <c r="J15" s="13">
+      <c r="J15" s="11">
         <v>-0.75441996867899952</v>
       </c>
       <c r="K15">
@@ -23562,7 +23563,7 @@
       <c r="I16">
         <v>-0.64820247437710965</v>
       </c>
-      <c r="J16" s="13">
+      <c r="J16" s="11">
         <v>-0.37621228982078025</v>
       </c>
       <c r="K16">
@@ -23597,7 +23598,7 @@
       <c r="I17">
         <v>-0.38188736415139612</v>
       </c>
-      <c r="J17" s="13">
+      <c r="J17" s="11">
         <v>-0.14928768250584862</v>
       </c>
       <c r="K17">
@@ -23632,7 +23633,7 @@
       <c r="I18">
         <v>-5.8146088793080218E-2</v>
       </c>
-      <c r="J18" s="13">
+      <c r="J18" s="11">
         <v>0.45584460366730223</v>
       </c>
       <c r="K18">
@@ -23667,7 +23668,7 @@
       <c r="I19">
         <v>-0.89692276575676755</v>
       </c>
-      <c r="J19" s="13">
+      <c r="J19" s="11">
         <v>-0.37621228982078025</v>
       </c>
       <c r="K19">
@@ -23702,7 +23703,7 @@
       <c r="I20">
         <v>-0.3407135850942955</v>
       </c>
-      <c r="J20" s="13">
+      <c r="J20" s="11">
         <v>-0.45185382559242415</v>
       </c>
       <c r="K20">
@@ -23737,7 +23738,7 @@
       <c r="I21">
         <v>-0.84402865365755375</v>
       </c>
-      <c r="J21" s="13">
+      <c r="J21" s="11">
         <v>-0.9057030402222872</v>
       </c>
       <c r="K21">
@@ -23772,7 +23773,7 @@
       <c r="I22">
         <v>-0.73991258255928949</v>
       </c>
-      <c r="J22" s="13">
+      <c r="J22" s="11">
         <v>-0.30057075404913641</v>
       </c>
       <c r="K22">
@@ -23807,7 +23808,7 @@
       <c r="I23">
         <v>-0.75966565647716133</v>
       </c>
-      <c r="J23" s="13">
+      <c r="J23" s="11">
         <v>-7.3646146734204748E-2</v>
       </c>
       <c r="K23">
@@ -23842,7 +23843,7 @@
       <c r="I24">
         <v>1.887266206879096</v>
       </c>
-      <c r="J24" s="13">
+      <c r="J24" s="11">
         <v>0.37771908832545326</v>
       </c>
       <c r="K24">
@@ -23877,7 +23878,7 @@
       <c r="I25">
         <v>3.6104406098131632</v>
       </c>
-      <c r="J25" s="13">
+      <c r="J25" s="11">
         <v>2.6915242686771346</v>
       </c>
       <c r="K25">
@@ -23912,7 +23913,7 @@
       <c r="I26">
         <v>0.35642009067554564</v>
       </c>
-      <c r="J26" s="13">
+      <c r="J26" s="11">
         <v>1.5346216785012938</v>
       </c>
       <c r="K26">
@@ -23947,7 +23948,7 @@
       <c r="I27">
         <v>0.26368361054940659</v>
       </c>
-      <c r="J27" s="13">
+      <c r="J27" s="11">
         <v>1.9643283548523205</v>
       </c>
       <c r="K27">
@@ -23982,7 +23983,7 @@
       <c r="I28">
         <v>0.61792951675124874</v>
       </c>
-      <c r="J28" s="13">
+      <c r="J28" s="11">
         <v>1.0057519229923382</v>
       </c>
       <c r="K28">
@@ -24017,7 +24018,7 @@
       <c r="I29">
         <v>5.4437702321119427E-2</v>
       </c>
-      <c r="J29" s="13">
+      <c r="J29" s="11">
         <v>1.5346216785012938</v>
       </c>
       <c r="K29">
@@ -24052,7 +24053,7 @@
       <c r="I30">
         <v>0.73374372156355316</v>
       </c>
-      <c r="J30" s="13">
+      <c r="J30" s="11">
         <v>1.7990565562557719</v>
       </c>
       <c r="K30">
@@ -24087,7 +24088,7 @@
       <c r="I31">
         <v>0.30368603740635619</v>
       </c>
-      <c r="J31" s="13">
+      <c r="J31" s="11">
         <v>0.93964320355371855</v>
       </c>
       <c r="K31">
@@ -24122,7 +24123,7 @@
       <c r="I32">
         <v>1.7417512957773222</v>
       </c>
-      <c r="J32" s="13">
+      <c r="J32" s="11">
         <v>2.1957088728874887</v>
       </c>
       <c r="K32">
@@ -24157,7 +24158,7 @@
       <c r="I33">
         <v>0.17866234700561764</v>
       </c>
-      <c r="J33" s="13">
+      <c r="J33" s="11">
         <v>1.137969361869577</v>
       </c>
       <c r="K33">
@@ -24192,7 +24193,7 @@
       <c r="I34">
         <v>-0.90439202807811003</v>
       </c>
-      <c r="J34" s="13">
+      <c r="J34" s="11">
         <v>-0.89428151583165316</v>
       </c>
       <c r="K34">
@@ -24227,7 +24228,7 @@
       <c r="I35">
         <v>-0.45493910672673482</v>
       </c>
-      <c r="J35" s="13">
+      <c r="J35" s="11">
         <v>-0.82399164767509347</v>
       </c>
       <c r="K35">
@@ -24262,7 +24263,7 @@
       <c r="I36">
         <v>-0.57323514616061699</v>
       </c>
-      <c r="J36" s="13">
+      <c r="J36" s="11">
         <v>-0.33196257057917533</v>
       </c>
       <c r="K36">
@@ -24297,7 +24298,7 @@
       <c r="I37">
         <v>-0.89187563223715283</v>
       </c>
-      <c r="J37" s="13">
+      <c r="J37" s="11">
         <v>-0.96457138398821285</v>
       </c>
       <c r="K37">
@@ -24332,7 +24333,7 @@
       <c r="I38">
         <v>-0.69240869368602198</v>
       </c>
-      <c r="J38" s="13">
+      <c r="J38" s="11">
         <v>-0.96457138398821285</v>
       </c>
       <c r="K38">
@@ -24367,7 +24368,7 @@
       <c r="I39">
         <v>-0.68500121427878713</v>
       </c>
-      <c r="J39" s="13">
+      <c r="J39" s="11">
         <v>-0.53953292211340076</v>
       </c>
       <c r="K39">
@@ -24402,7 +24403,7 @@
       <c r="I40">
         <v>-0.42430170999346684</v>
       </c>
-      <c r="J40" s="13">
+      <c r="J40" s="11">
         <v>0.1794032848447808</v>
       </c>
       <c r="K40">
@@ -24437,7 +24438,7 @@
       <c r="I41">
         <v>-2.7389859295869817E-2</v>
       </c>
-      <c r="J41" s="13">
+      <c r="J41" s="11">
         <v>1.3297012159778709</v>
       </c>
       <c r="K41">
@@ -24472,7 +24473,7 @@
       <c r="I42">
         <v>-0.1310991722206849</v>
       </c>
-      <c r="J42" s="13">
+      <c r="J42" s="11">
         <v>0.13147420438090182</v>
       </c>
       <c r="K42">
@@ -24507,7 +24508,7 @@
       <c r="I43">
         <v>-0.23262554714847433</v>
       </c>
-      <c r="J43" s="13">
+      <c r="J43" s="11">
         <v>-0.25195843933012807</v>
       </c>
       <c r="K43">
@@ -24542,7 +24543,7 @@
       <c r="I44">
         <v>-0.54263855795167426</v>
       </c>
-      <c r="J44" s="13">
+      <c r="J44" s="11">
         <v>-0.34781660025788563</v>
       </c>
       <c r="K44">
@@ -24577,7 +24578,7 @@
       <c r="I45">
         <v>-0.5797329839700418</v>
       </c>
-      <c r="J45" s="13">
+      <c r="J45" s="11">
         <v>-1.3063982095354609</v>
       </c>
       <c r="K45">
@@ -24612,7 +24613,7 @@
       <c r="I46">
         <v>-0.29464748953090908</v>
       </c>
-      <c r="J46" s="13">
+      <c r="J46" s="11">
         <v>1.0421267331945985</v>
       </c>
       <c r="K46">
@@ -24647,7 +24648,7 @@
       <c r="I47">
         <v>-0.62821844247329917</v>
       </c>
-      <c r="J47" s="13">
+      <c r="J47" s="11">
         <v>-1.2313037010734327E-2</v>
       </c>
       <c r="K47">
@@ -24682,7 +24683,7 @@
       <c r="I48">
         <v>-0.83583508215683888</v>
       </c>
-      <c r="J48" s="13">
+      <c r="J48" s="11">
         <v>-1.1693125511327056</v>
       </c>
       <c r="K48">
@@ -24717,7 +24718,7 @@
       <c r="I49">
         <v>0.11935485975961607</v>
       </c>
-      <c r="J49" s="13">
+      <c r="J49" s="11">
         <v>-1.0556230746171729</v>
       </c>
       <c r="K49">
@@ -24752,7 +24753,7 @@
       <c r="I50">
         <v>4.9742887809365893E-2</v>
       </c>
-      <c r="J50" s="13">
+      <c r="J50" s="11">
         <v>-0.31664147726620928</v>
       </c>
       <c r="K50">
@@ -24787,7 +24788,7 @@
       <c r="I51">
         <v>-0.77834646954611275</v>
       </c>
-      <c r="J51" s="13">
+      <c r="J51" s="11">
         <v>-1.1124678128749392</v>
       </c>
       <c r="K51">
@@ -24822,7 +24823,7 @@
       <c r="I52">
         <v>-0.81921434757845901</v>
       </c>
-      <c r="J52" s="13">
+      <c r="J52" s="11">
         <v>-1.1693125511327056</v>
       </c>
       <c r="K52">
@@ -24857,7 +24858,7 @@
       <c r="I53">
         <v>-0.53179025780449374</v>
       </c>
-      <c r="J53" s="13">
+      <c r="J53" s="11">
         <v>-0.94193359810163979</v>
       </c>
       <c r="K53">
@@ -24892,7 +24893,7 @@
       <c r="I54">
         <v>0.4959011166452591</v>
       </c>
-      <c r="J54" s="13">
+      <c r="J54" s="11">
         <v>0.82025328788911911</v>
       </c>
       <c r="K54">
@@ -24927,7 +24928,7 @@
       <c r="I55">
         <v>0.42285937041642024</v>
       </c>
-      <c r="J55" s="13">
+      <c r="J55" s="11">
         <v>0.30865064356922139</v>
       </c>
       <c r="K55">
@@ -24962,7 +24963,7 @@
       <c r="I56">
         <v>0.23298738918270509</v>
       </c>
-      <c r="J56" s="13">
+      <c r="J56" s="11">
         <v>2.1845270060755135</v>
       </c>
       <c r="K56">
@@ -24997,7 +24998,7 @@
       <c r="I57">
         <v>-0.38168641234073786</v>
       </c>
-      <c r="J57" s="13">
+      <c r="J57" s="11">
         <v>-3.2417785977377211E-2</v>
       </c>
       <c r="K57">
@@ -25032,7 +25033,7 @@
       <c r="I58">
         <v>-0.17425972397339032</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="11">
         <v>5.7957425079432183E-2</v>
       </c>
       <c r="K58">
@@ -25067,7 +25068,7 @@
       <c r="I59">
         <v>0.41164497959768992</v>
       </c>
-      <c r="J59" s="13">
+      <c r="J59" s="11">
         <v>0.54429754308500322</v>
       </c>
       <c r="K59">
@@ -25102,7 +25103,7 @@
       <c r="I60">
         <v>0.88741109302977994</v>
       </c>
-      <c r="J60" s="13">
+      <c r="J60" s="11">
         <v>0.35724365154439913</v>
       </c>
       <c r="K60">
@@ -25137,7 +25138,7 @@
       <c r="I61">
         <v>0.58955970138716396</v>
       </c>
-      <c r="J61" s="13">
+      <c r="J61" s="11">
         <v>0.80617299124184949</v>
       </c>
       <c r="K61">
@@ -25172,7 +25173,7 @@
       <c r="I62">
         <v>1.5589488905576663</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J62" s="11">
         <v>-0.20391802307741408</v>
       </c>
       <c r="K62">
@@ -25207,7 +25208,7 @@
       <c r="I63">
         <v>0.464749477661347</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J63" s="11">
         <v>0.2824220949281574</v>
       </c>
       <c r="K63">
@@ -25242,7 +25243,7 @@
       <c r="I64">
         <v>2.9909661871001959E-2</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J64" s="11">
         <v>9.536820338755285E-2</v>
       </c>
       <c r="K64">
@@ -25277,7 +25278,7 @@
       <c r="I65">
         <v>-8.9557916773821911E-2</v>
       </c>
-      <c r="J65" s="13">
+      <c r="J65" s="11">
         <v>0.84358376954997016</v>
       </c>
       <c r="K65">
@@ -25312,7 +25313,7 @@
       <c r="I66">
         <v>0.34966586107185493</v>
       </c>
-      <c r="J66" s="13">
+      <c r="J66" s="11">
         <v>0.58170832139312434</v>
       </c>
       <c r="K66">
@@ -25347,7 +25348,7 @@
       <c r="I67">
         <v>1.1337164988175439</v>
       </c>
-      <c r="J67" s="13">
+      <c r="J67" s="11">
         <v>1.2925131092474209</v>
       </c>
       <c r="K67">
@@ -25382,7 +25383,7 @@
       <c r="I68">
         <v>-0.4794695743316742</v>
       </c>
-      <c r="J68" s="13">
+      <c r="J68" s="11">
         <v>-0.73853746922286567</v>
       </c>
       <c r="K68">
@@ -25417,7 +25418,7 @@
       <c r="I69">
         <v>-0.47102867843867513</v>
       </c>
-      <c r="J69" s="13">
+      <c r="J69" s="11">
         <v>-0.73853746922286567</v>
       </c>
       <c r="K69">
@@ -25452,7 +25453,7 @@
       <c r="I70">
         <v>-0.71973867787221224</v>
       </c>
-      <c r="J70" s="13">
+      <c r="J70" s="11">
         <v>-0.9383819621203664</v>
       </c>
       <c r="K70">
@@ -25487,7 +25488,7 @@
       <c r="I71">
         <v>-0.55845768309508126</v>
       </c>
-      <c r="J71" s="13">
+      <c r="J71" s="11">
         <v>-0.73853746922286567</v>
       </c>
       <c r="K71">
@@ -25522,7 +25523,7 @@
       <c r="I72">
         <v>-0.90304007198994596</v>
       </c>
-      <c r="J72" s="13">
+      <c r="J72" s="11">
         <v>-0.9383819621203664</v>
       </c>
       <c r="K72">
@@ -25557,7 +25558,7 @@
       <c r="I73">
         <v>-0.88435581018987985</v>
       </c>
-      <c r="J73" s="13">
+      <c r="J73" s="11">
         <v>-0.83845971567161615</v>
       </c>
       <c r="K73">
@@ -25592,7 +25593,7 @@
       <c r="I74">
         <v>-1.0694070155439643</v>
       </c>
-      <c r="J74" s="13">
+      <c r="J74" s="11">
         <v>-1.0024890661695849</v>
       </c>
       <c r="K74">
@@ -25627,7 +25628,7 @@
       <c r="I75">
         <v>-1.0393785868481993</v>
       </c>
-      <c r="J75" s="13">
+      <c r="J75" s="11">
         <v>-1.7377599337103697</v>
       </c>
       <c r="K75">
@@ -25662,7 +25663,7 @@
       <c r="I76">
         <v>-0.9115599684591934</v>
       </c>
-      <c r="J76" s="13">
+      <c r="J76" s="11">
         <v>-1.3701244999399773</v>
       </c>
       <c r="K76">
@@ -25697,7 +25698,7 @@
       <c r="I77">
         <v>-0.85785182710046826</v>
       </c>
-      <c r="J77" s="13">
+      <c r="J77" s="11">
         <v>-1.0024890661695849</v>
       </c>
       <c r="K77">
@@ -25732,7 +25733,7 @@
       <c r="I78">
         <v>-1.0339547522798589</v>
       </c>
-      <c r="J78" s="13">
+      <c r="J78" s="11">
         <v>0.10041723514159244</v>
       </c>
       <c r="K78">
@@ -25767,7 +25768,7 @@
       <c r="I79">
         <v>2.2865656701315653</v>
       </c>
-      <c r="J79" s="13">
+      <c r="J79" s="11">
         <v>-1.0024890661695849</v>
       </c>
       <c r="K79">
@@ -25802,7 +25803,7 @@
       <c r="I80">
         <v>-0.58050734763420619</v>
       </c>
-      <c r="J80" s="13">
+      <c r="J80" s="11">
         <v>0.83568810268237737</v>
       </c>
       <c r="K80">
@@ -25837,7 +25838,7 @@
       <c r="I81">
         <v>-1.0586783905561752</v>
       </c>
-      <c r="J81" s="13">
+      <c r="J81" s="11">
         <v>-1.7377599337103697</v>
       </c>
       <c r="K81">
@@ -25872,7 +25873,7 @@
       <c r="I82">
         <v>-1.0574467414772595</v>
       </c>
-      <c r="J82" s="13">
+      <c r="J82" s="11">
         <v>-1.7377599337103697</v>
       </c>
       <c r="K82">
@@ -25907,7 +25908,7 @@
       <c r="I83">
         <v>-0.93053102717138436</v>
       </c>
-      <c r="J83" s="13">
+      <c r="J83" s="11">
         <v>-1.0024890661695849</v>
       </c>
       <c r="K83">

--- a/Training Dataset Wkbk.xlsx
+++ b/Training Dataset Wkbk.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Training Dataset" sheetId="8" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="543" uniqueCount="54">
   <si>
     <t>company</t>
   </si>
@@ -195,6 +195,9 @@
   <si>
     <t>DOWN</t>
   </si>
+  <si>
+    <t xml:space="preserve">Bottom 30% num tweets, Bottom 25% subjectivity, stock price up (12/14) </t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +284,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -301,6 +304,8 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -583,9 +588,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD131"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="V23" sqref="V23"/>
+      <selection pane="topRight" activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -595,6 +600,7 @@
     <col min="11" max="11" width="15.5" style="13" customWidth="1"/>
     <col min="16" max="16" width="10.83203125" style="11"/>
     <col min="17" max="17" width="10.83203125" style="10"/>
+    <col min="22" max="22" width="12.5" bestFit="1" customWidth="1"/>
     <col min="24" max="24" width="10.83203125" style="11"/>
     <col min="25" max="25" width="10.83203125" style="10"/>
     <col min="27" max="27" width="10.83203125" style="4"/>
@@ -14250,13 +14256,27 @@
     </row>
     <row r="127" spans="1:30" x14ac:dyDescent="0.2">
       <c r="K127"/>
-      <c r="Q127"/>
+      <c r="Q127">
+        <v>-0.38300000000000001</v>
+      </c>
+      <c r="T127">
+        <v>-0.63100000000000001</v>
+      </c>
       <c r="Y127"/>
       <c r="AA127"/>
     </row>
     <row r="128" spans="1:30" x14ac:dyDescent="0.2">
       <c r="K128"/>
-      <c r="Q128"/>
+      <c r="Q128">
+        <f>PERCENTRANK(Q4:Q125, Q127)</f>
+        <v>0.26</v>
+      </c>
+      <c r="T128" s="19">
+        <f>PERCENTRANK(T4:T125, T127)</f>
+        <v>0.307</v>
+      </c>
+      <c r="V128" s="19"/>
+      <c r="X128" s="20"/>
       <c r="Y128"/>
       <c r="AA128"/>
     </row>
@@ -14275,6 +14295,9 @@
     <row r="131" spans="11:27" x14ac:dyDescent="0.2">
       <c r="K131"/>
       <c r="Q131"/>
+      <c r="R131" t="s">
+        <v>53</v>
+      </c>
       <c r="Y131"/>
       <c r="AA131"/>
     </row>
@@ -14307,7 +14330,7 @@
       </colorScale>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="Q132:S1048576 Q3:S125">
+  <conditionalFormatting sqref="Q133:S1048576 Q3:S125 Q132:R132">
     <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
@@ -14351,9 +14374,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AD130"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A23" sqref="A23:XFD23"/>
+      <selection pane="topRight" activeCell="AD2" sqref="AD2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -25800,9 +25823,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K96"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" workbookViewId="0">
+    <sheetView topLeftCell="A58" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="M7" sqref="M7"/>
+      <selection pane="topRight" activeCell="I87" sqref="I87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
